--- a/what/kriminalitas/df_result_lda.xlsx
+++ b/what/kriminalitas/df_result_lda.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['ditemukan', 'motif', 'korban', 'pasal_kuhp', 'wanita', 'tersangka', 'pembunuhan', 'uang', 'tindak_pidana', 'pasal', 'berinisial', 'diduga', 'mencari', 'pria']</t>
+          <t>['pasal_kuhp', 'berinisial', 'pembunuhan', 'korban', 'jalan', 'ditangkap', 'uang', 'putri', 'tersangka', 'tindak_pidana', 'wanita', 'polisi', 'ditemukan', 'diduga', 'pasal', 'mencari', 'motif', 'kejadian', 'pria']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['istrinya', 'wanita', 'pembunuhan', 'langsung', 'masuk', 'keluarganya', 'terkait', 'istri', 'saudara', 'mengaku', 'mencari', 'keluarga']</t>
+          <t>['istrinya', 'masuk', 'keluarganya', 'wanita', 'keluarga', 'mengaku', 'istri', 'saudara', 'pembunuhan', 'terkait', 'mencari', 'langsung']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'ricky', 'kuat_ruf', 'saksi', 'uang', 'magelang', 'eliezer', 'juta', 'sidang', 'hakim', 'mulia', 'kuat', 'kuhp', 'anaknya', 'menyebut', 'saudara', 'mengaku', 'motor', 'milik', 'sambo']</t>
+          <t>['magelang', 'mulia', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'milik', 'anaknya', 'hakim', 'ferdy_sambo', 'sambo', 'uang', 'saudara', 'kuhp', 'juta', 'terdakwa', 'mengaku', 'saksi', 'ricky', 'kuat', 'motor', 'sidang', 'jaksel']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['sambo', 'jakarta', 'terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'pembunuhan', 'richard', 'kuat_ruf', 'saksi', 'membunuh', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'kali', 'eliezer', 'sidang', 'putri_candrawathi', 'pembunuhan_berencana', 'yosua', 'bharada', 'richard_eliezer', 'menyebut', 'saudara', 'mengaku']</t>
+          <t>['richard', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'membunuh', 'hakim', 'ferdy_sambo', 'sambo', 'kali', 'saudara', 'jakarta', 'kuhp', 'yosua', 'bharada', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'ricky', 'pembunuhan_berencana', 'richard_eliezer', 'keterangan', 'jaksa', 'sidang', 'jaksel']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -784,7 +784,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['sambo', 'rumah_dinas', 'jakarta', 'tkp', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'richard', 'duren', 'langsung', 'polri', 'kuat_ruf', 'pembunuhan_brigadir', 'masuk', 'putri_candrawathi', 'polres', 'pembunuhan_berencana', 'yosua', 'rumah', 'richard_eliezer', 'menyebut', 'saudara', 'mengaku', 'chuck', 'cctv']</t>
+          <t>['richard', 'perintah', 'rumah', 'masuk', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'pembunuhan', 'cctv', 'tkp', 'putri_candrawathi', 'ferdy_sambo', 'sambo', 'polri', 'polres', 'saudara', 'chuck', 'jakarta', 'kuhp', 'yosua', 'duren', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'pembunuhan_brigadir', 'rumah_dinas', 'langsung', 'pembunuhan_berencana', 'sidang', 'jaksel', 'hendra_kurniawan']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -862,7 +862,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['ditemukan', 'korban', 'keluarga', 'jalan', 'kejadian', 'rumah', 'diduga', 'informasi', 'mengaku', 'hilang']</t>
+          <t>['hilang', 'rumah', 'korban', 'mengaku', 'informasi', 'jalan', 'diduga', 'ditemukan', 'kejadian', 'keluarga']</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -926,7 +926,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['sambo', 'pembunuhan', 'kuat_ruf', 'kuat', 'ricky', 'hakim', 'yosua']</t>
+          <t>['kuat_ruf', 'kuat', 'hakim', 'sidang', 'pembunuhan', 'pembunuhan_brigadir', 'sambo', 'ricky', 'yosua']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -964,7 +964,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['terdakwa', 'cctv', 'tkp', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'duren', 'polri', 'jaksel', 'pembunuhan_brigadir', 'hendra', 'pasal', 'hendra_kurniawan', 'kuhp', 'menyebut', 'sambo']</t>
+          <t>['perintah', 'duren', 'hendra', 'ferdy_sambo', 'pasal', 'sambo', 'agus', 'terdakwa', 'yosua_hutabarat', 'hendra_kurniawan', 'polri', 'menyebut', 'pembunuhan', 'cctv', 'pembunuhan_brigadir', 'tkp', 'jaksel', 'kuhp']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['korban', 'ditangkap', 'polisi', 'keluarga', 'tersangka', 'langsung', 'pelaku', 'berinisial', 'pemerkosaan', 'polres', 'laporan', 'rumah', 'warga']</t>
+          <t>['langsung', 'rumah', 'korban', 'pemerkosaan', 'warga', 'ditangkap', 'polres', 'berinisial', 'pelaku', 'laporan', 'polisi', 'tersangka', 'keluarga']</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['tkp', 'langsung', 'pelaku', 'uang', 'perampokan', 'menyebut', 'diduga', 'olah_tkp']</t>
+          <t>['perampokan', 'olah_tkp', 'menyebut', 'uang', 'pelaku', 'diduga', 'tim', 'aksi', 'milik', 'langsung']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['korban', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'pembunuhan', 'richard', 'saksi', 'membunuh', 'pembunuhan_brigadir', 'bharada_richard', 'eliezer', 'sidang', 'hakim', 'mulia', 'terkait', 'yosua', 'bharada', 'menyebut', 'keterangan', 'saudara']</t>
+          <t>['richard', 'mulia', 'menyebut', 'eliezer', 'pembunuhan', 'korban', 'hakim', 'membunuh', 'ferdy_sambo', 'sambo', 'kali', 'saudara', 'yosua', 'bharada', 'bharada_richard', 'yosua_hutabarat', 'saksi', 'pembunuhan_brigadir', 'ricky', 'keterangan', 'jaksa', 'sidang', 'terkait', 'jaksel']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'aksi', 'kali', 'berinisial', 'pemerkosaan', 'informasi', 'diduga']</t>
+          <t>['korban', 'pemerkosaan', 'kali', 'informasi', 'berinisial', 'polisi', 'laporan', 'diduga', 'aksi']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['sambo', 'terdakwa', 'cctv', 'ferdy_sambo', 'kondisi', 'pembunuhan', 'brigadir_yosua', 'tewas', 'duren', 'langsung', 'jaksel', 'bharada_richard', 'eliezer', 'jaksa', 'arif', 'masuk', 'yosua', 'laporan', 'menyebut', 'mengaku', 'chuck']</t>
+          <t>['rumah', 'masuk', 'kondisi', 'menyebut', 'eliezer', 'pembunuhan', 'laporan', 'cctv', 'brigadir_yosua', 'ferdy_sambo', 'sambo', 'chuck', 'yosua', 'duren', 'terdakwa', 'bharada_richard', 'mengaku', 'saksi', 'arif', 'tewas', 'langsung', 'jaksa', 'sidang', 'jaksel']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['korban', 'aksi', 'pembunuhan', 'polri', 'membunuh', 'kuat', 'menyebut', 'warga']</t>
+          <t>['kuat', 'korban', 'membunuh', 'polri', 'menyebut', 'pelaku', 'pembunuhan', 'tewas', 'kejadian', 'aksi', 'warga']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['jakarta', 'terdakwa', 'putri', 'ferdy_sambo', 'keluarga', 'kondisi', 'pembunuhan', 'brigadir_yosua', 'duren', 'kuat_ruf', 'saksi', 'ricky_rizal', 'magelang', 'jaksa', 'hakim', 'putri_candrawathi', 'terkait', 'kuat', 'istri', 'yosua', 'kejadian', 'richard_eliezer', 'menyebut', 'keterangan', 'saudara', 'diduga', 'tim']</t>
+          <t>['magelang', 'kuat_ruf', 'kondisi', 'istri', 'menyebut', 'pembunuhan', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'saudara', 'putri', 'jakarta', 'yosua', 'duren', 'terdakwa', 'kejadian', 'ricky_rizal', 'saksi', 'diduga', 'pembunuhan_brigadir', 'tim', 'keluarga', 'kuat', 'richard_eliezer', 'keterangan', 'jaksa', 'sidang', 'terkait']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'pelaku', 'pasal', 'pemerkosaan', 'istri', 'informasi', 'tim', 'ditangkap', 'pria']</t>
+          <t>['korban', 'pemerkosaan', 'pasal', 'informasi', 'pria', 'ditangkap', 'polres', 'berinisial', 'istri', 'laporan', 'kepala', 'pelaku', 'polisi', 'tim', 'langsung']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['sambo', 'terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'kuat_ruf', 'jaksel', 'saksi', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'kali', 'eliezer', 'sidang', 'hakim', 'putri_candrawathi', 'pembunuhan_berencana', 'yosua', 'saudara', 'mengaku', 'putri', 'rumah', 'bharada']</t>
+          <t>['mulia', 'rumah', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'kali', 'saudara', 'putri', 'kuhp', 'bharada', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'pembunuhan_berencana', 'keterangan', 'sidang', 'jaksel']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['sambo', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'kondisi', 'pembunuhan', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'pembunuhan_brigadir', 'putri_candrawathi', 'kuhp', 'yosua', 'richard_eliezer', 'menyebut']</t>
+          <t>['kuat_ruf', 'pasal_kuhp', 'ferdy_sambo', 'pembunuhan_berencana', 'sambo', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'putri_candrawathi', 'richard_eliezer', 'kondisi', 'menyebut', 'pembunuhan', 'jaksa', 'pembunuhan_brigadir', 'jaksel', 'kuhp', 'brigadir_yosua']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['korban', 'wanita', 'tersangka', 'pelaku', 'kali', 'pasal', 'pemerkosaan', 'diduga']</t>
+          <t>['korban', 'pemerkosaan', 'wanita', 'kali', 'mengaku', 'pelaku', 'diduga', 'pasal', 'tersangka', 'keluarga']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'kondisi', 'pembunuhan', 'pelaku', 'berinisial', 'keluarganya', 'anaknya', 'informasi', 'mengaku', 'mencari']</t>
+          <t>['anaknya', 'rumah', 'korban', 'keluarganya', 'mengaku', 'informasi', 'kondisi', 'berinisial', 'pelaku', 'polisi', 'pembunuhan', 'mencari']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['sambo', 'cctv', 'pasal_kuhp', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'duren', 'polri', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'pembunuhan_brigadir', 'magelang', 'bharada_richard', 'kali', 'eliezer', 'jaksa', 'hakim', 'putri_candrawathi', 'mulia', 'terkait', 'kuat', 'kuhp', 'kejadian', 'rumah', 'saudara', 'mengaku']</t>
+          <t>['magelang', 'mulia', 'rumah', 'kuat_ruf', 'pasal_kuhp', 'eliezer', 'pembunuhan', 'cctv', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'sambo', 'terkait', 'kali', 'polri', 'saudara', 'putri', 'kuhp', 'yosua', 'duren', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'pembunuhan_brigadir', 'kuat', 'jaksa', 'kejadian', 'jaksel']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['korban', 'luka', 'polisi', 'pencurian', 'masuk', 'putri', 'diduga']</t>
+          <t>['pencurian', 'hilang', 'masuk', 'korban', 'luka', 'menyebut', 'berinisial', 'polisi', 'diduga', 'putri', 'pencuri', 'langsung']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['terdakwa', 'korban', 'tersangka', 'langsung', 'pelaku', 'pasal', 'berinisial', 'pemerkosaan', 'hakim', 'terkait', 'anaknya']</t>
+          <t>['anaknya', 'langsung', 'korban', 'hakim', 'pemerkosaan', 'ketiga', 'terdakwa', 'pria', 'berinisial', 'pelaku', 'sidang', 'terkait', 'tersangka', 'keluarga']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['motif', 'tkp', 'korban', 'ditangkap', 'polisi', 'kepala', 'aksi', 'kondisi', 'tersangka', 'pembunuhan', 'tewas', 'langsung', 'saksi', 'membunuh', 'pelaku', 'kali', 'berinisial', 'kuat', 'perampokan', 'kejadian', 'rumah', 'anaknya', 'polsek', 'menyebut', 'diduga', 'warga', 'hilang', 'motor']</t>
+          <t>['hilang', 'rumah', 'masuk', 'kondisi', 'kepala', 'berinisial', 'menyebut', 'pembunuhan', 'aksi', 'anaknya', 'perampokan', 'korban', 'membunuh', 'kali', 'ditangkap', 'polres', 'tersangka', 'olah_tkp', 'polsek', 'informasi', 'jenazah', 'polisi', 'diduga', 'tewas', 'langsung', 'warga', 'kuat', 'motor', 'motif', 'pelaku', 'kejadian']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['istrinya', 'rumah_dinas', 'ditemukan', 'cctv', 'tkp', 'luka', 'polisi', 'jalan', 'langsung', 'pelaku', 'uang', 'perampokan', 'kejadian', 'olah_tkp', 'tim']</t>
+          <t>['istrinya', 'hilang', 'masuk', 'kondisi', 'istri', 'kepala', 'cctv', 'tkp', 'milik', 'perampokan', 'jalan', 'uang', 'polres', 'olah_tkp', 'juta', 'mengaku', 'polisi', 'ditemukan', 'diduga', 'rumah_dinas', 'tim', 'langsung', 'luka', 'pelaku', 'kejadian']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['sambo', 'putri', 'ferdy_sambo', 'ricky', 'keluarga', 'pembunuhan', 'brigadir_yosua', 'richard', 'kuat_ruf', 'ricky_rizal', 'pembunuhan_brigadir', 'magelang', 'eliezer', 'masuk', 'hakim', 'putri_candrawathi', 'mulia', 'istri', 'yosua', 'rumah', 'richard_eliezer', 'keterangan', 'saudara', 'mengaku']</t>
+          <t>['richard', 'magelang', 'mulia', 'rumah', 'masuk', 'kuat_ruf', 'istri', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'saudara', 'putri', 'yosua', 'bharada', 'terdakwa', 'mengaku', 'ricky_rizal', 'saksi', 'pembunuhan_brigadir', 'ricky', 'keluarga', 'richard_eliezer', 'keterangan', 'sidang', 'jaksel']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['istrinya', 'ditemukan', 'cctv', 'korban', 'luka', 'langsung', 'pelaku', 'kali', 'masuk', 'istri', 'perampokan', 'rumah', 'mengaku', 'ketiga']</t>
+          <t>['istrinya', 'rumah', 'masuk', 'istri', 'cctv', 'tkp', 'aksi', 'milik', 'perampokan', 'korban', 'kali', 'jalan', 'uang', 'juta', 'mengaku', 'saksi', 'ditemukan', 'langsung', 'luka', 'ketiga', 'pelaku']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['korban', 'kepala', 'pembunuhan', 'tewas', 'membunuh']</t>
+          <t>['korban', 'membunuh', 'kepala', 'pembunuhan', 'tewas', 'warga']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['ditemukan', 'autopsi', 'luka', 'brigadir_yosua', 'polri', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'bharada_richard', 'eliezer', 'hakim', 'jenazah', 'terkait', 'yosua', 'laporan', 'menyebut', 'saudara', 'informasi', 'olah_tkp']</t>
+          <t>['mulia', 'kuat_ruf', 'menyebut', 'eliezer', 'laporan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'polri', 'saudara', 'olah_tkp', 'yosua', 'terdakwa', 'bharada_richard', 'ricky_rizal', 'informasi', 'jenazah', 'ditemukan', 'autopsi', 'luka', 'keterangan', 'terkait', 'jaksel']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['istrinya', 'korban', 'luka', 'polisi', 'tewas', 'langsung', 'pelaku', 'berinisial', 'polres', 'keluarganya', 'istri', 'kejadian', 'rumah', 'anaknya', 'polsek', 'keterangan', 'warga', 'motor', 'pria']</t>
+          <t>['istrinya', 'rumah', 'istri', 'berinisial', 'anaknya', 'korban', 'polres', 'polsek', 'keluarganya', 'polisi', 'tewas', 'langsung', 'warga', 'luka', 'motor', 'keterangan', 'pelaku', 'kejadian', 'pria']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['korban', 'ditangkap', 'polisi', 'kondisi', 'pelaku', 'uang', 'berinisial', 'masuk', 'rumah', 'anaknya', 'polsek', 'warga', 'mengaku', 'pria']</t>
+          <t>['anaknya', 'polsek', 'masuk', 'rumah', 'korban', 'kali', 'mengaku', 'pria', 'kondisi', 'ditangkap', 'berinisial', 'pelaku', 'polisi', 'uang', 'aksi', 'warga']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['jakarta', 'pencurian', 'jaksa', 'sidang', 'istri', 'rumah', 'menyebut', 'informasi', 'milik', 'pencuri']</t>
+          <t>['pencurian', 'rumah', 'jaksa', 'jakarta', 'informasi', 'motif', 'istri', 'ditangkap', 'kepala', 'berinisial', 'pelaku', 'sidang', 'menyebut', 'pencuri', 'milik']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['tkp', 'korban', 'polisi', 'pembunuhan', 'membunuh', 'pelaku', 'uang', 'pasal', 'juta', 'jenazah', 'pembunuhan_berencana']</t>
+          <t>['juta', 'korban', 'membunuh', 'pembunuhan_berencana', 'pasal', 'keterangan', 'jenazah', 'berinisial', 'istri', 'pelaku', 'polisi', 'pembunuhan', 'tkp', 'uang', 'aksi', 'milik']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'jalan', 'kondisi', 'pelaku', 'pencurian', 'berinisial', 'kejadian', 'laporan', 'rumah', 'mencuri', 'warga', 'mengaku', 'pria']</t>
+          <t>['perintah', 'mencuri', 'rumah', 'masuk', 'kondisi', 'berinisial', 'laporan', 'milik', 'korban', 'jalan', 'jakarta', 'polsek', 'mengaku', 'polisi', 'warga', 'pencurian', 'pelaku', 'kejadian', 'pria']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rumah_dinas', 'polisi', 'masuk', 'perampokan', 'kejadian', 'olah_tkp', 'tkp', 'rumah']</t>
+          <t>['rumah', 'masuk', 'perampokan', 'jalan', 'polisi', 'rumah_dinas', 'kejadian', 'tkp', 'aksi', 'olah_tkp']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['polisi', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'duren', 'polri', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'pembunuhan_brigadir', 'pemerkosaan', 'hakim', 'putri_candrawathi', 'mulia', 'yosua', 'menyebut', 'saudara', 'mengaku']</t>
+          <t>['mulia', 'kuat_ruf', 'istri', 'menyebut', 'pembunuhan', 'putri_candrawathi', 'hakim', 'pemerkosaan', 'ferdy_sambo', 'kali', 'polri', 'saudara', 'putri', 'yosua', 'bharada', 'duren', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'polisi', 'pembunuhan_brigadir', 'jaksel']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['ditemukan', 'korban', 'jalan', 'kondisi', 'pembunuhan', 'tewas', 'membunuh', 'pelaku', 'kali', 'juta', 'polres', 'kejadian', 'warga', 'mencari', 'motor']</t>
+          <t>['juta', 'korban', 'membunuh', 'motor', 'kali', 'motif', 'jalan', 'kondisi', 'polres', 'pelaku', 'ditemukan', 'polisi', 'tewas', 'kejadian', 'pembunuhan', 'mencari', 'milik', 'warga']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['sambo', 'rumah_dinas', 'jakarta', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'tewas', 'kuat_ruf', 'saksi', 'ricky_rizal', 'magelang', 'sidang', 'putri_candrawathi', 'pembunuhan_berencana', 'istri', 'kuhp', 'yosua', 'irfan', 'richard_eliezer', 'keterangan', 'mengaku']</t>
+          <t>['perintah', 'magelang', 'kuat_ruf', 'pasal_kuhp', 'istri', 'kepala', 'menyebut', 'pembunuhan', 'putri_candrawathi', 'ferdy_sambo', 'jakarta', 'kuhp', 'yosua', 'duren', 'terdakwa', 'mengaku', 'ricky_rizal', 'saksi', 'tewas', 'rumah_dinas', 'irfan', 'pembunuhan_berencana', 'richard_eliezer', 'keterangan', 'jaksa', 'sidang', 'sambo']</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['ditemukan', 'tkp', 'korban', 'tersangka', 'pembunuhan', 'terkait', 'magelang']</t>
+          <t>['magelang', 'korban', 'menyebut', 'polisi', 'ditemukan', 'pembunuhan', 'tewas', 'terkait', 'tersangka', 'aksi', 'olah_tkp']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['rumah_dinas', 'ditemukan', 'cctv', 'tkp', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'brigadir_yosua', 'duren', 'polri', 'pembunuhan_brigadir', 'hendra_kurniawan', 'jaksa', 'jenazah', 'terkait', 'agus', 'kejadian', 'laporan', 'rumah', 'tim', 'ketiga', 'hilang', 'saksi', 'yosua']</t>
+          <t>['perintah', 'hilang', 'rumah', 'pembunuhan', 'laporan', 'cctv', 'tkp', 'ferdy_sambo', 'polri', 'yosua', 'kejadian', 'yosua_hutabarat', 'saksi', 'jenazah', 'ditemukan', 'pembunuhan_brigadir', 'rumah_dinas', 'tim', 'keluarga', 'agus', 'ketiga', 'jaksa', 'terkait', 'jaksel', 'hendra_kurniawan']</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['korban', 'luka', 'wanita', 'pelaku', 'pencurian', 'perampokan', 'motor', 'pria']</t>
+          <t>['pencurian', 'perampokan', 'korban', 'luka', 'motor', 'wanita', 'jalan', 'pelaku', 'pasal', 'tim', 'milik', 'pria']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['motif', 'korban', 'ditangkap', 'polisi', 'aksi', 'tersangka', 'pelaku', 'pencurian', 'kali', 'terkait', 'mencuri', 'informasi', 'mengaku', 'motor']</t>
+          <t>['mencuri', 'pencurian', 'polsek', 'korban', 'motor', 'kali', 'mengaku', 'informasi', 'motif', 'ditangkap', 'polres', 'pelaku', 'polisi', 'laporan', 'terkait', 'tersangka', 'aksi', 'warga']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['cctv', 'polisi', 'saksi', 'pelaku', 'uang', 'pencurian', 'masuk', 'kejadian', 'laporan', 'polsek', 'menyebut', 'keterangan', 'informasi', 'mencari', 'pria', 'motor', 'diduga']</t>
+          <t>['pencurian', 'masuk', 'kejadian', 'informasi', 'keterangan', 'menyebut', 'pelaku', 'saksi', 'laporan', 'polisi', 'terkait', 'uang', 'mencari', 'cctv', 'diduga', 'pria']</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['istrinya', 'ditemukan', 'korban', 'pasal_kuhp', 'jalan', 'tersangka', 'pembunuhan', 'tewas', 'membunuh', 'pelaku', 'kali', 'pasal', 'polres', 'pembunuhan_berencana', 'agus', 'istri', 'rumah', 'diduga', 'mengaku']</t>
+          <t>['istrinya', 'rumah', 'istri', 'pembunuhan', 'korban', 'membunuh', 'kali', 'jalan', 'polres', 'tersangka', 'kuhp', 'mengaku', 'diduga', 'ditemukan', 'pasal', 'tewas', 'warga', 'pembunuhan_berencana', 'agus', 'pelaku']</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'aksi', 'kondisi', 'terkait', 'kejadian', 'laporan', 'mengaku', 'olah_tkp', 'milik', 'pencurian']</t>
+          <t>['pencurian', 'polsek', 'korban', 'kejadian', 'olah_tkp', 'mengaku', 'kondisi', 'polisi', 'laporan', 'terkait', 'aksi', 'milik']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['jakarta', 'ditemukan', 'cctv', 'korban', 'aksi', 'tersangka', 'langsung', 'pelaku', 'pencurian', 'kali', 'berinisial', 'kejadian', 'menyebut', 'tangerang']</t>
+          <t>['tangerang', 'pencurian', 'hilang', 'korban', 'kali', 'jakarta', 'polri', 'menyebut', 'berinisial', 'ditemukan', 'cctv', 'pelaku', 'kejadian', 'tersangka', 'aksi', 'langsung']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['korban', 'ditangkap', 'jalan', 'langsung', 'pelaku', 'pemerkosaan', 'rumah', 'warga']</t>
+          <t>['langsung', 'rumah', 'korban', 'pemerkosaan', 'jalan', 'ditangkap', 'pelaku', 'warga']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['jakarta', 'korban', 'pelaku', 'jaya', 'tindak_pidana', 'pencurian', 'mencuri', 'anaknya']</t>
+          <t>['anaknya', 'mencuri', 'pencurian', 'jaya', 'korban', 'tindak_pidana', 'pelaku', 'jakarta']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['tkp', 'polisi', 'aksi', 'jalan', 'tersangka', 'pelaku', 'pencurian', 'kuhp', 'mencuri', 'warga', 'mengaku', 'hilang', 'ditangkap', 'juta']</t>
+          <t>['mencuri', 'hilang', 'masuk', 'kepala', 'tkp', 'aksi', 'jalan', 'ditangkap', 'tersangka', 'kuhp', 'juta', 'mengaku', 'polisi', 'diduga', 'warga', 'pencurian', 'ketiga', 'pelaku', 'pria']</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['sambo', 'jakarta', 'tkp', 'ferdy_sambo', 'wanita', 'pembunuhan', 'richard', 'kuat_ruf', 'saksi', 'pembunuhan_brigadir', 'bharada_richard', 'kali', 'eliezer', 'putri_candrawathi', 'kejadian', 'rumah', 'keterangan', 'mengaku']</t>
+          <t>['richard', 'rumah', 'kuat_ruf', 'kondisi', 'eliezer', 'pembunuhan', 'tkp', 'putri_candrawathi', 'anaknya', 'ferdy_sambo', 'sambo', 'kali', 'jakarta', 'yosua', 'bharada', 'wanita', 'terdakwa', 'bharada_richard', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'mencari', 'langsung', 'keterangan', 'sidang', 'kejadian', 'jaksel']</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['sambo', 'jakarta', 'putri', 'ferdy_sambo', 'pembunuhan', 'brigadir_yosua', 'langsung', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'bharada_richard', 'eliezer', 'masuk', 'mulia', 'kuat', 'pembunuhan_berencana', 'istri', 'yosua', 'mengaku', 'milik', 'rumah']</t>
+          <t>['istrinya', 'perintah', 'magelang', 'mulia', 'rumah', 'masuk', 'kuat_ruf', 'istri', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'milik', 'ferdy_sambo', 'sambo', 'putri', 'jakarta', 'yosua', 'terdakwa', 'bharada_richard', 'mengaku', 'ricky_rizal', 'langsung', 'kuat', 'pembunuhan_berencana', 'jaksel']</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['sambo', 'jakarta', 'pasal_kuhp', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'ricky_rizal', 'magelang', 'bharada_richard', 'eliezer', 'putri_candrawathi', 'mulia', 'pembunuhan_berencana', 'istri', 'yosua', 'kejadian', 'rumah', 'richard_eliezer', 'hakim']</t>
+          <t>['istrinya', 'magelang', 'mulia', 'rumah', 'masuk', 'kuat_ruf', 'pasal_kuhp', 'kondisi', 'istri', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'putri', 'jakarta', 'kuhp', 'yosua', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'kuat', 'pembunuhan_berencana', 'sidang', 'kejadian', 'jaksel']</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['sambo', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'brigadir_yosua', 'polri', 'pembunuhan_brigadir', 'pasal', 'hakim', 'mulia', 'kuhp', 'yosua', 'mengaku', 'chuck', 'sidang']</t>
+          <t>['perintah', 'mulia', 'pembunuhan', 'cctv', 'hendra', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'polri', 'saudara', 'chuck', 'kuhp', 'yosua', 'terdakwa', 'yosua_hutabarat', 'mengaku', 'saksi', 'pasal', 'agus', 'jaksa', 'sidang', 'jaksel']</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['ditemukan', 'korban', 'luka', 'ditangkap', 'polisi', 'kondisi', 'tersangka', 'tewas', 'langsung', 'pelaku', 'tindak_pidana', 'pemerkosaan', 'polres', 'polsek', 'warga', 'motor', 'pria']</t>
+          <t>['kondisi', 'aksi', 'korban', 'pemerkosaan', 'ditangkap', 'polres', 'tersangka', 'polsek', 'tindak_pidana', 'jenazah', 'polisi', 'ditemukan', 'tewas', 'langsung', 'warga', 'luka', 'motor', 'pelaku', 'pria']</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['rumah_dinas', 'cctv', 'polisi', 'pelaku', 'terkait', 'perampokan', 'kejadian']</t>
+          <t>['masuk', 'perampokan', 'kejadian', 'jalan', 'keterangan', 'pelaku', 'polisi', 'cctv', 'rumah_dinas', 'terkait']</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['jakarta', 'cctv', 'motif', 'tkp', 'korban', 'ditangkap', 'polisi', 'tersangka', 'saksi', 'pelaku', 'pencurian', 'kali', 'keluarganya', 'terkait', 'kejadian', 'rumah', 'jaksa', 'pencuri']</t>
+          <t>['rumah', 'masuk', 'berinisial', 'cctv', 'tkp', 'korban', 'kali', 'ditangkap', 'jakarta', 'tersangka', 'pencuri', 'keluarganya', 'kejadian', 'saksi', 'polisi', 'pencurian', 'motif', 'pelaku', 'jaksa', 'terkait']</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'jalan', 'tersangka', 'membunuh', 'uang', 'mengaku']</t>
+          <t>['korban', 'membunuh', 'jakarta', 'mengaku', 'informasi', 'jalan', 'uang', 'polisi', 'rekonstruksi', 'tersangka']</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['tkp', 'ditangkap', 'tersangka', 'langsung', 'saksi', 'pelaku', 'jaya', 'berinisial', 'mencuri', 'warga', 'informasi', 'mencari', 'milik', 'pencuri', 'rumah']</t>
+          <t>['mencuri', 'langsung', 'mencari', 'rumah', 'tersangka', 'jaya', 'tim', 'warga', 'jalan', 'ditangkap', 'saksi', 'berinisial', 'pelaku', 'informasi', 'tkp', 'pencuri', 'milik', 'keluarga']</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['ditemukan', 'korban', 'luka', 'polisi', 'jalan', 'tewas', 'langsung', 'saksi', 'polres', 'kejadian', 'laporan', 'polsek', 'diduga', 'warga', 'informasi']</t>
+          <t>['langsung', 'polsek', 'korban', 'luka', 'informasi', 'jalan', 'saksi', 'polres', 'polisi', 'ditemukan', 'laporan', 'tewas', 'kejadian', 'diduga', 'warga']</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['sambo', 'rumah_dinas', 'jakarta', 'terdakwa', 'cctv', 'pasal_kuhp', 'ferdy_sambo', 'ricky', 'perintah', 'pembunuhan', 'tewas', 'richard', 'duren', 'langsung', 'kuat_ruf', 'saksi', 'ricky_rizal', 'uang', 'pembunuhan_brigadir', 'magelang', 'kali', 'eliezer', 'pasal', 'sidang', 'masuk', 'hakim', 'putri_candrawathi', 'mulia', 'terkait', 'kuat', 'istri', 'yosua', 'rumah', 'richard_eliezer', 'menyebut', 'keterangan', 'saudara', 'mengaku', 'hilang']</t>
+          <t>['richard', 'istrinya', 'perintah', 'magelang', 'rumah', 'masuk', 'hilang', 'pasal_kuhp', 'mulia', 'kuat_ruf', 'istri', 'kepala', 'menyebut', 'eliezer', 'cctv', 'pembunuhan', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'kali', 'polri', 'uang', 'saudara', 'jakarta', 'kuhp', 'yosua', 'duren', 'terdakwa', 'mengaku', 'ricky_rizal', 'saksi', 'pembunuhan_brigadir', 'rumah_dinas', 'tewas', 'pasal', 'ricky', 'langsung', 'kuat', 'pembunuhan_berencana', 'richard_eliezer', 'keterangan', 'jaksa', 'sidang', 'terkait', 'sambo']</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['motif', 'korban', 'tersangka', 'pembunuhan', 'pelaku', 'jaksa', 'terkait', 'pembunuhan_berencana', 'istri', 'rumah', 'polisi', 'tewas', 'magelang']</t>
+          <t>['magelang', 'rumah', 'korban', 'tewas', 'pembunuhan_berencana', 'motif', 'istri', 'menyebut', 'pelaku', 'jaksa', 'polisi', 'pembunuhan', 'terkait', 'tersangka']</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['jakarta', 'terdakwa', 'autopsi', 'yosua_hutabarat', 'pembunuhan', 'polri', 'saksi', 'jaksa', 'arif', 'hakim', 'polres', 'mulia', 'agus', 'yosua', 'mengaku']</t>
+          <t>['mulia', 'masuk', 'pembunuhan', 'hakim', 'polri', 'polres', 'jakarta', 'yosua', 'terdakwa', 'yosua_hutabarat', 'mengaku', 'saksi', 'jenazah', 'arif', 'tim', 'autopsi', 'agus', 'jaksa', 'sidang', 'jaksel']</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['jakarta', 'korban', 'polisi', 'langsung', 'jaya', 'tim', 'keluarga']</t>
+          <t>['jaya', 'korban', 'keluarga', 'kali', 'polisi', 'ditemukan', 'jakarta', 'tim', 'langsung']</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['jakarta', 'kepala', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'jaksel', 'saksi', 'pembunuhan_brigadir', 'magelang', 'sidang', 'hakim', 'putri_candrawathi', 'mulia', 'kuat', 'istri', 'richard_eliezer', 'menyebut', 'mengaku', 'sambo']</t>
+          <t>['magelang', 'mulia', 'kuat_ruf', 'istri', 'kepala', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'sambo', 'saudara', 'putri', 'jakarta', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'pasal', 'ricky', 'kuat', 'sidang', 'terkait', 'jaksel']</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['sambo', 'rumah_dinas', 'jakarta', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'jalan', 'brigadir_yosua', 'duren', 'polri', 'jaksel', 'saksi', 'ricky_rizal', 'magelang', 'bharada_richard', 'kali', 'eliezer', 'jaksa', 'sidang', 'hakim', 'putri_candrawathi', 'terkait', 'kuat', 'istri', 'yosua', 'rumah', 'saudara', 'mengaku', 'milik']</t>
+          <t>['magelang', 'rumah', 'masuk', 'istri', 'eliezer', 'cctv', 'putri_candrawathi', 'brigadir_yosua', 'milik', 'hakim', 'ferdy_sambo', 'sambo', 'kali', 'polri', 'jalan', 'saudara', 'jakarta', 'yosua', 'duren', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'rumah_dinas', 'ricky', 'kuat', 'keterangan', 'jaksa', 'sidang', 'terkait', 'jaksel']</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['ditemukan', 'autopsi', 'korban', 'polisi', 'kepala', 'keluarga', 'jalan', 'pembunuhan', 'tewas', 'jenazah', 'hilang']</t>
+          <t>['autopsi', 'hilang', 'korban', 'jalan', 'kepala', 'jenazah', 'ditemukan', 'polisi', 'tewas', 'pembunuhan', 'keluarga']</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['cctv', 'aksi', 'kondisi', 'pelaku', 'uang', 'pencurian', 'juta', 'masuk', 'kejadian', 'polsek', 'hilang', 'milik']</t>
+          <t>['pencurian', 'hilang', 'polsek', 'masuk', 'juta', 'kondisi', 'saksi', 'pelaku', 'uang', 'kejadian', 'aksi', 'milik']</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['polisi', 'aksi', 'langsung', 'pelaku', 'laporan', 'rumah', 'warga', 'pria']</t>
+          <t>['langsung', 'polsek', 'rumah', 'mengaku', 'pria', 'ditangkap', 'berinisial', 'pelaku', 'laporan', 'polisi', 'aksi', 'warga']</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['ditemukan', 'korban', 'luka', 'polisi', 'pembunuhan', 'saksi', 'pelaku', 'berinisial', 'kejadian', 'diduga', 'warga', 'hilang', 'wanita']</t>
+          <t>['hilang', 'rumah', 'berinisial', 'pembunuhan', 'milik', 'korban', 'kali', 'wanita', 'saksi', 'jenazah', 'polisi', 'ditemukan', 'diduga', 'tewas', 'warga', 'luka', 'motif', 'pelaku', 'kejadian', 'pria']</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'kepala', 'keluarga', 'kondisi', 'membunuh', 'kejadian', 'rumah', 'anaknya', 'diduga', 'olah_tkp', 'pelaku']</t>
+          <t>['anaknya', 'langsung', 'rumah', 'korban', 'membunuh', 'pria', 'kondisi', 'polres', 'kepala', 'polisi', 'diduga', 'pelaku', 'kejadian', 'olah_tkp', 'keluarga']</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['terdakwa', 'ferdy_sambo', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'jaksel', 'saksi', 'ricky_rizal', 'bharada_richard', 'kali', 'hakim', 'putri_candrawathi', 'terkait', 'kuat', 'informasi']</t>
+          <t>['kuat_ruf', 'kuat', 'hakim', 'ferdy_sambo', 'terdakwa', 'bharada_richard', 'kali', 'ricky_rizal', 'putri_candrawathi', 'informasi', 'keterangan', 'saksi', 'pembunuhan', 'saudara', 'pembunuhan_brigadir', 'terkait', 'jaksel', 'yosua']</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -5778,7 +5778,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['korban', 'kepala', 'tersangka', 'tewas', 'langsung', 'membunuh', 'pelaku', 'kuat', 'kejadian', 'laporan', 'rumah', 'warga', 'pria']</t>
+          <t>['langsung', 'rumah', 'kuat', 'korban', 'membunuh', 'pria', 'kepala', 'pelaku', 'polisi', 'laporan', 'tewas', 'kejadian', 'tersangka', 'warga']</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'kepala', 'kondisi', 'pelaku', 'berinisial', 'pemerkosaan', 'kejadian', 'rumah', 'menyebut', 'keterangan', 'warga', 'pria', 'diduga']</t>
+          <t>['polsek', 'rumah', 'korban', 'pemerkosaan', 'kejadian', 'warga', 'pria', 'keterangan', 'polres', 'berinisial', 'kondisi', 'kepala', 'pelaku', 'menyebut', 'polisi', 'tim', 'diduga', 'keluarga']</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['sambo', 'terdakwa', 'putri', 'pembunuhan', 'brigadir_yosua', 'jaksel', 'saksi', 'hakim', 'putri_candrawathi', 'pembunuhan_berencana', 'rumah', 'richard_eliezer', 'saudara', 'mengaku', 'laporan']</t>
+          <t>['rumah', 'kuat_ruf', 'hakim', 'ferdy_sambo', 'pembunuhan_berencana', 'terdakwa', 'richard_eliezer', 'ricky_rizal', 'putri_candrawathi', 'mengaku', 'saksi', 'saudara', 'eliezer', 'pembunuhan', 'laporan', 'putri', 'jaksel', 'brigadir_yosua']</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['sambo', 'rumah_dinas', 'terdakwa', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'duren', 'polri', 'saksi', 'pembunuhan_brigadir', 'hendra', 'pasal', 'jaksa', 'sidang', 'terkait', 'kuhp', 'yosua', 'irfan', 'menyebut', 'saudara', 'mengaku']</t>
+          <t>['menyebut', 'kepala', 'pembunuhan', 'cctv', 'hendra', 'brigadir_yosua', 'ferdy_sambo', 'sambo', 'polri', 'saudara', 'kuhp', 'yosua', 'duren', 'terdakwa', 'yosua_hutabarat', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'rumah_dinas', 'pasal', 'irfan', 'agus', 'jaksa', 'sidang', 'terkait', 'jaksel', 'hendra_kurniawan']</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['sambo', 'rumah_dinas', 'jakarta', 'ditemukan', 'terdakwa', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'keluarga', 'pembunuhan', 'tewas', 'duren', 'polri', 'kuat_ruf', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'eliezer', 'jaksa', 'masuk', 'putri_candrawathi', 'yosua', 'richard_eliezer', 'menyebut']</t>
+          <t>['richard', 'masuk', 'kuat_ruf', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'kali', 'polri', 'jakarta', 'yosua', 'duren', 'terdakwa', 'bharada_richard', 'ricky_rizal', 'ditemukan', 'pembunuhan_brigadir', 'rumah_dinas', 'tewas', 'ricky', 'keluarga', 'richard_eliezer', 'jaksa', 'sidang', 'sambo']</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['putri', 'ferdy_sambo', 'ricky', 'pembunuhan', 'brigadir_yosua', 'polri', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'masuk', 'hakim', 'putri_candrawathi', 'saudara', 'mengaku', 'sambo', 'istri', 'yosua']</t>
+          <t>['mulia', 'masuk', 'kuat_ruf', 'istri', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'saudara', 'putri', 'yosua', 'bharada', 'terdakwa', 'mengaku', 'ricky_rizal', 'saksi', 'ricky', 'sidang', 'jaksel']</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['rumah_dinas', 'terdakwa', 'cctv', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'brigadir_yosua', 'duren', 'polri', 'jaksel', 'pembunuhan_brigadir', 'hendra', 'hendra_kurniawan', 'hakim', 'jenazah', 'terkait', 'agus', 'yosua', 'kejadian', 'rumah', 'irfan', 'menyebut', 'saudara', 'mengaku', 'sambo']</t>
+          <t>['perintah', 'mulia', 'rumah', 'menyebut', 'pembunuhan', 'cctv', 'hendra', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'polri', 'saudara', 'yosua', 'duren', 'terdakwa', 'kejadian', 'mengaku', 'saksi', 'jenazah', 'rumah_dinas', 'irfan', 'motor', 'agus', 'keterangan', 'terkait', 'jaksel', 'hendra_kurniawan']</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['ditemukan', 'terdakwa', 'uang', 'pencurian', 'juta', 'agus', 'rumah', 'mencuri', 'mengaku']</t>
+          <t>['mencuri', 'pencurian', 'rumah', 'juta', 'agus', 'terdakwa', 'mengaku', 'uang', 'ditemukan', 'milik']</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['putri', 'ferdy_sambo', 'ricky', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'hakim', 'putri_candrawathi', 'terkait', 'keterangan', 'saudara', 'mengaku', 'sambo', 'istri']</t>
+          <t>['mulia', 'kuat_ruf', 'istri', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'saudara', 'putri', 'yosua', 'bharada', 'terdakwa', 'mengaku', 'ricky', 'keterangan', 'sidang', 'terkait', 'jaksel']</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rumah_dinas', 'tkp', 'polisi', 'langsung', 'pelaku', 'uang', 'terkait', 'istri', 'perampokan', 'keterangan', 'mengaku', 'pria', 'rumah']</t>
+          <t>['istrinya', 'rumah', 'perampokan', 'juta', 'mengaku', 'jalan', 'keterangan', 'istri', 'pelaku', 'pria', 'polisi', 'rumah_dinas', 'terkait', 'tkp', 'uang', 'aksi', 'langsung']</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['istrinya', 'korban', 'ditangkap', 'polisi', 'keluarga', 'kondisi', 'pembunuhan', 'tewas', 'langsung', 'membunuh', 'pelaku', 'magelang', 'polres', 'terkait', 'kejadian', 'rumah', 'anaknya', 'keterangan', 'saudara', 'diduga', 'ketiga']</t>
+          <t>['istrinya', 'magelang', 'rumah', 'kondisi', 'pembunuhan', 'anaknya', 'korban', 'membunuh', 'terkait', 'kali', 'ditangkap', 'polres', 'saudara', 'mengaku', 'polisi', 'ditemukan', 'diduga', 'tewas', 'langsung', 'keluarga', 'ketiga', 'keterangan', 'kejadian']</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['cctv', 'korban', 'keluarga', 'jalan', 'pelaku', 'pencurian', 'terkait', 'kejadian', 'laporan', 'rumah', 'mencuri', 'keterangan', 'diduga', 'warga', 'informasi', 'pria', 'motor', 'polisi']</t>
+          <t>['mencuri', 'rumah', 'cctv', 'laporan', 'tkp', 'aksi', 'korban', 'jalan', 'ditangkap', 'polsek', 'kejadian', 'informasi', 'saksi', 'polisi', 'diduga', 'warga', 'keluarga', 'pencurian', 'keterangan', 'pelaku', 'terkait', 'pria']</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['terdakwa', 'korban', 'ditangkap', 'tersangka', 'langsung', 'pelaku', 'tindak_pidana', 'pasal', 'sidang', 'pemerkosaan', 'masuk', 'hakim', 'terkait', 'kejadian', 'ketiga']</t>
+          <t>['langsung', 'rumah', 'masuk', 'korban', 'hakim', 'tindak_pidana', 'pemerkosaan', 'pasal', 'ketiga', 'terdakwa', 'kejadian', 'ditangkap', 'polres', 'pelaku', 'sidang', 'terkait', 'tersangka', 'keluarga']</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['tkp', 'korban', 'kepala', 'pelaku', 'pencurian', 'masuk', 'polsek', 'diduga', 'jaksel', 'juta']</t>
+          <t>['pencurian', 'polsek', 'masuk', 'jaya', 'juta', 'korban', 'uang', 'kepala', 'pelaku', 'polisi', 'diduga', 'tkp', 'jaksel']</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['jakarta', 'korban', 'polisi', 'pelaku', 'pencurian', 'kali', 'mencuri', 'mengaku', 'mencari', 'ditangkap', 'jaksel']</t>
+          <t>['jaksel', 'mencuri', 'pencurian', 'korban', 'motor', 'kali', 'mengaku', 'ditangkap', 'pelaku', 'polisi', 'jakarta', 'mencari']</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['korban', 'kondisi', 'langsung', 'pelaku', 'uang', 'juta', 'keluarganya', 'kejadian', 'warga', 'pria']</t>
+          <t>['langsung', 'juta', 'korban', 'keluarganya', 'pria', 'kondisi', 'uang', 'pelaku', 'kejadian', 'milik', 'warga']</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['ditangkap', 'langsung', 'pelaku', 'pencurian', 'kali', 'polres', 'laporan', 'rumah', 'mencuri', 'warga', 'informasi', 'mengaku', 'motor', 'pria']</t>
+          <t>['mencuri', 'langsung', 'pencurian', 'rumah', 'motor', 'kali', 'mengaku', 'informasi', 'pria', 'ditangkap', 'polres', 'pelaku', 'polisi', 'laporan', 'aksi', 'warga']</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['istrinya', 'ditangkap', 'pasal_kuhp', 'wanita', 'pelaku', 'kali', 'pemerkosaan', 'kejadian', 'diduga', 'pasal']</t>
+          <t>['istrinya', 'pasal_kuhp', 'pemerkosaan', 'wanita', 'kali', 'istri', 'ditangkap', 'pelaku', 'diduga', 'pasal', 'kejadian', 'kuhp']</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['polisi', 'berinisial', 'menyebut']</t>
+          <t>['menyebut', 'saksi', 'polisi', 'diduga', 'berinisial']</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['terdakwa', 'cctv', 'ferdy_sambo', 'perintah', 'pembunuhan', 'brigadir_yosua', 'langsung', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'bharada_richard', 'eliezer', 'jaksa', 'hakim', 'mulia', 'terkait', 'menyebut', 'keterangan', 'saudara', 'sambo', 'sidang']</t>
+          <t>['perintah', 'mulia', 'kuat_ruf', 'menyebut', 'eliezer', 'pembunuhan', 'cctv', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'sambo', 'kali', 'polri', 'saudara', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'saksi', 'pembunuhan_brigadir', 'langsung', 'keterangan', 'jaksa', 'sidang', 'terkait', 'jaksel']</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['cctv', 'tkp', 'korban', 'polisi', 'pasal_kuhp', 'wanita', 'saksi', 'pelaku', 'pencurian', 'berinisial', 'kuhp', 'kejadian', 'laporan', 'polsek', 'keterangan', 'tim', 'ketiga', 'tangerang', 'ditangkap', 'pencuri']</t>
+          <t>['pasal_kuhp', 'berinisial', 'laporan', 'cctv', 'tkp', 'milik', 'korban', 'ditangkap', 'uang', 'pencuri', 'kuhp', 'tangerang', 'polsek', 'wanita', 'saksi', 'polisi', 'tim', 'pencurian', 'ketiga', 'keterangan', 'pelaku', 'kejadian']</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['sambo', 'terdakwa', 'pasal_kuhp', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'kondisi', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'jaksel', 'saksi', 'ricky_rizal', 'magelang', 'bharada_richard', 'eliezer', 'sidang', 'putri_candrawathi', 'pembunuhan_berencana', 'yosua', 'kejadian', 'mengaku']</t>
+          <t>['perintah', 'magelang', 'rumah', 'kuat_ruf', 'pasal_kuhp', 'kondisi', 'menyebut', 'eliezer', 'pembunuhan', 'cctv', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'putri', 'kuhp', 'yosua', 'bharada', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'tewas', 'pembunuhan_berencana', 'sidang', 'kejadian', 'sambo']</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'eliezer', 'putri_candrawathi', 'mulia', 'kuat', 'istri', 'yosua', 'rumah', 'richard_eliezer', 'mengaku', 'mencari', 'putri']</t>
+          <t>['magelang', 'mulia', 'rumah', 'kuat_ruf', 'pasal_kuhp', 'istri', 'kondisi', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'putri', 'kuhp', 'yosua', 'terdakwa', 'bharada_richard', 'mengaku', 'saksi', 'mencari', 'ricky', 'kuat', 'pembunuhan_berencana']</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['korban', 'pasal_kuhp', 'aksi', 'jalan', 'langsung', 'pelaku', 'uang', 'masuk', 'perampokan', 'kejadian', 'anaknya', 'polsek', 'warga']</t>
+          <t>['anaknya', 'langsung', 'polsek', 'masuk', 'perampokan', 'juta', 'korban', 'agus', 'jalan', 'uang', 'pelaku', 'kejadian', 'kuhp', 'aksi', 'warga']</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['sambo', 'rumah_dinas', 'jakarta', 'motif', 'luka', 'polisi', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'tersangka', 'pembunuhan', 'tewas', 'polri', 'kuat_ruf', 'membunuh', 'ricky_rizal', 'pembunuhan_brigadir', 'magelang', 'putri_candrawathi', 'terkait', 'kuat', 'pembunuhan_berencana', 'yosua', 'rumah', 'richard_eliezer', 'menyebut']</t>
+          <t>['perintah', 'magelang', 'rumah', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'kepala', 'pembunuhan', 'putri_candrawathi', 'membunuh', 'hakim', 'ferdy_sambo', 'polri', 'jakarta', 'tersangka', 'kuhp', 'yosua', 'duren', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'polisi', 'pembunuhan_brigadir', 'rumah_dinas', 'tewas', 'kuat', 'luka', 'pembunuhan_berencana', 'richard_eliezer', 'motif', 'jaksa', 'terkait', 'sambo']</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['korban', 'pasal_kuhp', 'wanita', 'tersangka', 'pelaku', 'tindak_pidana', 'kali', 'pasal', 'pemerkosaan', 'diduga', 'motif']</t>
+          <t>['pasal_kuhp', 'korban', 'tindak_pidana', 'pemerkosaan', 'wanita', 'kali', 'motif', 'menyebut', 'pelaku', 'diduga', 'laporan', 'pasal', 'tersangka']</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'yosua_hutabarat', 'pembunuhan', 'kuat_ruf', 'pasal', 'hakim', 'terkait', 'pembunuhan_berencana', 'richard_eliezer', 'menyebut', 'diduga', 'kuat', 'yosua']</t>
+          <t>['kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'pembunuhan', 'laporan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'kuhp', 'yosua', 'bharada_richard', 'yosua_hutabarat', 'diduga', 'pasal', 'kuat', 'pembunuhan_berencana', 'terkait']</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['istrinya', 'ditemukan', 'korban', 'luka', 'polisi', 'jalan', 'pembunuhan', 'pelaku', 'berinisial', 'polres', 'warga', 'mengaku', 'tewas']</t>
+          <t>['istrinya', 'ditemukan', 'korban', 'luka', 'tewas', 'mengaku', 'jalan', 'motif', 'jenazah', 'polres', 'berinisial', 'pelaku', 'polisi', 'kejadian', 'pembunuhan', 'warga']</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['jakarta', 'kepala', 'polri', 'pelaku', 'tindak_pidana', 'pencurian', 'masuk', 'terkait', 'informasi']</t>
+          <t>['pencurian', 'masuk', 'tindak_pidana', 'jakarta', 'polri', 'informasi', 'kepala', 'pelaku', 'terkait']</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'jalan', 'kali', 'istri', 'kejadian', 'rumah', 'menyebut', 'keterangan', 'informasi', 'mengaku', 'pria', 'tewas']</t>
+          <t>['rumah', 'korban', 'tewas', 'kali', 'mengaku', 'informasi', 'jalan', 'keterangan', 'polres', 'istri', 'pria', 'menyebut', 'polisi', 'kejadian', 'jaksel', 'keluarga']</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['ditemukan', 'korban', 'luka', 'keluarga', 'jalan', 'pembunuhan', 'langsung', 'saksi', 'kali', 'menyebut', 'warga', 'tewas', 'pria']</t>
+          <t>['langsung', 'korban', 'luka', 'tewas', 'kali', 'warga', 'jalan', 'keterangan', 'jenazah', 'kepala', 'ditemukan', 'pria', 'menyebut', 'saksi', 'pembunuhan', 'tim', 'diduga', 'keluarga']</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>['terdakwa', 'korban', 'pasal_kuhp', 'ferdy_sambo', 'tersangka', 'pembunuhan', 'brigadir_yosua', 'jaksel', 'saksi', 'pelaku', 'tindak_pidana', 'pasal', 'masuk', 'putri_candrawathi', 'keluarganya', 'terkait', 'pembunuhan_berencana', 'menyebut', 'saudara', 'sambo']</t>
+          <t>['masuk', 'pasal_kuhp', 'menyebut', 'pembunuhan', 'putri_candrawathi', 'korban', 'ferdy_sambo', 'sambo', 'uang', 'saudara', 'putri', 'tersangka', 'tindak_pidana', 'keluarganya', 'terdakwa', 'yosua_hutabarat', 'saksi', 'pembunuhan_brigadir', 'pasal', 'pembunuhan_berencana', 'pelaku', 'sidang', 'terkait', 'jaksel']</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -8146,7 +8146,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['rumah_dinas', 'polisi', 'pelaku', 'istri', 'perampokan', 'kejadian', 'rumah', 'informasi', 'olah_tkp']</t>
+          <t>['istrinya', 'rumah', 'perampokan', 'informasi', 'jalan', 'istri', 'keterangan', 'pelaku', 'polisi', 'rumah_dinas', 'kejadian', 'olah_tkp']</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['kepala', 'jalan', 'kondisi', 'pembunuhan', 'membunuh', 'masuk', 'warga']</t>
+          <t>['masuk', 'membunuh', 'jalan', 'kondisi', 'kepala', 'pembunuhan', 'warga']</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'keluarga', 'pembunuhan', 'brigadir_yosua', 'richard', 'polri', 'ricky_rizal', 'putri_candrawathi', 'keluarganya', 'kuhp', 'bharada', 'richard_eliezer', 'tim', 'eliezer', 'sidang']</t>
+          <t>['richard', 'kuat_ruf', 'pasal_kuhp', 'pembunuhan', 'eliezer', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'polri', 'bharada', 'keluarganya', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'pembunuhan_brigadir', 'tim', 'keluarga', 'pembunuhan_berencana', 'richard_eliezer', 'sidang']</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>['korban', 'ditangkap', 'pelaku', 'pemerkosaan', 'rumah', 'keterangan', 'diduga', 'wanita']</t>
+          <t>['rumah', 'korban', 'pemerkosaan', 'wanita', 'ditangkap', 'polres', 'keterangan', 'pelaku', 'laporan', 'diduga', 'tim']</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['korban', 'tersangka', 'polri', 'saksi', 'pelaku', 'pasal', 'pemerkosaan', 'kuhp', 'menyebut', 'diduga', 'mengaku']</t>
+          <t>['korban', 'tindak_pidana', 'pemerkosaan', 'keluarga', 'mengaku', 'polri', 'informasi', 'menyebut', 'pelaku', 'polisi', 'diduga', 'pasal', 'jakarta', 'tersangka', 'kuhp', 'langsung']</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['korban', 'wanita', 'pelaku', 'berinisial', 'pemerkosaan', 'terkait', 'kejadian', 'diduga', 'informasi']</t>
+          <t>['korban', 'pemerkosaan', 'wanita', 'kejadian', 'informasi', 'jalan', 'polres', 'berinisial', 'pelaku', 'diduga', 'terkait', 'aksi', 'warga']</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>['tkp', 'korban', 'luka', 'polisi', 'aksi', 'keluarga', 'kondisi', 'pembunuhan', 'membunuh', 'pelaku', 'kali', 'polres', 'kuat', 'kejadian', 'rumah', 'keterangan', 'saudara', 'diduga', 'warga', 'mengaku', 'tim']</t>
+          <t>['rumah', 'masuk', 'kondisi', 'istri', 'pembunuhan', 'laporan', 'tkp', 'aksi', 'milik', 'korban', 'membunuh', 'kali', 'polres', 'saudara', 'mengaku', 'polisi', 'diduga', 'mencari', 'tim', 'warga', 'keluarga', 'kuat', 'luka', 'motif', 'keterangan', 'pelaku', 'kejadian']</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -8677,7 +8677,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>['korban', 'pembunuhan', 'pelaku', 'rumah', 'milik', 'luka', 'ditangkap']</t>
+          <t>['rumah', 'korban', 'luka', 'ditangkap', 'polres', 'pelaku', 'polisi', 'pembunuhan', 'milik']</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['polisi', 'putri', 'langsung', 'pencurian', 'juta', 'terkait', 'kejadian', 'laporan', 'menyebut', 'diduga', 'hilang']</t>
+          <t>['pencurian', 'hilang', 'masuk', 'juta', 'tindak_pidana', 'kejadian', 'putri', 'keterangan', 'menyebut', 'polisi', 'diduga', 'laporan', 'terkait', 'tkp', 'tim', 'milik', 'langsung']</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>['ditemukan', 'autopsi', 'korban', 'luka', 'keluarga', 'wanita', 'kondisi', 'pembunuhan', 'saksi', 'pelaku', 'jenazah', 'keluarganya', 'keterangan', 'warga', 'mencari', 'tangerang', 'tewas']</t>
+          <t>['hilang', 'kondisi', 'pembunuhan', 'korban', 'polres', 'tangerang', 'keluarganya', 'wanita', 'saksi', 'jenazah', 'polisi', 'ditemukan', 'tewas', 'mencari', 'tim', 'warga', 'keluarga', 'autopsi', 'luka', 'motif', 'keterangan', 'pelaku']</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['korban', 'langsung', 'saksi', 'pelaku', 'masuk', 'kejadian', 'polsek', 'mengaku', 'hilang', 'tangerang', 'motor', 'milik']</t>
+          <t>['tangerang', 'hilang', 'polsek', 'masuk', 'korban', 'motor', 'mengaku', 'kondisi', 'saksi', 'pelaku', 'kejadian', 'milik', 'langsung']</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['rumah_dinas', 'jalan', 'kondisi', 'saksi', 'pelaku', 'polres', 'istri', 'perampokan', 'kejadian', 'rumah', 'menyebut', 'keterangan', 'mengaku', 'milik']</t>
+          <t>['istrinya', 'rumah', 'kondisi', 'istri', 'menyebut', 'cctv', 'milik', 'perampokan', 'jalan', 'uang', 'juta', 'mengaku', 'saksi', 'polisi', 'rumah_dinas', 'tim', 'keterangan', 'pelaku', 'kejadian']</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['cctv', 'aksi', 'jalan', 'pelaku', 'keluarganya', 'kejadian', 'laporan', 'rumah', 'mencuri', 'warga', 'mengaku', 'ketiga', 'hilang', 'motor']</t>
+          <t>['mencuri', 'hilang', 'polsek', 'rumah', 'motor', 'keluarganya', 'ketiga', 'mengaku', 'jalan', 'kondisi', 'cctv', 'pelaku', 'laporan', 'polisi', 'kejadian', 'pencuri', 'aksi', 'warga']</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['ditemukan', 'korban', 'polisi', 'pasal_kuhp', 'pembunuhan', 'membunuh', 'pelaku', 'mengaku', 'wanita']</t>
+          <t>['rumah', 'korban', 'membunuh', 'wanita', 'mengaku', 'ditangkap', 'berinisial', 'ditemukan', 'pelaku', 'polisi', 'pembunuhan', 'kuhp', 'milik']</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'putri', 'ferdy_sambo', 'pembunuhan', 'brigadir_yosua', 'polri', 'jaksel', 'kali', 'sidang', 'pemerkosaan', 'hakim', 'putri_candrawathi', 'istri', 'yosua', 'laporan', 'richard_eliezer', 'saudara', 'mengaku']</t>
+          <t>['magelang', 'mulia', 'masuk', 'istri', 'pembunuhan', 'laporan', 'putri_candrawathi', 'brigadir_yosua', 'korban', 'hakim', 'pemerkosaan', 'ferdy_sambo', 'kali', 'polri', 'polres', 'saudara', 'putri', 'yosua', 'terdakwa', 'bharada_richard', 'mengaku', 'ricky_rizal', 'saksi', 'polisi', 'kuat', 'sidang', 'jaksel']</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>['jakarta', 'aksi', 'jalan', 'tersangka', 'pembunuhan', 'polri', 'pelaku', 'pasal', 'terkait', 'pembunuhan_berencana']</t>
+          <t>['pembunuhan_berencana', 'terkait', 'jakarta', 'polri', 'jalan', 'pelaku', 'pembunuhan', 'pasal', 'rekonstruksi', 'tersangka', 'aksi']</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>['tkp', 'korban', 'tersangka', 'pembunuhan', 'pelaku', 'pencurian', 'pasal', 'pemerkosaan', 'kuhp', 'kejadian']</t>
+          <t>['pencurian', 'tersangka', 'korban', 'pemerkosaan', 'pasal', 'jalan', 'pelaku', 'ditemukan', 'polisi', 'pembunuhan', 'kejadian', 'tkp', 'kuhp', 'milik']</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>['ditemukan', 'cctv', 'tkp', 'korban', 'luka', 'pembunuhan', 'saksi', 'warga', 'mengaku', 'polisi', 'pria']</t>
+          <t>['luka', 'korban', 'mengaku', 'pria', 'saksi', 'polisi', 'ditemukan', 'cctv', 'pembunuhan', 'jakarta', 'tkp', 'warga']</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>['rumah_dinas', 'jakarta', 'terdakwa', 'cctv', 'ferdy_sambo', 'perintah', 'pembunuhan', 'brigadir_yosua', 'duren', 'langsung', 'polri', 'pembunuhan_brigadir', 'kali', 'hakim', 'mulia', 'terkait', 'yosua', 'kejadian', 'saudara', 'mengaku', 'chuck', 'sambo']</t>
+          <t>['perintah', 'mulia', 'pembunuhan', 'cctv', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'terkait', 'kali', 'saudara', 'chuck', 'jakarta', 'duren', 'terdakwa', 'mengaku', 'saksi', 'rumah_dinas', 'langsung', 'sidang', 'kejadian', 'sambo']</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>['jakarta', 'korban', 'luka', 'pasal_kuhp', 'jaksel', 'pelaku', 'jaya', 'pencurian', 'kejadian', 'laporan', 'anaknya', 'mengaku']</t>
+          <t>['anaknya', 'pencurian', 'jaya', 'pasal_kuhp', 'korban', 'luka', 'jakarta', 'mengaku', 'keterangan', 'pelaku', 'polisi', 'laporan', 'pasal', 'kejadian', 'jaksel']</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>['istrinya', 'rumah_dinas', 'korban', 'saksi', 'pelaku', 'kali', 'istri', 'perampokan', 'kejadian', 'diduga', 'informasi', 'rumah']</t>
+          <t>['istrinya', 'rumah', 'perampokan', 'korban', 'kejadian', 'kali', 'informasi', 'jalan', 'istri', 'saksi', 'pelaku', 'polisi', 'diduga', 'rumah_dinas', 'terkait']</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -9650,7 +9650,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>['korban', 'luka', 'polisi', 'kondisi', 'saksi', 'pencurian', 'masuk', 'laporan', 'menyebut', 'keterangan', 'mengaku']</t>
+          <t>['pencurian', 'masuk', 'korban', 'luka', 'mengaku', 'kondisi', 'keterangan', 'menyebut', 'saksi', 'laporan', 'polisi']</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -9727,7 +9727,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>['ditemukan', 'tkp', 'korban', 'pasal_kuhp', 'keluarga', 'wanita', 'jalan', 'kondisi', 'tersangka', 'pembunuhan', 'tewas', 'pencurian', 'pembunuhan_berencana', 'kuhp', 'kejadian', 'rumah', 'diduga', 'mengaku', 'tangerang']</t>
+          <t>['rumah', 'pasal_kuhp', 'kondisi', 'pembunuhan', 'tkp', 'milik', 'korban', 'jalan', 'polres', 'tersangka', 'kuhp', 'tangerang', 'wanita', 'mengaku', 'saksi', 'polisi', 'ditemukan', 'diduga', 'tewas', 'warga', 'keluarga', 'pencurian', 'pembunuhan_berencana', 'motif', 'kejadian']</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>['korban', 'keluarga', 'pembunuhan', 'pelaku']</t>
+          <t>['korban', 'pembunuhan', 'pelaku', 'keluarga']</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>['istrinya', 'rumah_dinas', 'cctv', 'luka', 'polisi', 'kondisi', 'polri', 'pelaku', 'pencurian', 'masuk', 'istri', 'perampokan', 'diduga', 'informasi', 'olah_tkp', 'rumah']</t>
+          <t>['istrinya', 'pencurian', 'rumah', 'masuk', 'perampokan', 'luka', 'polri', 'informasi', 'istri', 'kondisi', 'kepala', 'pelaku', 'cctv', 'rumah_dinas', 'polisi', 'diduga', 'olah_tkp', 'langsung']</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>['ditemukan', 'aksi', 'pelaku', 'pencurian', 'mengaku', 'hilang', 'pria', 'milik', 'cctv', 'wanita', 'mencuri']</t>
+          <t>['mencuri', 'pencurian', 'hilang', 'rumah', 'wanita', 'mengaku', 'pelaku', 'ditemukan', 'cctv', 'aksi', 'milik', 'pria']</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>['sambo', 'cctv', 'tkp', 'autopsi', 'polisi', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'kuat_ruf', 'jaksel', 'saksi', 'ricky_rizal', 'sidang', 'hakim', 'putri_candrawathi', 'mulia', 'terkait', 'pembunuhan_berencana', 'kuhp', 'yosua', 'richard_eliezer', 'saudara', 'mengaku', 'olah_tkp']</t>
+          <t>['perintah', 'mulia', 'kuat_ruf', 'pasal_kuhp', 'eliezer', 'pembunuhan', 'cctv', 'hendra', 'tkp', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'sambo', 'polri', 'polres', 'saudara', 'kuhp', 'olah_tkp', 'yosua', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'jenazah', 'polisi', 'autopsi', 'pembunuhan_berencana', 'richard_eliezer', 'sidang', 'terkait', 'jaksel']</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>['istrinya', 'korban', 'kepala', 'pasal_kuhp', 'saksi', 'pelaku', 'kali', 'berinisial', 'perampokan', 'rumah', 'anaknya', 'warga']</t>
+          <t>['istrinya', 'anaknya', 'rumah', 'masuk', 'perampokan', 'juta', 'korban', 'pasal_kuhp', 'kali', 'ditangkap', 'polres', 'berinisial', 'kepala', 'pelaku', 'saksi', 'uang', 'warga']</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>['sambo', 'terdakwa', 'putri', 'yosua_hutabarat', 'pembunuhan', 'polri', 'kuat_ruf', 'ricky_rizal', 'bharada_richard', 'kali']</t>
+          <t>['richard', 'kuat_ruf', 'kuat', 'ferdy_sambo', 'pembunuhan_berencana', 'sambo', 'terdakwa', 'bharada_richard', 'kali', 'ricky_rizal', 'polri', 'eliezer', 'pembunuhan', 'putri', 'putri_candrawathi', 'ricky']</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>['istrinya', 'autopsi', 'korban', 'luka', 'polisi', 'keluarga', 'jalan', 'tersangka', 'pembunuhan', 'tewas', 'langsung', 'pelaku', 'istri', 'kejadian', 'mengaku', 'pria']</t>
+          <t>['istrinya', 'langsung', 'rumah', 'tersangka', 'korban', 'luka', 'putri', 'mengaku', 'jalan', 'istri', 'pria', 'pelaku', 'ditemukan', 'polisi', 'tewas', 'kejadian', 'pembunuhan', 'keluarga']</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -10290,7 +10290,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>['korban', 'luka', 'ditangkap', 'polisi', 'jalan', 'tersangka', 'pembunuhan', 'tewas', 'langsung', 'pelaku', 'uang', 'kali', 'berinisial']</t>
+          <t>['korban', 'luka', 'kali', 'polri', 'jalan', 'ditangkap', 'uang', 'berinisial', 'pelaku', 'polisi', 'tewas', 'pembunuhan', 'tersangka', 'langsung']</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -10362,7 +10362,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'richard', 'kuat_ruf', 'ricky_rizal', 'bharada_richard', 'eliezer', 'sidang', 'putri_candrawathi', 'pembunuhan_berencana', 'yosua', 'menyebut', 'kuat']</t>
+          <t>['richard', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'kuhp', 'yosua', 'bharada', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'saksi', 'kuat', 'pembunuhan_berencana', 'jaksa', 'sidang', 'jaksel']</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -10422,7 +10422,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>['ditangkap', 'polisi', 'aksi', 'jalan', 'pelaku', 'uang', 'pemerkosaan', 'rumah', 'menyebut']</t>
+          <t>['polsek', 'rumah', 'pemerkosaan', 'mengaku', 'jalan', 'ditangkap', 'menyebut', 'pelaku', 'polisi', 'uang', 'aksi']</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>['korban', 'kondisi', 'tewas', 'pelaku', 'kali', 'informasi', 'mengaku']</t>
+          <t>['korban', 'kali', 'mengaku', 'informasi', 'kondisi', 'polres', 'pelaku', 'polisi', 'tewas']</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>['sambo', 'terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'tersangka', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'jaksel', 'pembunuhan_brigadir', 'sidang', 'hakim', 'putri_candrawathi', 'kuhp', 'yosua', 'menyebut', 'saudara']</t>
+          <t>['mulia', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'kepala', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'polri', 'saudara', 'tersangka', 'kuhp', 'yosua', 'terdakwa', 'mengaku', 'ricky_rizal', 'polisi', 'pembunuhan_berencana', 'richard_eliezer', 'sidang', 'terkait', 'jaksel']</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>['sambo', 'jakarta', 'terdakwa', 'ferdy_sambo', 'wanita', 'jaksa', 'sidang', 'hakim', 'kejadian', 'mengaku', 'jaksel']</t>
+          <t>['jaksel', 'masuk', 'hakim', 'ferdy_sambo', 'wanita', 'sambo', 'terdakwa', 'jakarta', 'mengaku', 'jaksa', 'sidang', 'kejadian', 'tim', 'langsung']</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>['terdakwa', 'polisi', 'jalan', 'kondisi', 'langsung', 'pelaku', 'uang', 'pencurian', 'juta', 'hakim', 'mulia', 'kuhp', 'motor', 'pria']</t>
+          <t>['pencurian', 'mulia', 'juta', 'hakim', 'motor', 'terdakwa', 'jalan', 'kondisi', 'uang', 'pelaku', 'polisi', 'pria', 'kuhp', 'milik', 'langsung']</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>['sambo', 'motif', 'ferdy_sambo', 'keluarga', 'wanita', 'pembunuhan', 'brigadir_yosua', 'saksi', 'eliezer', 'hakim', 'putri_candrawathi', 'terkait', 'istri', 'yosua', 'richard_eliezer', 'keterangan', 'diduga', 'ketiga']</t>
+          <t>['istrinya', 'istri', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'polri', 'putri', 'yosua', 'wanita', 'saksi', 'diduga', 'keluarga', 'ketiga', 'richard_eliezer', 'motif', 'keterangan', 'terkait', 'sambo']</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>['sambo', 'terdakwa', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'tersangka', 'pembunuhan', 'jaksel', 'pembunuhan_brigadir', 'sidang', 'hakim', 'jenazah', 'agus', 'saudara']</t>
+          <t>['istrinya', 'perintah', 'mulia', 'rumah', 'menyebut', 'kepala', 'pembunuhan', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'sambo', 'polri', 'saudara', 'tersangka', 'yosua', 'duren', 'terdakwa', 'yosua_hutabarat', 'mengaku', 'jenazah', 'polisi', 'pembunuhan_brigadir', 'agus', 'sidang', 'terkait', 'jaksel']</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>['terdakwa', 'putri', 'ferdy_sambo', 'pembunuhan', 'brigadir_yosua', 'richard', 'polri', 'kuat_ruf', 'jaksel', 'magelang', 'kali', 'eliezer', 'hakim', 'putri_candrawathi', 'kuat', 'yosua', 'rumah', 'menyebut', 'mengaku', 'sambo', 'istri']</t>
+          <t>['richard', 'magelang', 'rumah', 'masuk', 'kuat_ruf', 'istri', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'kali', 'putri', 'yosua', 'bharada', 'terdakwa', 'mengaku', 'saksi', 'kuat', 'sidang', 'jaksel']</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>['sambo', 'rumah_dinas', 'jakarta', 'terdakwa', 'korban', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'tewas', 'richard', 'langsung', 'kuat_ruf', 'saksi', 'ricky_rizal', 'magelang', 'putri_candrawathi', 'terkait', 'pembunuhan_berencana', 'kuhp', 'yosua', 'richard_eliezer', 'keterangan', 'sidang']</t>
+          <t>['richard', 'perintah', 'magelang', 'kuat_ruf', 'pasal_kuhp', 'kepala', 'pembunuhan', 'putri_candrawathi', 'korban', 'ferdy_sambo', 'kali', 'jakarta', 'kuhp', 'yosua', 'duren', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'rumah_dinas', 'tewas', 'ricky', 'langsung', 'kuat', 'pembunuhan_berencana', 'richard_eliezer', 'keterangan', 'jaksa', 'sidang', 'terkait', 'sambo']</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -11094,7 +11094,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>['autopsi', 'korban', 'kepala', 'keluarga', 'pembunuhan', 'polri', 'saksi', 'pelaku', 'kejadian', 'menyebut', 'informasi', 'mengaku', 'mencari', 'milik', 'polisi', 'warga']</t>
+          <t>['menyebut', 'kepala', 'pembunuhan', 'milik', 'korban', 'terkait', 'polri', 'polres', 'mengaku', 'informasi', 'saksi', 'polisi', 'tewas', 'mencari', 'warga', 'keluarga', 'autopsi', 'pelaku', 'kejadian']</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>['ditemukan', 'korban', 'luka', 'polisi', 'wanita', 'kondisi', 'pembunuhan', 'saksi', 'keterangan', 'diduga', 'warga', 'olah_tkp', 'hilang', 'tewas']</t>
+          <t>['hilang', 'korban', 'luka', 'wanita', 'olah_tkp', 'pria', 'kondisi', 'keterangan', 'saksi', 'ditemukan', 'polisi', 'tewas', 'pembunuhan', 'diduga', 'milik', 'warga']</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -11238,7 +11238,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>['sambo', 'ferdy_sambo', 'yosua_hutabarat', 'jalan', 'pembunuhan', 'jaksel', 'pembunuhan_brigadir', 'bharada_richard', 'eliezer', 'hakim', 'putri_candrawathi', 'rumah', 'saudara', 'mengaku', 'putri', 'wanita', 'bharada']</t>
+          <t>['mulia', 'rumah', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'jalan', 'saudara', 'putri', 'bharada', 'wanita', 'bharada_richard', 'yosua_hutabarat', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'jaksel', 'keterangan', 'sambo']</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -11310,7 +11310,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>['sambo', 'jakarta', 'ferdy_sambo', 'pembunuhan', 'polri', 'pembunuhan_brigadir', 'tindak_pidana', 'sidang', 'terkait']</t>
+          <t>['tindak_pidana', 'ferdy_sambo', 'jakarta', 'polri', 'kepala', 'sidang', 'pembunuhan', 'pembunuhan_brigadir', 'terkait', 'sambo']</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -11362,7 +11362,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>['terdakwa', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'kondisi', 'pembunuhan', 'duren', 'kuat_ruf', 'jaksel', 'saksi', 'pembunuhan_brigadir', 'magelang', 'eliezer', 'masuk', 'hakim', 'putri_candrawathi', 'mulia', 'kuat', 'yosua', 'kejadian', 'rumah', 'richard_eliezer', 'menyebut', 'mengaku', 'ketiga']</t>
+          <t>['magelang', 'mulia', 'rumah', 'masuk', 'kuat_ruf', 'kondisi', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'saudara', 'putri', 'yosua', 'bharada', 'duren', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'kuat', 'ketiga', 'kejadian', 'jaksel']</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -11442,7 +11442,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>['rumah_dinas', 'jakarta', 'cctv', 'autopsi', 'luka', 'ferdy_sambo', 'kondisi', 'pembunuhan', 'brigadir_yosua', 'duren', 'polri', 'kuat_ruf', 'arif', 'masuk', 'yosua', 'richard_eliezer', 'keterangan', 'mengaku', 'chuck']</t>
+          <t>['rumah', 'masuk', 'kuat_ruf', 'kondisi', 'eliezer', 'pembunuhan', 'cctv', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'polri', 'chuck', 'jakarta', 'yosua', 'terdakwa', 'bharada_richard', 'mengaku', 'jenazah', 'arif', 'pembunuhan_brigadir', 'tewas', 'rumah_dinas', 'autopsi', 'luka', 'keterangan', 'terkait', 'jaksel']</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -11522,7 +11522,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>['ditangkap', 'polisi', 'pasal_kuhp', 'pelaku', 'pencurian', 'kali', 'diduga', 'mengaku', 'ketiga', 'motor']</t>
+          <t>['pencurian', 'masuk', 'pasal_kuhp', 'motor', 'ketiga', 'kali', 'mengaku', 'ditangkap', 'pelaku', 'polisi', 'diduga', 'milik']</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -11590,7 +11590,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'wanita', 'saksi', 'pelaku', 'berinisial', 'pemerkosaan', 'laporan', 'warga', 'pria', 'diduga']</t>
+          <t>['rumah', 'korban', 'pemerkosaan', 'wanita', 'pria', 'saksi', 'kepala', 'berinisial', 'pelaku', 'laporan', 'polisi', 'diduga', 'tkp', 'warga']</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -11643,7 +11643,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>['jakarta', 'korban', 'langsung', 'pelaku', 'uang', 'jaya', 'terkait', 'perampokan', 'kejadian', 'laporan', 'keterangan', 'mencari']</t>
+          <t>['jaya', 'juta', 'korban', 'perampokan', 'kejadian', 'jakarta', 'jalan', 'keterangan', 'uang', 'pelaku', 'laporan', 'terkait', 'mencari', 'aksi', 'milik', 'langsung']</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>['wanita', 'kali', 'pemerkosaan', 'terkait', 'laporan', 'menyebut', 'diduga', 'ketiga']</t>
+          <t>['pemerkosaan', 'wanita', 'ketiga', 'kali', 'menyebut', 'diduga', 'laporan', 'terkait']</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>['jakarta', 'tersangka', 'pemerkosaan', 'kejadian', 'laporan', 'mengaku', 'ketiga']</t>
+          <t>['pemerkosaan', 'ketiga', 'jakarta', 'mengaku', 'laporan', 'kejadian', 'tersangka']</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -11852,7 +11852,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>['pembunuhan', 'pembunuhan_brigadir', 'kali', 'hakim', 'putri_candrawathi', 'yosua', 'putri', 'mengaku']</t>
+          <t>['hakim', 'kali', 'mengaku', 'pembunuhan', 'pembunuhan_brigadir', 'putri', 'putri_candrawathi', 'yosua']</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -11890,7 +11890,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>['sambo', 'pasal_kuhp', 'ferdy_sambo', 'ricky', 'perintah', 'kondisi', 'pembunuhan', 'kuat_ruf', 'ricky_rizal', 'pembunuhan_brigadir', 'magelang', 'tindak_pidana', 'bharada_richard', 'eliezer', 'jaksa', 'putri_candrawathi', 'kuat', 'pembunuhan_berencana', 'kuhp', 'yosua', 'kejadian', 'richard_eliezer', 'diduga', 'mengaku', 'mencari', 'milik', 'hakim']</t>
+          <t>['perintah', 'magelang', 'kuat_ruf', 'pasal_kuhp', 'kondisi', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'milik', 'hakim', 'ferdy_sambo', 'jakarta', 'kuhp', 'yosua', 'bharada', 'tindak_pidana', 'bharada_richard', 'mengaku', 'ricky_rizal', 'diduga', 'pembunuhan_brigadir', 'mencari', 'ricky', 'kuat', 'pembunuhan_berencana', 'jaksa', 'kejadian', 'sambo']</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -11959,7 +11959,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>['tkp', 'autopsi', 'korban', 'ditangkap', 'polisi', 'wanita', 'kondisi', 'tersangka', 'pembunuhan', 'langsung', 'saksi', 'pelaku', 'jaya', 'berinisial', 'masuk', 'jenazah', 'terkait', 'kejadian', 'diduga', 'warga', 'informasi', 'olah_tkp', 'tim', 'hilang', 'milik', 'aksi']</t>
+          <t>['hilang', 'rumah', 'masuk', 'jaya', 'kondisi', 'berinisial', 'pembunuhan', 'laporan', 'tkp', 'aksi', 'milik', 'korban', 'kali', 'ditangkap', 'tersangka', 'olah_tkp', 'polsek', 'wanita', 'kejadian', 'informasi', 'saksi', 'jenazah', 'polisi', 'ditemukan', 'diduga', 'tim', 'langsung', 'warga', 'autopsi', 'pelaku', 'terkait']</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -12130,7 +12130,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>['terdakwa', 'korban', 'aksi', 'pembunuhan', 'tewas', 'membunuh', 'pelaku', 'hakim', 'kejadian', 'warga']</t>
+          <t>['korban', 'hakim', 'tewas', 'membunuh', 'terdakwa', 'polres', 'pelaku', 'ditemukan', 'polisi', 'sidang', 'kejadian', 'pembunuhan', 'aksi', 'milik', 'warga']</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -12202,7 +12202,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>['ditangkap', 'tersangka', 'pelaku', 'pencurian', 'pasal', 'pencuri', 'rumah', 'warga', 'ketiga', 'polisi']</t>
+          <t>['pencurian', 'rumah', 'ketiga', 'ditangkap', 'polres', 'pelaku', 'polisi', 'pasal', 'tersangka', 'mencari', 'pencuri', 'warga']</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>['sambo', 'ditemukan', 'terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'kuat_ruf', 'saksi', 'pembunuhan_brigadir', 'bharada_richard', 'eliezer', 'putri_candrawathi', 'kuhp', 'yosua', 'menyebut', 'keterangan']</t>
+          <t>['kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'jakarta', 'kuhp', 'yosua', 'terdakwa', 'bharada_richard', 'ricky_rizal', 'saksi', 'ditemukan', 'pembunuhan_brigadir', 'pembunuhan_berencana', 'richard_eliezer', 'keterangan', 'sidang', 'sambo']</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>['ditemukan', 'motif', 'tkp', 'korban', 'polisi', 'kepala', 'pasal_kuhp', 'keluarga', 'pembunuhan', 'saksi', 'membunuh', 'pelaku', 'berinisial', 'terkait', 'pembunuhan_berencana', 'agus', 'diduga', 'warga', 'informasi', 'ketiga', 'pria']</t>
+          <t>['pasal_kuhp', 'kepala', 'berinisial', 'pembunuhan', 'tkp', 'korban', 'membunuh', 'ditangkap', 'informasi', 'saksi', 'polisi', 'ditemukan', 'diduga', 'tewas', 'warga', 'keluarga', 'pembunuhan_berencana', 'agus', 'ketiga', 'motif', 'pelaku', 'terkait', 'pria']</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>['istrinya', 'korban', 'tersangka', 'membunuh', 'pelaku', 'uang', 'juta', 'berinisial', 'milik', 'tewas']</t>
+          <t>['istrinya', 'juta', 'korban', 'membunuh', 'istri', 'keterangan', 'berinisial', 'pelaku', 'uang', 'tewas', 'tersangka', 'milik']</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>['sambo', 'jakarta', 'terdakwa', 'korban', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'saksi', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'eliezer', 'sidang', 'masuk', 'hakim', 'putri_candrawathi', 'pembunuhan_berencana', 'istri', 'yosua', 'menyebut', 'saudara', 'putri', 'bharada']</t>
+          <t>['mulia', 'masuk', 'kuat_ruf', 'pasal_kuhp', 'istri', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'korban', 'hakim', 'ferdy_sambo', 'saudara', 'jakarta', 'putri', 'kuhp', 'yosua', 'bharada', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'saksi', 'pembunuhan_berencana', 'sidang', 'sambo']</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>['ditemukan', 'korban', 'luka', 'pasal_kuhp', 'kondisi', 'tersangka', 'pembunuhan', 'tewas', 'langsung', 'membunuh', 'pelaku', 'uang', 'pencurian', 'kejadian', 'rumah', 'motor']</t>
+          <t>['hilang', 'rumah', 'pasal_kuhp', 'kondisi', 'pembunuhan', 'aksi', 'milik', 'korban', 'membunuh', 'jalan', 'uang', 'polres', 'tersangka', 'ditemukan', 'tewas', 'langsung', 'pencurian', 'luka', 'motor', 'ketiga', 'pelaku', 'kejadian']</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>['rumah_dinas', 'luka', 'kondisi', 'pelaku', 'pencurian', 'istri', 'perampokan', 'menyebut', 'tim', 'milik', 'rumah']</t>
+          <t>['pencurian', 'rumah', 'perampokan', 'juta', 'luka', 'istri', 'kondisi', 'kepala', 'pelaku', 'menyebut', 'rumah_dinas', 'uang', 'tim', 'milik', 'langsung']</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>['sambo', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'keluarga', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'putri_candrawathi', 'terkait', 'kuat', 'istri', 'yosua', 'saudara']</t>
+          <t>['kuat_ruf', 'istri', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'saudara', 'putri', 'yosua', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'pembunuhan_brigadir', 'keluarga', 'jaksel', 'kuat', 'jaksa', 'terkait', 'sambo']</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -12754,7 +12754,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>['tkp', 'korban', 'polisi', 'keluarga', 'pelaku', 'uang', 'pencurian', 'berinisial', 'keluarganya', 'mencuri', 'mengaku', 'motor']</t>
+          <t>['mencuri', 'pencurian', 'polsek', 'korban', 'motor', 'keluarganya', 'mengaku', 'ditangkap', 'uang', 'berinisial', 'pelaku', 'polisi', 'jakarta', 'tkp', 'keluarga']</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -12817,7 +12817,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>['jakarta', 'terdakwa', 'ferdy_sambo', 'tersangka', 'pembunuhan', 'kuat_ruf', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'sidang', 'putri_candrawathi', 'terkait', 'pembunuhan_berencana', 'kuhp', 'yosua', 'richard_eliezer', 'informasi', 'putri', 'ricky', 'richard', 'kuat']</t>
+          <t>['richard', 'kuat_ruf', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'jakarta', 'tersangka', 'putri', 'kuhp', 'terdakwa', 'bharada_richard', 'ricky_rizal', 'informasi', 'pembunuhan_brigadir', 'ricky', 'kuat', 'pembunuhan_berencana', 'agus', 'richard_eliezer', 'sidang', 'terkait', 'hendra_kurniawan']</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -12872,7 +12872,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>['korban', 'ditangkap', 'pasal_kuhp', 'pelaku', 'pencurian', 'terkait', 'rumah', 'keterangan', 'warga', 'mencari', 'pria']</t>
+          <t>['pencurian', 'rumah', 'pasal_kuhp', 'korban', 'warga', 'pria', 'keterangan', 'ditangkap', 'polres', 'pelaku', 'terkait', 'mencari', 'milik', 'keluarga']</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -12930,7 +12930,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>['pemerkosaan', 'menyebut']</t>
+          <t>['terkait', 'pemerkosaan', 'menyebut', 'wanita']</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -12969,7 +12969,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>['korban', 'luka', 'polisi', 'kepala', 'keluarga', 'jalan', 'pembunuhan', 'tewas', 'tindak_pidana', 'pembunuhan_berencana', 'rumah', 'warga', 'informasi']</t>
+          <t>['rumah', 'masuk', 'korban', 'tindak_pidana', 'luka', 'hendra', 'pembunuhan_berencana', 'terdakwa', 'warga', 'jalan', 'informasi', 'polres', 'kepala', 'polisi', 'pembunuhan', 'tewas', 'tim', 'keluarga']</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -13109,7 +13109,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>['istrinya', 'kepala', 'pasal_kuhp', 'polri', 'pelaku', 'pasal', 'pemerkosaan', 'kuhp']</t>
+          <t>['istrinya', 'langsung', 'pasal_kuhp', 'tindak_pidana', 'pemerkosaan', 'jakarta', 'polri', 'kepala', 'pelaku', 'polisi', 'pasal', 'terkait', 'kuhp', 'keluarga']</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -13171,7 +13171,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>['sambo', 'jakarta', 'terdakwa', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'keluarga', 'wanita', 'pembunuhan', 'bharada_richard', 'eliezer', 'putri_candrawathi', 'yosua', 'rumah', 'menyebut', 'mengaku']</t>
+          <t>['rumah', 'kondisi', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'anaknya', 'ferdy_sambo', 'jalan', 'jakarta', 'putri', 'yosua', 'wanita', 'terdakwa', 'bharada_richard', 'mengaku', 'mencari', 'langsung', 'keluarga', 'pembunuhan_berencana', 'sidang', 'sambo']</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -13247,7 +13247,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>['korban', 'aksi', 'jalan', 'rekonstruksi', 'tersangka', 'pembunuhan', 'pelaku', 'magelang', 'jaksa', 'terkait', 'pembunuhan_berencana', 'kejadian', 'rumah', 'keterangan', 'warga', 'mencari', 'keluarga']</t>
+          <t>['magelang', 'rumah', 'korban', 'pembunuhan_berencana', 'terkait', 'kejadian', 'warga', 'jalan', 'keterangan', 'saudara', 'pelaku', 'jaksa', 'pembunuhan', 'rekonstruksi', 'tersangka', 'mencari', 'aksi', 'keluarga']</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -13326,7 +13326,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>['cctv', 'aksi', 'pelaku', 'jaya', 'pencurian', 'terkait', 'menyebut']</t>
+          <t>['pencurian', 'jaya', 'jalan', 'menyebut', 'pelaku', 'polisi', 'cctv', 'terkait', 'aksi']</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>['jalan', 'pelaku', 'hendra', 'pencurian', 'pencuri', 'terkait', 'laporan', 'warga', 'informasi']</t>
+          <t>['pencurian', 'pasal', 'informasi', 'jalan', 'pelaku', 'laporan', 'hendra', 'terkait', 'pencuri', 'warga']</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'wanita', 'jalan', 'langsung', 'saksi', 'pelaku', 'pencurian', 'hakim', 'kejadian', 'polsek', 'warga', 'mengaku', 'mencari', 'pria', 'motor', 'milik']</t>
+          <t>['masuk', 'milik', 'korban', 'hakim', 'jalan', 'polsek', 'wanita', 'mengaku', 'informasi', 'saksi', 'polisi', 'mencari', 'langsung', 'warga', 'pencurian', 'motor', 'pelaku', 'kejadian', 'pria']</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -13514,7 +13514,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>['korban', 'aksi', 'pelaku', 'pencurian', 'pencuri', 'keterangan', 'tim', 'pria', 'milik', 'cctv']</t>
+          <t>['pencurian', 'polsek', 'korban', 'tim', 'keterangan', 'cctv', 'pelaku', 'laporan', 'pencuri', 'aksi', 'milik', 'pria']</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -13588,7 +13588,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>['sambo', 'terdakwa', 'cctv', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'keluarga', 'polri', 'membunuh', 'hendra', 'kali', 'hendra_kurniawan', 'arif', 'sidang', 'hakim', 'putri_candrawathi', 'mulia', 'bharada', 'richard_eliezer', 'keterangan', 'tim']</t>
+          <t>['mulia', 'cctv', 'hendra', 'putri_candrawathi', 'membunuh', 'ferdy_sambo', 'kali', 'polri', 'jakarta', 'putri', 'bharada', 'terdakwa', 'yosua_hutabarat', 'arif', 'tim', 'keluarga', 'richard_eliezer', 'keterangan', 'sidang', 'sambo', 'hendra_kurniawan']</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -13674,7 +13674,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>['istrinya', 'sambo', 'tkp', 'kepala', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'jalan', 'pembunuhan', 'richard', 'duren', 'langsung', 'kuat_ruf', 'jaksel', 'pembunuhan_brigadir', 'bharada_richard', 'eliezer', 'masuk', 'hakim', 'putri_candrawathi', 'pembunuhan_berencana', 'istri', 'yosua', 'richard_eliezer']</t>
+          <t>['richard', 'istrinya', 'rumah', 'masuk', 'kuat_ruf', 'pasal_kuhp', 'istri', 'kepala', 'eliezer', 'pembunuhan', 'tkp', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'jalan', 'kuhp', 'yosua', 'duren', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'pembunuhan_brigadir', 'langsung', 'pembunuhan_berencana', 'sidang', 'jaksel']</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -13747,7 +13747,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>['aksi', 'jalan', 'masuk']</t>
+          <t>['polres', 'aksi', 'jalan', 'masuk']</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -13810,7 +13810,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>['jakarta', 'motif', 'korban', 'polisi', 'pelaku', 'uang', 'pencurian', 'pencuri', 'berinisial', 'keterangan', 'informasi', 'jaksa']</t>
+          <t>['pencurian', 'korban', 'informasi', 'motif', 'keterangan', 'uang', 'berinisial', 'jaksa', 'pelaku', 'polisi', 'jakarta', 'tersangka', 'pencuri']</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>['istrinya', 'korban', 'polisi', 'wanita', 'pelaku', 'pencurian', 'kali', 'berinisial', 'rumah', 'mencuri', 'polsek', 'warga', 'mengaku', 'pria']</t>
+          <t>['istrinya', 'mencuri', 'pencurian', 'rumah', 'korban', 'wanita', 'kali', 'mengaku', 'pria', 'istri', 'berinisial', 'pelaku', 'polisi', 'warga']</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -13920,7 +13920,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>['pembunuhan', 'langsung', 'membunuh', 'terkait', 'saudara']</t>
+          <t>['membunuh', 'keluarga', 'saudara', 'pembunuhan', 'terkait', 'langsung']</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>['sambo', 'jakarta', 'pasal_kuhp', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'ricky_rizal', 'magelang', 'bharada_richard', 'eliezer', 'putri_candrawathi', 'mulia', 'pembunuhan_berencana', 'istri', 'yosua', 'kejadian', 'rumah', 'richard_eliezer', 'mengaku', 'hakim']</t>
+          <t>['istrinya', 'magelang', 'mulia', 'rumah', 'masuk', 'kuat_ruf', 'pasal_kuhp', 'kondisi', 'istri', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'putri', 'jakarta', 'kuhp', 'yosua', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'kuat', 'pembunuhan_berencana', 'sidang', 'kejadian', 'jaksel']</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -14082,7 +14082,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>['sambo', 'pasal_kuhp', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'pembunuhan', 'polri', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'pembunuhan_brigadir', 'putri_candrawathi', 'terkait', 'kuat', 'istri', 'kuhp', 'yosua', 'richard_eliezer', 'menyebut', 'mengaku']</t>
+          <t>['kuat_ruf', 'pasal_kuhp', 'istri', 'menyebut', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'sambo', 'polri', 'tersangka', 'kuhp', 'yosua', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'pembunuhan_brigadir', 'tim', 'ricky', 'kuat', 'pembunuhan_berencana', 'richard_eliezer', 'jaksa', 'terkait', 'jaksel']</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -14153,7 +14153,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>['istrinya', 'korban', 'tersangka', 'pelaku', 'kali', 'pemerkosaan', 'warga', 'mengaku', 'pria', 'istri']</t>
+          <t>['istrinya', 'korban', 'pemerkosaan', 'kali', 'mengaku', 'pria', 'istri', 'uang', 'pelaku', 'tersangka', 'aksi', 'warga']</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -14208,7 +14208,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>['ditemukan', 'autopsi', 'korban', 'luka', 'polisi', 'pembunuhan', 'pelaku', 'kali', 'masuk', 'polres', 'terkait', 'kuat', 'kejadian', 'rumah', 'diduga', 'warga', 'hilang', 'tewas']</t>
+          <t>['hilang', 'rumah', 'masuk', 'pembunuhan', 'korban', 'terkait', 'kali', 'polres', 'jenazah', 'polisi', 'ditemukan', 'diduga', 'tewas', 'warga', 'autopsi', 'kuat', 'luka', 'pelaku', 'kejadian']</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -14278,7 +14278,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>['cctv', 'pelaku', 'pencurian', 'olah_tkp', 'hilang']</t>
+          <t>['anaknya', 'pencurian', 'hilang', 'pelaku', 'cctv', 'kejadian', 'aksi', 'olah_tkp']</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -14337,7 +14337,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>['istrinya', 'jakarta', 'ditemukan', 'motif', 'korban', 'keluarga', 'pembunuhan', 'jenazah', 'terkait', 'istri', 'informasi', 'milik']</t>
+          <t>['istrinya', 'jaya', 'korban', 'jakarta', 'informasi', 'motif', 'istri', 'jenazah', 'polisi', 'ditemukan', 'pembunuhan', 'terkait', 'milik', 'keluarga']</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>['pasal', 'pemerkosaan']</t>
+          <t>['pemerkosaan', 'wanita', 'kali', 'pasal', 'tersangka', 'keluarga']</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -14494,7 +14494,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>['sambo', 'jakarta', 'terdakwa', 'motif', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'wanita', 'pembunuhan', 'brigadir_yosua', 'richard', 'jaksel', 'bharada_richard', 'eliezer', 'sidang', 'putri_candrawathi', 'istri', 'yosua', 'rumah', 'bharada', 'richard_eliezer', 'menyebut', 'keterangan', 'mengaku']</t>
+          <t>['richard', 'istrinya', 'rumah', 'masuk', 'kondisi', 'istri', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'anaknya', 'hakim', 'ferdy_sambo', 'sambo', 'jalan', 'putri', 'jakarta', 'yosua', 'bharada', 'wanita', 'terdakwa', 'bharada_richard', 'mengaku', 'mencari', 'langsung', 'pembunuhan_berencana', 'richard_eliezer', 'motif', 'keterangan', 'sidang', 'jaksel']</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>['korban', 'tersangka', 'langsung', 'pelaku', 'kali', 'kejadian', 'laporan', 'warga', 'informasi', 'mencari', 'tim', 'motor', 'wanita']</t>
+          <t>['langsung', 'rumah', 'masuk', 'korban', 'motor', 'wanita', 'kali', 'informasi', 'polres', 'pelaku', 'tim', 'laporan', 'kejadian', 'tersangka', 'mencari', 'milik', 'warga']</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'kondisi', 'pelaku', 'kali', 'terkait', 'laporan', 'rumah', 'menyebut', 'diduga', 'warga', 'tim']</t>
+          <t>['rumah', 'korban', 'kali', 'mengaku', 'kondisi', 'ditangkap', 'pelaku', 'menyebut', 'laporan', 'polisi', 'terkait', 'diduga', 'tim', 'warga']</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -14725,7 +14725,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>['istrinya', 'korban', 'polisi', 'kondisi', 'tersangka', 'pembunuhan', 'tewas', 'kali', 'berinisial', 'polres', 'istri', 'anaknya', 'menyebut', 'pria']</t>
+          <t>['istrinya', 'anaknya', 'korban', 'tewas', 'kali', 'istri', 'kondisi', 'polres', 'berinisial', 'menyebut', 'polisi', 'pembunuhan', 'tersangka', 'pria']</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -14782,7 +14782,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>['autopsi', 'korban', 'polisi', 'keluarga', 'tersangka', 'pembunuhan', 'tewas', 'pelaku', 'berinisial', 'kejadian', 'polsek', 'informasi', 'olah_tkp', 'terkait']</t>
+          <t>['berinisial', 'pembunuhan', 'korban', 'polres', 'jakarta', 'tersangka', 'olah_tkp', 'polsek', 'tindak_pidana', 'kejadian', 'informasi', 'polisi', 'tewas', 'langsung', 'keluarga', 'autopsi', 'pelaku', 'terkait', 'jaksel']</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -14847,7 +14847,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>['tkp', 'korban', 'polisi', 'saksi', 'pencurian', 'pencuri', 'olah_tkp']</t>
+          <t>['pencurian', 'hilang', 'juta', 'korban', 'saksi', 'polisi', 'putri', 'tkp', 'pencuri', 'olah_tkp']</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>['rumah_dinas', 'terdakwa', 'motif', 'tkp', 'korban', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'tersangka', 'pembunuhan', 'duren', 'kuat_ruf', 'saksi', 'ricky_rizal', 'pelaku', 'pembunuhan_brigadir', 'tindak_pidana', 'bharada_richard', 'kali', 'jaksa', 'arif', 'masuk', 'putri_candrawathi', 'terkait', 'kuat', 'kuhp', 'yosua', 'laporan', 'bharada', 'tim', 'sambo', 'ricky', 'perintah', 'sidang']</t>
+          <t>['perintah', 'masuk', 'kuat_ruf', 'pasal_kuhp', 'eliezer', 'pembunuhan', 'laporan', 'tkp', 'putri_candrawathi', 'brigadir_yosua', 'korban', 'ferdy_sambo', 'kali', 'jakarta', 'tersangka', 'kuhp', 'bharada', 'duren', 'tindak_pidana', 'terdakwa', 'bharada_richard', 'ricky_rizal', 'saksi', 'arif', 'pembunuhan_brigadir', 'rumah_dinas', 'pasal', 'tim', 'ricky', 'kuat', 'pembunuhan_berencana', 'motif', 'pelaku', 'jaksa', 'sidang', 'terkait', 'sambo']</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>['jakarta', 'polisi', 'polri', 'terkait', 'menyebut', 'diduga']</t>
+          <t>['terkait', 'polri', 'menyebut', 'polisi', 'diduga', 'jakarta']</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -15091,7 +15091,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>['sambo', 'ferdy_sambo', 'ricky', 'keluarga', 'pembunuhan', 'brigadir_yosua', 'polri', 'magelang', 'hakim', 'putri_candrawathi', 'yosua', 'mengaku']</t>
+          <t>['magelang', 'rumah', 'masuk', 'hakim', 'ferdy_sambo', 'sambo', 'terdakwa', 'yosua_hutabarat', 'mengaku', 'istri', 'saudara', 'pembunuhan', 'pembunuhan_brigadir', 'putri', 'putri_candrawathi', 'ricky', 'yosua', 'keluarga']</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>['ditangkap', 'polisi', 'kepala', 'jalan', 'pelaku', 'pencurian', 'juta', 'masuk', 'terkait', 'kuhp', 'kejadian', 'laporan', 'olah_tkp', 'uang']</t>
+          <t>['pencurian', 'polsek', 'masuk', 'juta', 'kejadian', 'jalan', 'ditangkap', 'polres', 'kepala', 'pelaku', 'laporan', 'polisi', 'terkait', 'tkp', 'uang', 'kuhp', 'olah_tkp']</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>['korban', 'luka', 'polisi', 'langsung', 'pencurian', 'masuk', 'laporan', 'putri']</t>
+          <t>['pencurian', 'hilang', 'masuk', 'korban', 'luka', 'menyebut', 'berinisial', 'polisi', 'laporan', 'diduga', 'putri', 'pencuri', 'langsung']</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -15301,7 +15301,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>['terdakwa', 'korban', 'ditangkap', 'polisi', 'keluarga', 'kondisi', 'pembunuhan', 'tewas', 'membunuh', 'pelaku', 'hakim', 'pembunuhan_berencana', 'anaknya', 'warga', 'jalan']</t>
+          <t>['anaknya', 'korban', 'hakim', 'tewas', 'membunuh', 'pembunuhan_berencana', 'terdakwa', 'warga', 'jalan', 'ditangkap', 'kondisi', 'pelaku', 'ditemukan', 'polisi', 'sidang', 'pembunuhan', 'keluarga']</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -15374,7 +15374,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>['istrinya', 'korban', 'ditangkap', 'polisi', 'kepala', 'wanita', 'tindak_pidana', 'pemerkosaan', 'istri', 'diduga', 'ketiga']</t>
+          <t>['istrinya', 'korban', 'tindak_pidana', 'pemerkosaan', 'wanita', 'ketiga', 'ditangkap', 'polres', 'istri', 'kepala', 'laporan', 'polisi', 'diduga']</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -15440,7 +15440,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>['sambo', 'jakarta', 'terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'tersangka', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'pembunuhan_brigadir', 'sidang', 'hakim', 'putri_candrawathi', 'kuhp', 'yosua']</t>
+          <t>['mulia', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'kepala', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'polri', 'saudara', 'jakarta', 'tersangka', 'kuhp', 'yosua', 'terdakwa', 'mengaku', 'ricky_rizal', 'polisi', 'pembunuhan_berencana', 'richard_eliezer', 'sidang', 'terkait', 'jaksel']</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>['sambo', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'richard', 'kuat_ruf', 'membunuh', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'eliezer', 'sidang', 'putri_candrawathi', 'kuat', 'pembunuhan_berencana', 'yosua', 'richard_eliezer', 'menyebut', 'keterangan', 'saudara', 'mengaku', 'ricky', 'bharada']</t>
+          <t>['richard', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'membunuh', 'ferdy_sambo', 'sambo', 'saudara', 'kuhp', 'yosua', 'bharada', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'ricky', 'kuat', 'pembunuhan_berencana', 'keterangan', 'jaksa', 'sidang', 'terkait', 'jaksel']</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -15585,7 +15585,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>['tkp', 'korban', 'polisi', 'putri', 'wanita', 'pelaku', 'pencurian', 'polres', 'mencuri', 'keterangan', 'warga', 'mengaku', 'ketiga', 'cctv']</t>
+          <t>['mencuri', 'pencurian', 'korban', 'wanita', 'ketiga', 'mengaku', 'motif', 'keterangan', 'polres', 'pelaku', 'polisi', 'cctv', 'putri', 'tkp', 'warga']</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -15652,7 +15652,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>['ditemukan', 'korban', 'pasal_kuhp', 'wanita', 'pembunuhan', 'pelaku']</t>
+          <t>['langsung', 'rumah', 'korban', 'wanita', 'ditangkap', 'berinisial', 'ditemukan', 'pelaku', 'pembunuhan', 'kuhp', 'milik', 'warga']</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -15709,7 +15709,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'jalan', 'pelaku', 'juta', 'perampokan', 'keterangan', 'warga', 'masuk', 'mengaku', 'pria']</t>
+          <t>['masuk', 'perampokan', 'juta', 'korban', 'mengaku', 'jalan', 'keterangan', 'polres', 'pelaku', 'polisi', 'uang', 'pria', 'milik', 'warga']</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -15774,7 +15774,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>['korban', 'luka', 'tersangka', 'pembunuhan', 'berinisial', 'jenazah', 'rumah', 'warga', 'informasi', 'polisi', 'saksi']</t>
+          <t>['rumah', 'korban', 'luka', 'warga', 'informasi', 'saksi', 'jenazah', 'polres', 'berinisial', 'polisi', 'pembunuhan', 'tersangka', 'keluarga']</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>['istrinya', 'korban', 'luka', 'polisi', 'aksi', 'pelaku', 'pemerkosaan', 'masuk', 'terkait', 'istri', 'polsek', 'pria']</t>
+          <t>['istrinya', 'masuk', 'korban', 'luka', 'pemerkosaan', 'jalan', 'istri', 'pelaku', 'polisi', 'terkait', 'aksi', 'pria']</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -15902,7 +15902,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>['korban', 'kondisi', 'tersangka', 'langsung', 'pelaku', 'kali', 'pasal', 'polres', 'kejadian', 'rumah']</t>
+          <t>['rumah', 'korban', 'kali', 'jalan', 'kondisi', 'polres', 'pelaku', 'pasal', 'kejadian', 'tersangka', 'aksi', 'langsung']</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'kondisi', 'pembunuhan', 'tewas', 'langsung', 'saksi', 'pelaku', 'pencurian', 'berinisial', 'perampokan', 'rumah', 'polsek', 'mencari', 'tim', 'ditemukan']</t>
+          <t>['rumah', 'kondisi', 'berinisial', 'pembunuhan', 'milik', 'perampokan', 'korban', 'polres', 'polsek', 'saksi', 'polisi', 'ditemukan', 'diduga', 'tewas', 'tim', 'mencari', 'langsung', 'pencurian', 'pelaku']</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -16046,7 +16046,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>['tkp', 'korban', 'ditangkap', 'jalan', 'langsung', 'saksi', 'pelaku', 'uang', 'tindak_pidana', 'pencurian', 'pasal', 'agus', 'kejadian', 'mencuri', 'informasi', 'mengaku', 'tim', 'ketiga', 'hilang', 'pria', 'milik', 'pencuri']</t>
+          <t>['mencuri', 'hilang', 'laporan', 'cctv', 'tkp', 'milik', 'korban', 'jalan', 'ditangkap', 'uang', 'pencuri', 'kuhp', 'polsek', 'juta', 'tindak_pidana', 'mengaku', 'informasi', 'saksi', 'tim', 'langsung', 'pencurian', 'agus', 'ketiga', 'keterangan', 'pelaku', 'kejadian', 'pria']</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -16137,7 +16137,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>['terdakwa', 'yosua_hutabarat', 'pembunuhan', 'langsung', 'polri', 'jaksel', 'saksi', 'pembunuhan_brigadir', 'hendra', 'hendra_kurniawan', 'jaksa', 'hakim', 'mulia', 'terkait', 'laporan', 'irfan', 'menyebut', 'saudara']</t>
+          <t>['mulia', 'menyebut', 'pembunuhan', 'laporan', 'hendra', 'brigadir_yosua', 'hakim', 'polri', 'saudara', 'terdakwa', 'saksi', 'tim', 'langsung', 'irfan', 'jaksa', 'sidang', 'terkait', 'jaksel', 'hendra_kurniawan']</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>['sambo', 'rumah_dinas', 'jakarta', 'pasal_kuhp', 'ferdy_sambo', 'keluarga', 'pembunuhan', 'tewas', 'kuat_ruf', 'ricky_rizal', 'pembunuhan_brigadir', 'magelang', 'eliezer', 'pasal', 'sidang', 'putri_candrawathi', 'mulia', 'keluarganya', 'terkait', 'richard_eliezer', 'informasi']</t>
+          <t>['perintah', 'magelang', 'mulia', 'kuat_ruf', 'pasal_kuhp', 'kepala', 'pembunuhan', 'putri_candrawathi', 'ferdy_sambo', 'jakarta', 'kuhp', 'duren', 'keluarganya', 'mengaku', 'ricky_rizal', 'informasi', 'polisi', 'pembunuhan_brigadir', 'tewas', 'rumah_dinas', 'pasal', 'keluarga', 'pembunuhan_berencana', 'richard_eliezer', 'jaksa', 'sidang', 'terkait', 'sambo']</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>['sambo', 'terdakwa', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'richard', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'kali', 'eliezer', 'jaksa', 'putri_candrawathi', 'kuat', 'bharada']</t>
+          <t>['richard', 'istrinya', 'kuat_ruf', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'ferdy_sambo', 'sambo', 'kali', 'putri', 'bharada', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'saksi', 'pembunuhan_brigadir', 'ricky', 'kuat', 'jaksa', 'sidang', 'jaksel']</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -16372,7 +16372,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>['ditangkap', 'polisi', 'jalan', 'tersangka', 'pelaku', 'pencurian', 'pasal', 'perampokan', 'kuhp', 'warga', 'tim']</t>
+          <t>['pencurian', 'perampokan', 'agus', 'jalan', 'ditangkap', 'polres', 'pelaku', 'polisi', 'pasal', 'tersangka', 'tim', 'kuhp', 'milik', 'warga']</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -16427,7 +16427,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>['ditemukan', 'tkp', 'korban', 'luka', 'kepala', 'jalan', 'kondisi', 'pembunuhan', 'langsung', 'polri', 'kali', 'polsek', 'diduga', 'warga', 'pria', 'polisi']</t>
+          <t>['langsung', 'polsek', 'korban', 'luka', 'kali', 'polri', 'jalan', 'kondisi', 'kepala', 'pria', 'ditemukan', 'pembunuhan', 'diduga', 'jakarta', 'tkp', 'polisi', 'warga']</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -16490,7 +16490,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>['istrinya', 'rumah_dinas', 'korban', 'luka', 'kepala', 'pasal_kuhp', 'pelaku', 'pasal', 'juta', 'masuk', 'terkait', 'istri', 'perampokan', 'kejadian', 'menyebut', 'keterangan', 'warga']</t>
+          <t>['istrinya', 'perintah', 'rumah', 'masuk', 'pasal_kuhp', 'istri', 'kepala', 'menyebut', 'perampokan', 'korban', 'kali', 'uang', 'juta', 'kejadian', 'mengaku', 'polisi', 'rumah_dinas', 'pasal', 'langsung', 'warga', 'luka', 'keterangan', 'pelaku', 'terkait']</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>['sambo', 'terdakwa', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'richard', 'langsung', 'polri', 'kuat_ruf', 'saksi', 'ricky_rizal', 'pembunuhan_brigadir', 'kali', 'hakim', 'kuat', 'yosua', 'richard_eliezer', 'keterangan', 'saudara', 'ketiga', 'sidang']</t>
+          <t>['richard', 'perintah', 'mulia', 'masuk', 'kuat_ruf', 'pembunuhan', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'kali', 'saudara', 'jakarta', 'yosua', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'saksi', 'pembunuhan_brigadir', 'ricky', 'langsung', 'kuat', 'agus', 'ketiga', 'richard_eliezer', 'keterangan', 'sidang', 'terkait', 'sambo']</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>['polisi', 'pelaku', 'uang', 'juta', 'perampokan', 'menyebut', 'motor', 'milik']</t>
+          <t>['perampokan', 'juta', 'motor', 'agus', 'jalan', 'menyebut', 'polres', 'pelaku', 'polisi', 'uang', 'tersangka', 'milik']</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -16764,7 +16764,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>['tersangka', 'pencurian', 'kejadian', 'irfan', 'menyebut', 'diduga', 'hilang', 'terkait']</t>
+          <t>['pencurian', 'hilang', 'irfan', 'terkait', 'menyebut', 'diduga', 'kejadian', 'tersangka']</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -16829,7 +16829,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>['ditangkap', 'polisi', 'aksi', 'keluarga', 'jalan', 'kali', 'pemerkosaan', 'polres', 'laporan', 'anaknya', 'warga', 'mengaku', 'pria']</t>
+          <t>['anaknya', 'pemerkosaan', 'kali', 'mengaku', 'warga', 'jalan', 'ditangkap', 'polres', 'pria', 'polisi', 'laporan', 'aksi', 'keluarga']</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -16902,7 +16902,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>['tkp', 'polisi', 'pelaku', 'uang', 'pencurian', 'juta', 'tim', 'ketiga', 'motor']</t>
+          <t>['pencurian', 'juta', 'motor', 'ketiga', 'ditangkap', 'polres', 'pelaku', 'polisi', 'uang', 'tkp', 'pencuri', 'tim']</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -16960,7 +16960,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>['sambo', 'terdakwa', 'polisi', 'ferdy_sambo', 'perintah', 'pembunuhan', 'brigadir_yosua', 'terkait', 'saudara']</t>
+          <t>['perintah', 'duren', 'ferdy_sambo', 'jakarta', 'mengaku', 'polri', 'menyebut', 'saksi', 'polisi', 'arif', 'pembunuhan', 'saudara', 'terkait', 'sambo', 'brigadir_yosua']</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -17038,7 +17038,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>['terdakwa', 'korban', 'tersangka', 'uang', 'tindak_pidana', 'kali', 'sidang', 'berinisial', 'pemerkosaan', 'istri', 'rumah', 'anaknya']</t>
+          <t>['anaknya', 'rumah', 'korban', 'tindak_pidana', 'pemerkosaan', 'terdakwa', 'kali', 'istri', 'uang', 'berinisial', 'polisi', 'sidang', 'tersangka']</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -17106,7 +17106,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>['motif', 'korban', 'luka', 'polisi', 'aksi', 'wanita', 'tersangka', 'pembunuhan', 'tewas', 'membunuh', 'pelaku', 'kali', 'istri', 'kejadian', 'warga']</t>
+          <t>['rumah', 'istri', 'kondisi', 'pembunuhan', 'aksi', 'korban', 'membunuh', 'kali', 'tersangka', 'wanita', 'saksi', 'polisi', 'ditemukan', 'tewas', 'warga', 'luka', 'motif', 'pelaku', 'kejadian']</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -17180,7 +17180,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>['korban', 'polri', 'pelaku', 'pemerkosaan', 'kuhp', 'menyebut']</t>
+          <t>['korban', 'tindak_pidana', 'pemerkosaan', 'keluarga', 'jakarta', 'polri', 'menyebut', 'pelaku', 'diduga', 'pasal', 'terkait', 'kuhp', 'langsung']</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -17241,7 +17241,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>['langsung', 'pencurian', 'kejadian', 'laporan', 'menyebut', 'olah_tkp', 'hilang', 'milik']</t>
+          <t>['pencurian', 'hilang', 'masuk', 'tindak_pidana', 'olah_tkp', 'putri', 'menyebut', 'laporan', 'kejadian', 'tkp', 'milik', 'langsung']</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -17308,7 +17308,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>['korban', 'pelaku', 'pencurian', 'berinisial', 'polsek', 'warga', 'motor']</t>
+          <t>['langsung', 'pencurian', 'korban', 'motor', 'jalan', 'berinisial', 'pelaku', 'polisi', 'warga']</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -17360,7 +17360,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>['polisi', 'aksi', 'langsung', 'pemerkosaan', 'kejadian', 'mencuri', 'warga', 'milik', 'pria']</t>
+          <t>['mencuri', 'langsung', 'pemerkosaan', 'jalan', 'pria', 'polisi', 'kejadian', 'aksi', 'milik', 'warga']</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -17420,7 +17420,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>['rumah_dinas', 'ditemukan', 'tkp', 'ditangkap', 'polisi', 'saksi', 'pelaku', 'polres', 'olah_tkp']</t>
+          <t>['polri', 'ditangkap', 'polres', 'pelaku', 'ditemukan', 'polisi', 'rumah_dinas', 'tkp', 'olah_tkp']</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>['korban', 'keluarga', 'pelaku', 'kejadian']</t>
+          <t>['rumah', 'korban', 'mengaku', 'pria', 'istri', 'saudara', 'pelaku', 'kejadian', 'milik', 'keluarga']</t>
         </is>
       </c>
       <c r="F236" t="n">
@@ -17538,7 +17538,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>['jakarta', 'korban', 'pelaku', 'tindak_pidana', 'pemerkosaan']</t>
+          <t>['korban', 'tindak_pidana', 'pemerkosaan', 'pelaku', 'jakarta', 'tim']</t>
         </is>
       </c>
       <c r="F237" t="n">
@@ -17609,7 +17609,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>['motif', 'korban', 'polisi', 'pembunuhan', 'saksi', 'membunuh', 'pelaku', 'berinisial', 'terkait', 'diduga', 'magelang']</t>
+          <t>['magelang', 'korban', 'membunuh', 'motif', 'saksi', 'pelaku', 'polisi', 'berinisial', 'pembunuhan', 'terkait', 'diduga']</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -17665,7 +17665,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>['korban', 'pasal_kuhp', 'tersangka', 'langsung', 'pelaku', 'uang', 'tindak_pidana', 'pencurian', 'juta', 'berinisial', 'kuhp', 'laporan', 'warga', 'informasi', 'pria', 'milik', 'polisi', 'jalan']</t>
+          <t>['pasal_kuhp', 'berinisial', 'laporan', 'milik', 'korban', 'jalan', 'uang', 'polres', 'tersangka', 'polsek', 'juta', 'tindak_pidana', 'informasi', 'polisi', 'langsung', 'warga', 'pencurian', 'pelaku', 'pria']</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -17735,7 +17735,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>['jakarta', 'pasal_kuhp', 'ferdy_sambo', 'pembunuhan', 'ricky_rizal', 'pembunuhan_brigadir', 'sidang', 'putri_candrawathi', 'kuhp', 'yosua', 'richard_eliezer', 'informasi', 'sambo', 'saksi']</t>
+          <t>['kuat_ruf', 'kuat', 'pasal_kuhp', 'ferdy_sambo', 'pembunuhan_berencana', 'sambo', 'terdakwa', 'richard_eliezer', 'ricky_rizal', 'informasi', 'saksi', 'sidang', 'pembunuhan', 'pembunuhan_brigadir', 'jakarta', 'putri_candrawathi', 'kuhp', 'brigadir_yosua']</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -17786,7 +17786,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>['istrinya', 'motif', 'korban', 'luka', 'polisi', 'kepala', 'kondisi', 'pembunuhan', 'membunuh', 'pelaku', 'kali', 'istri', 'keterangan', 'milik', 'pria']</t>
+          <t>['istrinya', 'korban', 'luka', 'membunuh', 'kali', 'informasi', 'motif', 'keterangan', 'kondisi', 'ditangkap', 'istri', 'kepala', 'pelaku', 'polisi', 'pembunuhan', 'milik', 'pria']</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -17847,7 +17847,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>['sambo', 'jakarta', 'terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'richard', 'kuat_ruf', 'ricky_rizal', 'magelang', 'sidang', 'hakim', 'putri_candrawathi', 'pembunuhan_berencana', 'kuhp', 'yosua', 'laporan', 'richard_eliezer', 'keterangan', 'saudara', 'milik']</t>
+          <t>['richard', 'magelang', 'mulia', 'masuk', 'kuat_ruf', 'pasal_kuhp', 'eliezer', 'pembunuhan', 'laporan', 'putri_candrawathi', 'brigadir_yosua', 'milik', 'hakim', 'ferdy_sambo', 'saudara', 'jakarta', 'kuhp', 'yosua', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'saksi', 'pembunuhan_brigadir', 'ricky', 'pembunuhan_berencana', 'richard_eliezer', 'keterangan', 'sidang', 'sambo']</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -17915,7 +17915,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>['sambo', 'rumah_dinas', 'terdakwa', 'cctv', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'pembunuhan_brigadir', 'hendra', 'hendra_kurniawan', 'jaksa', 'arif', 'putri_candrawathi', 'terkait', 'yosua', 'keterangan', 'informasi', 'mengaku', 'chuck']</t>
+          <t>['perintah', 'pembunuhan', 'cctv', 'hendra', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'chuck', 'jakarta', 'yosua', 'terdakwa', 'yosua_hutabarat', 'mengaku', 'informasi', 'saksi', 'arif', 'pembunuhan_brigadir', 'rumah_dinas', 'agus', 'keterangan', 'jaksa', 'sidang', 'terkait', 'sambo', 'hendra_kurniawan']</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -17983,7 +17983,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>['korban', 'ditangkap', 'pelaku', 'pencurian', 'pasal', 'berinisial', 'polres', 'perampokan', 'laporan', 'polsek', 'saudara', 'diduga', 'mengaku']</t>
+          <t>['pencurian', 'polsek', 'perampokan', 'juta', 'korban', 'mengaku', 'ditangkap', 'polres', 'berinisial', 'pelaku', 'laporan', 'saudara', 'diduga', 'aksi', 'milik', 'pria']</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>['ditemukan', 'tkp', 'korban', 'rekonstruksi', 'tersangka', 'pembunuhan', 'membunuh', 'jaya', 'kali']</t>
+          <t>['tersangka', 'jaya', 'korban', 'membunuh', 'ketiga', 'kali', 'jakarta', 'informasi', 'jalan', 'polisi', 'ditemukan', 'pembunuhan', 'rekonstruksi', 'tkp', 'milik']</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -18133,7 +18133,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>['sambo', 'jakarta', 'terdakwa', 'cctv', 'ferdy_sambo', 'tersangka', 'pembunuhan', 'brigadir_yosua', 'richard', 'duren', 'polri', 'bharada_richard', 'kali', 'eliezer', 'pasal', 'istri', 'kuhp', 'yosua', 'bharada', 'menyebut', 'keterangan', 'saudara', 'mengaku', 'chuck']</t>
+          <t>['richard', 'istri', 'menyebut', 'eliezer', 'pembunuhan', 'cctv', 'hendra', 'brigadir_yosua', 'ferdy_sambo', 'kali', 'polri', 'saudara', 'chuck', 'jakarta', 'tersangka', 'kuhp', 'yosua', 'bharada', 'duren', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'mengaku', 'saksi', 'pasal', 'tim', 'agus', 'keterangan', 'jaksa', 'sambo']</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -18227,7 +18227,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>['sambo', 'ferdy_sambo', 'saksi', 'bharada_richard', 'eliezer', 'sidang', 'masuk', 'hakim', 'putri_candrawathi', 'mulia', 'kejadian', 'keterangan', 'saudara', 'bharada']</t>
+          <t>['mulia', 'bharada', 'masuk', 'hakim', 'ferdy_sambo', 'sambo', 'bharada_richard', 'putri', 'putri_candrawathi', 'keterangan', 'menyebut', 'saksi', 'eliezer', 'saudara', 'sidang', 'kejadian', 'jaksel']</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -18302,7 +18302,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>['sambo', 'terdakwa', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'keluarga', 'pembunuhan', 'brigadir_yosua', 'polri', 'ricky_rizal', 'pembunuhan_brigadir', 'magelang', 'hakim', 'putri_candrawathi', 'rumah', 'anaknya', 'menyebut', 'saudara', 'mengaku']</t>
+          <t>['magelang', 'rumah', 'masuk', 'istri', 'menyebut', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'anaknya', 'hakim', 'ferdy_sambo', 'sambo', 'polri', 'saudara', 'putri', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'pembunuhan_brigadir', 'ricky', 'keluarga', 'sidang', 'jaksel']</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -18395,7 +18395,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>['korban', 'luka', 'polisi', 'jalan', 'saksi', 'berinisial', 'masuk', 'informasi', 'mengaku', 'tangerang', 'tewas', 'diduga']</t>
+          <t>['tangerang', 'masuk', 'korban', 'luka', 'mengaku', 'informasi', 'jalan', 'saksi', 'polres', 'berinisial', 'ditemukan', 'polisi', 'tewas', 'diduga', 'langsung']</t>
         </is>
       </c>
       <c r="F249" t="n">

--- a/what/kriminalitas/df_result_lda.xlsx
+++ b/what/kriminalitas/df_result_lda.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'berinisial', 'pembunuhan', 'korban', 'jalan', 'ditangkap', 'uang', 'putri', 'tersangka', 'tindak_pidana', 'wanita', 'polisi', 'ditemukan', 'diduga', 'pasal', 'mencari', 'motif', 'kejadian', 'pria']</t>
+          <t>['pasal_kuhp', 'diduga', 'pria', 'jalan', 'ditemukan', 'korban', 'pembunuhan', 'wanita', 'mencari', 'pasal', 'motif', 'uang', 'putri', 'tindak_pidana', 'tersangka', 'kejadian', 'berinisial', 'polisi', 'ditangkap']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['istrinya', 'masuk', 'keluarganya', 'wanita', 'keluarga', 'mengaku', 'istri', 'saudara', 'pembunuhan', 'terkait', 'mencari', 'langsung']</t>
+          <t>['mengaku', 'keluarganya', 'pembunuhan', 'wanita', 'istrinya', 'langsung', 'mencari', 'istri', 'terkait', 'saudara', 'keluarga', 'masuk']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['magelang', 'mulia', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'milik', 'anaknya', 'hakim', 'ferdy_sambo', 'sambo', 'uang', 'saudara', 'kuhp', 'juta', 'terdakwa', 'mengaku', 'saksi', 'ricky', 'kuat', 'motor', 'sidang', 'jaksel']</t>
+          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'saksi', 'kuat_ruf', 'sidang', 'milik', 'saudara', 'anaknya', 'motor', 'kuhp', 'juta', 'jaksel', 'uang', 'eliezer', 'mengaku', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'kuat', 'magelang']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['richard', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'membunuh', 'hakim', 'ferdy_sambo', 'sambo', 'kali', 'saudara', 'jakarta', 'kuhp', 'yosua', 'bharada', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'ricky', 'pembunuhan_berencana', 'richard_eliezer', 'keterangan', 'jaksa', 'sidang', 'jaksel']</t>
+          <t>['menyebut', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'membunuh', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'bharada_richard', 'pembunuhan', 'kuhp', 'jakarta', 'jaksel', 'kali', 'pembunuhan_berencana', 'eliezer', 'yosua', 'richard', 'mengaku', 'ricky', 'hakim', 'ferdy_sambo', 'sambo', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -784,7 +784,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['richard', 'perintah', 'rumah', 'masuk', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'pembunuhan', 'cctv', 'tkp', 'putri_candrawathi', 'ferdy_sambo', 'sambo', 'polri', 'polres', 'saudara', 'chuck', 'jakarta', 'kuhp', 'yosua', 'duren', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'pembunuhan_brigadir', 'rumah_dinas', 'langsung', 'pembunuhan_berencana', 'sidang', 'jaksel', 'hendra_kurniawan']</t>
+          <t>['menyebut', 'duren', 'terdakwa', 'pasal_kuhp', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'langsung', 'rumah_dinas', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'bharada_richard', 'hendra_kurniawan', 'tkp', 'pembunuhan', 'kuhp', 'cctv', 'perintah', 'jakarta', 'masuk', 'jaksel', 'rumah', 'pembunuhan_berencana', 'polri', 'eliezer', 'yosua', 'richard', 'mengaku', 'polres', 'chuck', 'ferdy_sambo', 'sambo', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -862,7 +862,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['hilang', 'rumah', 'korban', 'mengaku', 'informasi', 'jalan', 'diduga', 'ditemukan', 'kejadian', 'keluarga']</t>
+          <t>['mengaku', 'informasi', 'rumah', 'ditemukan', 'korban', 'diduga', 'jalan', 'hilang', 'kejadian', 'keluarga']</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -926,7 +926,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['kuat_ruf', 'kuat', 'hakim', 'sidang', 'pembunuhan', 'pembunuhan_brigadir', 'sambo', 'ricky', 'yosua']</t>
+          <t>['ricky', 'hakim', 'pembunuhan', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'sambo', 'kuat', 'yosua']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -964,7 +964,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['perintah', 'duren', 'hendra', 'ferdy_sambo', 'pasal', 'sambo', 'agus', 'terdakwa', 'yosua_hutabarat', 'hendra_kurniawan', 'polri', 'menyebut', 'pembunuhan', 'cctv', 'pembunuhan_brigadir', 'tkp', 'jaksel', 'kuhp']</t>
+          <t>['menyebut', 'duren', 'jaksel', 'terdakwa', 'agus', 'polri', 'hendra_kurniawan', 'tkp', 'pembunuhan_brigadir', 'pembunuhan', 'ferdy_sambo', 'kuhp', 'hendra', 'cctv', 'sambo', 'pasal', 'perintah', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['langsung', 'rumah', 'korban', 'pemerkosaan', 'warga', 'ditangkap', 'polres', 'berinisial', 'pelaku', 'laporan', 'polisi', 'tersangka', 'keluarga']</t>
+          <t>['rumah', 'warga', 'pemerkosaan', 'polres', 'polisi', 'korban', 'pelaku', 'ditangkap', 'langsung', 'tersangka', 'berinisial', 'keluarga', 'laporan']</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['perampokan', 'olah_tkp', 'menyebut', 'uang', 'pelaku', 'diduga', 'tim', 'aksi', 'milik', 'langsung']</t>
+          <t>['menyebut', 'olah_tkp', 'perampokan', 'uang', 'diduga', 'pelaku', 'langsung', 'milik', 'aksi', 'tim']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['richard', 'mulia', 'menyebut', 'eliezer', 'pembunuhan', 'korban', 'hakim', 'membunuh', 'ferdy_sambo', 'sambo', 'kali', 'saudara', 'yosua', 'bharada', 'bharada_richard', 'yosua_hutabarat', 'saksi', 'pembunuhan_brigadir', 'ricky', 'keterangan', 'jaksa', 'sidang', 'terkait', 'jaksel']</t>
+          <t>['menyebut', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'sidang', 'saudara', 'membunuh', 'keterangan', 'bharada_richard', 'korban', 'pembunuhan', 'terkait', 'jaksel', 'kali', 'eliezer', 'yosua', 'richard', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['korban', 'pemerkosaan', 'kali', 'informasi', 'berinisial', 'polisi', 'laporan', 'diduga', 'aksi']</t>
+          <t>['informasi', 'pemerkosaan', 'kali', 'polisi', 'korban', 'diduga', 'berinisial', 'aksi', 'laporan']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rumah', 'masuk', 'kondisi', 'menyebut', 'eliezer', 'pembunuhan', 'laporan', 'cctv', 'brigadir_yosua', 'ferdy_sambo', 'sambo', 'chuck', 'yosua', 'duren', 'terdakwa', 'bharada_richard', 'mengaku', 'saksi', 'arif', 'tewas', 'langsung', 'jaksa', 'sidang', 'jaksel']</t>
+          <t>['menyebut', 'duren', 'terdakwa', 'brigadir_yosua', 'saksi', 'jaksa', 'sidang', 'langsung', 'bharada_richard', 'pembunuhan', 'cctv', 'masuk', 'jaksel', 'rumah', 'eliezer', 'kondisi', 'yosua', 'laporan', 'mengaku', 'chuck', 'ferdy_sambo', 'sambo', 'tewas', 'arif']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['kuat', 'korban', 'membunuh', 'polri', 'menyebut', 'pelaku', 'pembunuhan', 'tewas', 'kejadian', 'aksi', 'warga']</t>
+          <t>['menyebut', 'membunuh', 'polri', 'warga', 'korban', 'pembunuhan', 'pelaku', 'kuat', 'kejadian', 'aksi', 'tewas']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['magelang', 'kuat_ruf', 'kondisi', 'istri', 'menyebut', 'pembunuhan', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'saudara', 'putri', 'jakarta', 'yosua', 'duren', 'terdakwa', 'kejadian', 'ricky_rizal', 'saksi', 'diduga', 'pembunuhan_brigadir', 'tim', 'keluarga', 'kuat', 'richard_eliezer', 'keterangan', 'jaksa', 'sidang', 'terkait']</t>
+          <t>['menyebut', 'duren', 'terdakwa', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'diduga', 'sidang', 'kuat_ruf', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'pembunuhan', 'terkait', 'jakarta', 'tim', 'putri', 'kejadian', 'kondisi', 'keluarga', 'yosua', 'hakim', 'ferdy_sambo', 'kuat', 'istri', 'magelang']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['korban', 'pemerkosaan', 'pasal', 'informasi', 'pria', 'ditangkap', 'polres', 'berinisial', 'istri', 'laporan', 'kepala', 'pelaku', 'polisi', 'tim', 'langsung']</t>
+          <t>['informasi', 'pemerkosaan', 'polres', 'kepala', 'polisi', 'korban', 'pelaku', 'pria', 'ditangkap', 'langsung', 'istri', 'pasal', 'berinisial', 'laporan', 'tim']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['mulia', 'rumah', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'kali', 'saudara', 'putri', 'kuhp', 'bharada', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'pembunuhan_berencana', 'keterangan', 'sidang', 'jaksel']</t>
+          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'keterangan', 'bharada_richard', 'pembunuhan', 'kuhp', 'jaksel', 'rumah', 'pembunuhan_berencana', 'kali', 'eliezer', 'putri', 'mengaku', 'mulia', 'hakim', 'ferdy_sambo', 'sambo', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['kuat_ruf', 'pasal_kuhp', 'ferdy_sambo', 'pembunuhan_berencana', 'sambo', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'putri_candrawathi', 'richard_eliezer', 'kondisi', 'menyebut', 'pembunuhan', 'jaksa', 'pembunuhan_brigadir', 'jaksel', 'kuhp', 'brigadir_yosua']</t>
+          <t>['menyebut', 'ricky_rizal', 'richard_eliezer', 'jaksel', 'pasal_kuhp', 'pembunuhan_berencana', 'bharada_richard', 'yosua_hutabarat', 'brigadir_yosua', 'jaksa', 'pembunuhan_brigadir', 'pembunuhan', 'sambo', 'kuhp', 'kuat_ruf', 'ferdy_sambo', 'putri_candrawathi', 'kondisi']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['korban', 'pemerkosaan', 'wanita', 'kali', 'mengaku', 'pelaku', 'diduga', 'pasal', 'tersangka', 'keluarga']</t>
+          <t>['mengaku', 'pemerkosaan', 'kali', 'korban', 'wanita', 'pelaku', 'diduga', 'pasal', 'tersangka', 'keluarga']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['anaknya', 'rumah', 'korban', 'keluarganya', 'mengaku', 'informasi', 'kondisi', 'berinisial', 'pelaku', 'polisi', 'pembunuhan', 'mencari']</t>
+          <t>['mengaku', 'informasi', 'anaknya', 'rumah', 'keluarganya', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'mencari', 'berinisial', 'kondisi']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['magelang', 'mulia', 'rumah', 'kuat_ruf', 'pasal_kuhp', 'eliezer', 'pembunuhan', 'cctv', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'sambo', 'terkait', 'kali', 'polri', 'saudara', 'putri', 'kuhp', 'yosua', 'duren', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'pembunuhan_brigadir', 'kuat', 'jaksa', 'kejadian', 'jaksel']</t>
+          <t>['duren', 'pasal_kuhp', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'kuhp', 'cctv', 'terkait', 'jaksel', 'rumah', 'kali', 'polri', 'eliezer', 'putri', 'kejadian', 'yosua', 'mengaku', 'mulia', 'hakim', 'ferdy_sambo', 'sambo', 'kuat', 'magelang', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['pencurian', 'hilang', 'masuk', 'korban', 'luka', 'menyebut', 'berinisial', 'polisi', 'diduga', 'putri', 'pencuri', 'langsung']</t>
+          <t>['luka', 'menyebut', 'pencurian', 'polisi', 'korban', 'diduga', 'putri', 'langsung', 'hilang', 'berinisial', 'masuk', 'pencuri']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['anaknya', 'langsung', 'korban', 'hakim', 'pemerkosaan', 'ketiga', 'terdakwa', 'pria', 'berinisial', 'pelaku', 'sidang', 'terkait', 'tersangka', 'keluarga']</t>
+          <t>['tersangka', 'hakim', 'terdakwa', 'anaknya', 'pemerkosaan', 'korban', 'pelaku', 'sidang', 'langsung', 'pria', 'terkait', 'berinisial', 'ketiga', 'keluarga']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['hilang', 'rumah', 'masuk', 'kondisi', 'kepala', 'berinisial', 'menyebut', 'pembunuhan', 'aksi', 'anaknya', 'perampokan', 'korban', 'membunuh', 'kali', 'ditangkap', 'polres', 'tersangka', 'olah_tkp', 'polsek', 'informasi', 'jenazah', 'polisi', 'diduga', 'tewas', 'langsung', 'warga', 'kuat', 'motor', 'motif', 'pelaku', 'kejadian']</t>
+          <t>['menyebut', 'perampokan', 'kepala', 'jenazah', 'diduga', 'pelaku', 'langsung', 'membunuh', 'olah_tkp', 'anaknya', 'korban', 'motor', 'pembunuhan', 'masuk', 'informasi', 'rumah', 'kali', 'motif', 'hilang', 'tersangka', 'kondisi', 'kejadian', 'berinisial', 'warga', 'polres', 'polisi', 'ditangkap', 'kuat', 'aksi', 'tewas', 'polsek']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['istrinya', 'hilang', 'masuk', 'kondisi', 'istri', 'kepala', 'cctv', 'tkp', 'milik', 'perampokan', 'jalan', 'uang', 'polres', 'olah_tkp', 'juta', 'mengaku', 'polisi', 'ditemukan', 'diduga', 'rumah_dinas', 'tim', 'langsung', 'luka', 'pelaku', 'kejadian']</t>
+          <t>['perampokan', 'kepala', 'diduga', 'pelaku', 'langsung', 'milik', 'rumah_dinas', 'jalan', 'olah_tkp', 'ditemukan', 'tkp', 'cctv', 'juta', 'masuk', 'tim', 'luka', 'uang', 'istrinya', 'hilang', 'kejadian', 'kondisi', 'mengaku', 'polres', 'polisi', 'istri']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['richard', 'magelang', 'mulia', 'rumah', 'masuk', 'kuat_ruf', 'istri', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'saudara', 'putri', 'yosua', 'bharada', 'terdakwa', 'mengaku', 'ricky_rizal', 'saksi', 'pembunuhan_brigadir', 'ricky', 'keluarga', 'richard_eliezer', 'keterangan', 'sidang', 'jaksel']</t>
+          <t>['terdakwa', 'brigadir_yosua', 'saksi', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'pembunuhan', 'masuk', 'jaksel', 'rumah', 'eliezer', 'putri', 'keluarga', 'yosua', 'richard', 'mengaku', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'istri', 'magelang', 'bharada']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['istrinya', 'rumah', 'masuk', 'istri', 'cctv', 'tkp', 'aksi', 'milik', 'perampokan', 'korban', 'kali', 'jalan', 'uang', 'juta', 'mengaku', 'saksi', 'ditemukan', 'langsung', 'luka', 'ketiga', 'pelaku']</t>
+          <t>['perampokan', 'saksi', 'pelaku', 'langsung', 'milik', 'jalan', 'ditemukan', 'tkp', 'korban', 'cctv', 'juta', 'ketiga', 'masuk', 'luka', 'rumah', 'kali', 'uang', 'istrinya', 'mengaku', 'istri', 'aksi']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['korban', 'membunuh', 'kepala', 'pembunuhan', 'tewas', 'warga']</t>
+          <t>['membunuh', 'warga', 'kepala', 'korban', 'pembunuhan', 'tewas']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['mulia', 'kuat_ruf', 'menyebut', 'eliezer', 'laporan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'polri', 'saudara', 'olah_tkp', 'yosua', 'terdakwa', 'bharada_richard', 'ricky_rizal', 'informasi', 'jenazah', 'ditemukan', 'autopsi', 'luka', 'keterangan', 'terkait', 'jaksel']</t>
+          <t>['menyebut', 'terdakwa', 'brigadir_yosua', 'jenazah', 'kuat_ruf', 'putri_candrawathi', 'saudara', 'olah_tkp', 'ricky_rizal', 'keterangan', 'ditemukan', 'bharada_richard', 'autopsi', 'terkait', 'luka', 'jaksel', 'informasi', 'polri', 'eliezer', 'yosua', 'laporan', 'mulia', 'hakim', 'ferdy_sambo']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['istrinya', 'rumah', 'istri', 'berinisial', 'anaknya', 'korban', 'polres', 'polsek', 'keluarganya', 'polisi', 'tewas', 'langsung', 'warga', 'luka', 'motor', 'keterangan', 'pelaku', 'kejadian', 'pria']</t>
+          <t>['pelaku', 'pria', 'langsung', 'keterangan', 'anaknya', 'korban', 'motor', 'luka', 'rumah', 'istrinya', 'berinisial', 'kejadian', 'warga', 'keluarganya', 'polres', 'polisi', 'istri', 'tewas', 'polsek']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['anaknya', 'polsek', 'masuk', 'rumah', 'korban', 'kali', 'mengaku', 'pria', 'kondisi', 'ditangkap', 'berinisial', 'pelaku', 'polisi', 'uang', 'aksi', 'warga']</t>
+          <t>['mengaku', 'anaknya', 'warga', 'aksi', 'rumah', 'kali', 'uang', 'polisi', 'korban', 'pelaku', 'pria', 'ditangkap', 'berinisial', 'kondisi', 'polsek', 'masuk']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['pencurian', 'rumah', 'jaksa', 'jakarta', 'informasi', 'motif', 'istri', 'ditangkap', 'kepala', 'berinisial', 'pelaku', 'sidang', 'menyebut', 'pencuri', 'milik']</t>
+          <t>['menyebut', 'informasi', 'rumah', 'pencurian', 'motif', 'kepala', 'jaksa', 'pelaku', 'sidang', 'ditangkap', 'milik', 'istri', 'berinisial', 'jakarta', 'pencuri']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['juta', 'korban', 'membunuh', 'pembunuhan_berencana', 'pasal', 'keterangan', 'jenazah', 'berinisial', 'istri', 'pelaku', 'polisi', 'pembunuhan', 'tkp', 'uang', 'aksi', 'milik']</t>
+          <t>['membunuh', 'keterangan', 'pembunuhan_berencana', 'tkp', 'uang', 'jenazah', 'korban', 'pembunuhan', 'polisi', 'pelaku', 'milik', 'istri', 'pasal', 'juta', 'berinisial', 'aksi']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['perintah', 'mencuri', 'rumah', 'masuk', 'kondisi', 'berinisial', 'laporan', 'milik', 'korban', 'jalan', 'jakarta', 'polsek', 'mengaku', 'polisi', 'warga', 'pencurian', 'pelaku', 'kejadian', 'pria']</t>
+          <t>['pelaku', 'pria', 'milik', 'jalan', 'korban', 'perintah', 'jakarta', 'masuk', 'rumah', 'berinisial', 'kondisi', 'kejadian', 'laporan', 'mengaku', 'mencuri', 'pencurian', 'warga', 'polisi', 'polsek']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rumah', 'masuk', 'perampokan', 'jalan', 'polisi', 'rumah_dinas', 'kejadian', 'tkp', 'aksi', 'olah_tkp']</t>
+          <t>['olah_tkp', 'perampokan', 'rumah', 'tkp', 'polisi', 'rumah_dinas', 'jalan', 'kejadian', 'aksi', 'masuk']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['mulia', 'kuat_ruf', 'istri', 'menyebut', 'pembunuhan', 'putri_candrawathi', 'hakim', 'pemerkosaan', 'ferdy_sambo', 'kali', 'polri', 'saudara', 'putri', 'yosua', 'bharada', 'duren', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'polisi', 'pembunuhan_brigadir', 'jaksel']</t>
+          <t>['duren', 'menyebut', 'terdakwa', 'pemerkosaan', 'pembunuhan_brigadir', 'kuat_ruf', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'pembunuhan', 'jaksel', 'kali', 'polri', 'putri', 'yosua', 'mengaku', 'mulia', 'hakim', 'polisi', 'ferdy_sambo', 'istri', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['juta', 'korban', 'membunuh', 'motor', 'kali', 'motif', 'jalan', 'kondisi', 'polres', 'pelaku', 'ditemukan', 'polisi', 'tewas', 'kejadian', 'pembunuhan', 'mencari', 'milik', 'warga']</t>
+          <t>['membunuh', 'ditemukan', 'warga', 'kali', 'polres', 'motif', 'polisi', 'korban', 'motor', 'pembunuhan', 'pelaku', 'milik', 'mencari', 'jalan', 'juta', 'kejadian', 'kondisi', 'tewas']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['perintah', 'magelang', 'kuat_ruf', 'pasal_kuhp', 'istri', 'kepala', 'menyebut', 'pembunuhan', 'putri_candrawathi', 'ferdy_sambo', 'jakarta', 'kuhp', 'yosua', 'duren', 'terdakwa', 'mengaku', 'ricky_rizal', 'saksi', 'tewas', 'rumah_dinas', 'irfan', 'pembunuhan_berencana', 'richard_eliezer', 'keterangan', 'jaksa', 'sidang', 'sambo']</t>
+          <t>['menyebut', 'duren', 'terdakwa', 'pasal_kuhp', 'saksi', 'kepala', 'jaksa', 'kuat_ruf', 'sidang', 'rumah_dinas', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'pembunuhan', 'kuhp', 'perintah', 'jakarta', 'pembunuhan_berencana', 'irfan', 'yosua', 'mengaku', 'ferdy_sambo', 'sambo', 'istri', 'magelang', 'tewas']</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['magelang', 'korban', 'menyebut', 'polisi', 'ditemukan', 'pembunuhan', 'tewas', 'terkait', 'tersangka', 'aksi', 'olah_tkp']</t>
+          <t>['menyebut', 'olah_tkp', 'tersangka', 'ditemukan', 'polisi', 'korban', 'pembunuhan', 'magelang', 'terkait', 'aksi', 'tewas']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['perintah', 'hilang', 'rumah', 'pembunuhan', 'laporan', 'cctv', 'tkp', 'ferdy_sambo', 'polri', 'yosua', 'kejadian', 'yosua_hutabarat', 'saksi', 'jenazah', 'ditemukan', 'pembunuhan_brigadir', 'rumah_dinas', 'tim', 'keluarga', 'agus', 'ketiga', 'jaksa', 'terkait', 'jaksel', 'hendra_kurniawan']</t>
+          <t>['saksi', 'jenazah', 'jaksa', 'pembunuhan_brigadir', 'rumah_dinas', 'agus', 'ditemukan', 'hendra_kurniawan', 'tkp', 'pembunuhan', 'cctv', 'perintah', 'terkait', 'ketiga', 'tim', 'jaksel', 'rumah', 'polri', 'hilang', 'kejadian', 'keluarga', 'yosua', 'laporan', 'ferdy_sambo', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['pencurian', 'perampokan', 'korban', 'luka', 'motor', 'wanita', 'jalan', 'pelaku', 'pasal', 'tim', 'milik', 'pria']</t>
+          <t>['luka', 'perampokan', 'pencurian', 'korban', 'motor', 'wanita', 'pelaku', 'pria', 'milik', 'pasal', 'jalan', 'tim']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['mencuri', 'pencurian', 'polsek', 'korban', 'motor', 'kali', 'mengaku', 'informasi', 'motif', 'ditangkap', 'polres', 'pelaku', 'polisi', 'laporan', 'terkait', 'tersangka', 'aksi', 'warga']</t>
+          <t>['mengaku', 'tersangka', 'mencuri', 'informasi', 'kali', 'warga', 'pencurian', 'polres', 'motif', 'polisi', 'korban', 'motor', 'pelaku', 'ditangkap', 'terkait', 'aksi', 'polsek', 'laporan']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['pencurian', 'masuk', 'kejadian', 'informasi', 'keterangan', 'menyebut', 'pelaku', 'saksi', 'laporan', 'polisi', 'terkait', 'uang', 'mencari', 'cctv', 'diduga', 'pria']</t>
+          <t>['menyebut', 'keterangan', 'informasi', 'pencurian', 'saksi', 'uang', 'polisi', 'diduga', 'pelaku', 'pria', 'cctv', 'mencari', 'terkait', 'kejadian', 'masuk', 'laporan']</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['istrinya', 'rumah', 'istri', 'pembunuhan', 'korban', 'membunuh', 'kali', 'jalan', 'polres', 'tersangka', 'kuhp', 'mengaku', 'diduga', 'ditemukan', 'pasal', 'tewas', 'warga', 'pembunuhan_berencana', 'agus', 'pelaku']</t>
+          <t>['diduga', 'pelaku', 'jalan', 'membunuh', 'agus', 'ditemukan', 'korban', 'pembunuhan', 'kuhp', 'pasal', 'rumah', 'pembunuhan_berencana', 'kali', 'istrinya', 'tersangka', 'mengaku', 'warga', 'polres', 'istri', 'tewas']</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['pencurian', 'polsek', 'korban', 'kejadian', 'olah_tkp', 'mengaku', 'kondisi', 'polisi', 'laporan', 'terkait', 'aksi', 'milik']</t>
+          <t>['olah_tkp', 'mengaku', 'kondisi', 'pencurian', 'polisi', 'korban', 'milik', 'terkait', 'kejadian', 'aksi', 'polsek', 'laporan']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['tangerang', 'pencurian', 'hilang', 'korban', 'kali', 'jakarta', 'polri', 'menyebut', 'berinisial', 'ditemukan', 'cctv', 'pelaku', 'kejadian', 'tersangka', 'aksi', 'langsung']</t>
+          <t>['menyebut', 'tersangka', 'pencurian', 'aksi', 'ditemukan', 'kali', 'polri', 'tangerang', 'korban', 'pelaku', 'cctv', 'langsung', 'hilang', 'kejadian', 'jakarta', 'berinisial']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['langsung', 'rumah', 'korban', 'pemerkosaan', 'jalan', 'ditangkap', 'pelaku', 'warga']</t>
+          <t>['pemerkosaan', 'rumah', 'warga', 'korban', 'pelaku', 'ditangkap', 'langsung', 'jalan']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['anaknya', 'mencuri', 'pencurian', 'jaya', 'korban', 'tindak_pidana', 'pelaku', 'jakarta']</t>
+          <t>['mencuri', 'pencurian', 'anaknya', 'korban', 'pelaku', 'tindak_pidana', 'jakarta', 'jaya']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['mencuri', 'hilang', 'masuk', 'kepala', 'tkp', 'aksi', 'jalan', 'ditangkap', 'tersangka', 'kuhp', 'juta', 'mengaku', 'polisi', 'diduga', 'warga', 'pencurian', 'ketiga', 'pelaku', 'pria']</t>
+          <t>['kepala', 'diduga', 'pelaku', 'pria', 'jalan', 'tkp', 'kuhp', 'juta', 'ketiga', 'masuk', 'tersangka', 'hilang', 'mengaku', 'mencuri', 'pencurian', 'warga', 'polisi', 'ditangkap', 'aksi']</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['richard', 'rumah', 'kuat_ruf', 'kondisi', 'eliezer', 'pembunuhan', 'tkp', 'putri_candrawathi', 'anaknya', 'ferdy_sambo', 'sambo', 'kali', 'jakarta', 'yosua', 'bharada', 'wanita', 'terdakwa', 'bharada_richard', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'mencari', 'langsung', 'keterangan', 'sidang', 'kejadian', 'jaksel']</t>
+          <t>['terdakwa', 'saksi', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'langsung', 'putri_candrawathi', 'keterangan', 'anaknya', 'bharada_richard', 'tkp', 'pembunuhan', 'wanita', 'mencari', 'jakarta', 'jaksel', 'rumah', 'kali', 'eliezer', 'kejadian', 'kondisi', 'yosua', 'richard', 'mengaku', 'ferdy_sambo', 'sambo', 'bharada']</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['istrinya', 'perintah', 'magelang', 'mulia', 'rumah', 'masuk', 'kuat_ruf', 'istri', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'milik', 'ferdy_sambo', 'sambo', 'putri', 'jakarta', 'yosua', 'terdakwa', 'bharada_richard', 'mengaku', 'ricky_rizal', 'langsung', 'kuat', 'pembunuhan_berencana', 'jaksel']</t>
+          <t>['menyebut', 'terdakwa', 'brigadir_yosua', 'kuat_ruf', 'langsung', 'milik', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'perintah', 'jakarta', 'masuk', 'jaksel', 'rumah', 'pembunuhan_berencana', 'eliezer', 'putri', 'istrinya', 'yosua', 'mengaku', 'mulia', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'magelang']</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['istrinya', 'magelang', 'mulia', 'rumah', 'masuk', 'kuat_ruf', 'pasal_kuhp', 'kondisi', 'istri', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'putri', 'jakarta', 'kuhp', 'yosua', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'kuat', 'pembunuhan_berencana', 'sidang', 'kejadian', 'jaksel']</t>
+          <t>['pasal_kuhp', 'brigadir_yosua', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'kuhp', 'jakarta', 'masuk', 'jaksel', 'rumah', 'pembunuhan_berencana', 'eliezer', 'putri', 'istrinya', 'kejadian', 'kondisi', 'yosua', 'mengaku', 'mulia', 'hakim', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'magelang', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['perintah', 'mulia', 'pembunuhan', 'cctv', 'hendra', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'polri', 'saudara', 'chuck', 'kuhp', 'yosua', 'terdakwa', 'yosua_hutabarat', 'mengaku', 'saksi', 'pasal', 'agus', 'jaksa', 'sidang', 'jaksel']</t>
+          <t>['terdakwa', 'brigadir_yosua', 'saksi', 'jaksa', 'sidang', 'saudara', 'agus', 'pembunuhan', 'kuhp', 'cctv', 'perintah', 'pasal', 'jaksel', 'polri', 'yosua', 'mengaku', 'mulia', 'hakim', 'chuck', 'ferdy_sambo', 'sambo', 'hendra', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['kondisi', 'aksi', 'korban', 'pemerkosaan', 'ditangkap', 'polres', 'tersangka', 'polsek', 'tindak_pidana', 'jenazah', 'polisi', 'ditemukan', 'tewas', 'langsung', 'warga', 'luka', 'motor', 'pelaku', 'pria']</t>
+          <t>['pemerkosaan', 'jenazah', 'pelaku', 'pria', 'langsung', 'ditemukan', 'korban', 'motor', 'luka', 'tindak_pidana', 'tersangka', 'kondisi', 'warga', 'polres', 'polisi', 'ditangkap', 'aksi', 'tewas', 'polsek']</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['masuk', 'perampokan', 'kejadian', 'jalan', 'keterangan', 'pelaku', 'polisi', 'cctv', 'rumah_dinas', 'terkait']</t>
+          <t>['keterangan', 'perampokan', 'polisi', 'pelaku', 'cctv', 'rumah_dinas', 'jalan', 'terkait', 'kejadian', 'masuk']</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rumah', 'masuk', 'berinisial', 'cctv', 'tkp', 'korban', 'kali', 'ditangkap', 'jakarta', 'tersangka', 'pencuri', 'keluarganya', 'kejadian', 'saksi', 'polisi', 'pencurian', 'motif', 'pelaku', 'jaksa', 'terkait']</t>
+          <t>['saksi', 'jaksa', 'pelaku', 'tkp', 'korban', 'cctv', 'terkait', 'jakarta', 'masuk', 'pencuri', 'rumah', 'kali', 'motif', 'tersangka', 'kejadian', 'berinisial', 'pencurian', 'keluarganya', 'polisi', 'ditangkap']</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['korban', 'membunuh', 'jakarta', 'mengaku', 'informasi', 'jalan', 'uang', 'polisi', 'rekonstruksi', 'tersangka']</t>
+          <t>['membunuh', 'mengaku', 'informasi', 'uang', 'polisi', 'korban', 'jalan', 'tersangka', 'jakarta', 'rekonstruksi']</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['mencuri', 'langsung', 'mencari', 'rumah', 'tersangka', 'jaya', 'tim', 'warga', 'jalan', 'ditangkap', 'saksi', 'berinisial', 'pelaku', 'informasi', 'tkp', 'pencuri', 'milik', 'keluarga']</t>
+          <t>['mencuri', 'informasi', 'rumah', 'warga', 'tkp', 'saksi', 'tim', 'pelaku', 'ditangkap', 'langsung', 'milik', 'mencari', 'jalan', 'tersangka', 'berinisial', 'keluarga', 'jaya', 'pencuri']</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['langsung', 'polsek', 'korban', 'luka', 'informasi', 'jalan', 'saksi', 'polres', 'polisi', 'ditemukan', 'laporan', 'tewas', 'kejadian', 'diduga', 'warga']</t>
+          <t>['luka', 'informasi', 'ditemukan', 'warga', 'polres', 'saksi', 'polisi', 'korban', 'diduga', 'langsung', 'jalan', 'kejadian', 'tewas', 'polsek', 'laporan']</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['richard', 'istrinya', 'perintah', 'magelang', 'rumah', 'masuk', 'hilang', 'pasal_kuhp', 'mulia', 'kuat_ruf', 'istri', 'kepala', 'menyebut', 'eliezer', 'cctv', 'pembunuhan', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'kali', 'polri', 'uang', 'saudara', 'jakarta', 'kuhp', 'yosua', 'duren', 'terdakwa', 'mengaku', 'ricky_rizal', 'saksi', 'pembunuhan_brigadir', 'rumah_dinas', 'tewas', 'pasal', 'ricky', 'langsung', 'kuat', 'pembunuhan_berencana', 'richard_eliezer', 'keterangan', 'jaksa', 'sidang', 'terkait', 'sambo']</t>
+          <t>['menyebut', 'duren', 'terdakwa', 'pasal_kuhp', 'saksi', 'kepala', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'langsung', 'rumah_dinas', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'pembunuhan', 'kuhp', 'cctv', 'perintah', 'pasal', 'terkait', 'jakarta', 'masuk', 'rumah', 'pembunuhan_berencana', 'kali', 'polri', 'uang', 'eliezer', 'istrinya', 'hilang', 'yosua', 'richard', 'mengaku', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'magelang', 'tewas']</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['magelang', 'rumah', 'korban', 'tewas', 'pembunuhan_berencana', 'motif', 'istri', 'menyebut', 'pelaku', 'jaksa', 'polisi', 'pembunuhan', 'terkait', 'tersangka']</t>
+          <t>['menyebut', 'tersangka', 'rumah', 'pembunuhan_berencana', 'motif', 'polisi', 'korban', 'jaksa', 'pembunuhan', 'pelaku', 'istri', 'magelang', 'terkait', 'tewas']</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['mulia', 'masuk', 'pembunuhan', 'hakim', 'polri', 'polres', 'jakarta', 'yosua', 'terdakwa', 'yosua_hutabarat', 'mengaku', 'saksi', 'jenazah', 'arif', 'tim', 'autopsi', 'agus', 'jaksa', 'sidang', 'jaksel']</t>
+          <t>['terdakwa', 'saksi', 'jenazah', 'jaksa', 'sidang', 'agus', 'pembunuhan', 'autopsi', 'jakarta', 'masuk', 'tim', 'jaksel', 'polri', 'yosua', 'mengaku', 'mulia', 'hakim', 'polres', 'yosua_hutabarat', 'arif']</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['jaya', 'korban', 'keluarga', 'kali', 'polisi', 'ditemukan', 'jakarta', 'tim', 'langsung']</t>
+          <t>['kali', 'ditemukan', 'polisi', 'korban', 'langsung', 'jaya', 'jakarta', 'keluarga', 'tim']</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['magelang', 'mulia', 'kuat_ruf', 'istri', 'kepala', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'sambo', 'saudara', 'putri', 'jakarta', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'pasal', 'ricky', 'kuat', 'sidang', 'terkait', 'jaksel']</t>
+          <t>['menyebut', 'terdakwa', 'saksi', 'kepala', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'pasal', 'terkait', 'jakarta', 'jaksel', 'eliezer', 'putri', 'mengaku', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'magelang', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['magelang', 'rumah', 'masuk', 'istri', 'eliezer', 'cctv', 'putri_candrawathi', 'brigadir_yosua', 'milik', 'hakim', 'ferdy_sambo', 'sambo', 'kali', 'polri', 'jalan', 'saudara', 'jakarta', 'yosua', 'duren', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'rumah_dinas', 'ricky', 'kuat', 'keterangan', 'jaksa', 'sidang', 'terkait', 'jaksel']</t>
+          <t>['duren', 'brigadir_yosua', 'saksi', 'jaksa', 'sidang', 'milik', 'rumah_dinas', 'jalan', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'keterangan', 'bharada_richard', 'cctv', 'terkait', 'jakarta', 'masuk', 'jaksel', 'rumah', 'kali', 'polri', 'eliezer', 'yosua', 'mengaku', 'ricky', 'hakim', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'magelang', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['autopsi', 'hilang', 'korban', 'jalan', 'kepala', 'jenazah', 'ditemukan', 'polisi', 'tewas', 'pembunuhan', 'keluarga']</t>
+          <t>['ditemukan', 'kepala', 'jenazah', 'korban', 'pembunuhan', 'polisi', 'autopsi', 'jalan', 'hilang', 'tewas', 'keluarga']</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['pencurian', 'hilang', 'polsek', 'masuk', 'juta', 'kondisi', 'saksi', 'pelaku', 'uang', 'kejadian', 'aksi', 'milik']</t>
+          <t>['pencurian', 'aksi', 'saksi', 'uang', 'pelaku', 'milik', 'juta', 'hilang', 'kejadian', 'kondisi', 'polsek', 'masuk']</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['langsung', 'polsek', 'rumah', 'mengaku', 'pria', 'ditangkap', 'berinisial', 'pelaku', 'laporan', 'polisi', 'aksi', 'warga']</t>
+          <t>['mengaku', 'rumah', 'warga', 'polisi', 'pelaku', 'pria', 'ditangkap', 'langsung', 'berinisial', 'aksi', 'polsek', 'laporan']</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['hilang', 'rumah', 'berinisial', 'pembunuhan', 'milik', 'korban', 'kali', 'wanita', 'saksi', 'jenazah', 'polisi', 'ditemukan', 'diduga', 'tewas', 'warga', 'luka', 'motif', 'pelaku', 'kejadian', 'pria']</t>
+          <t>['saksi', 'jenazah', 'diduga', 'pelaku', 'pria', 'milik', 'ditemukan', 'korban', 'pembunuhan', 'wanita', 'luka', 'rumah', 'kali', 'motif', 'hilang', 'kejadian', 'berinisial', 'warga', 'polisi', 'tewas']</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['anaknya', 'langsung', 'rumah', 'korban', 'membunuh', 'pria', 'kondisi', 'polres', 'kepala', 'polisi', 'diduga', 'pelaku', 'kejadian', 'olah_tkp', 'keluarga']</t>
+          <t>['membunuh', 'olah_tkp', 'anaknya', 'rumah', 'polres', 'kepala', 'polisi', 'korban', 'diduga', 'pelaku', 'pria', 'langsung', 'kejadian', 'kondisi', 'keluarga']</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['kuat_ruf', 'kuat', 'hakim', 'ferdy_sambo', 'terdakwa', 'bharada_richard', 'kali', 'ricky_rizal', 'putri_candrawathi', 'informasi', 'keterangan', 'saksi', 'pembunuhan', 'saudara', 'pembunuhan_brigadir', 'terkait', 'jaksel', 'yosua']</t>
+          <t>['putri_candrawathi', 'ricky_rizal', 'jaksel', 'hakim', 'informasi', 'kali', 'bharada_richard', 'terdakwa', 'saksi', 'keterangan', 'pembunuhan_brigadir', 'pembunuhan', 'kuat_ruf', 'ferdy_sambo', 'kuat', 'terkait', 'saudara', 'yosua']</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -5778,7 +5778,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['langsung', 'rumah', 'kuat', 'korban', 'membunuh', 'pria', 'kepala', 'pelaku', 'polisi', 'laporan', 'tewas', 'kejadian', 'tersangka', 'warga']</t>
+          <t>['membunuh', 'rumah', 'warga', 'kepala', 'polisi', 'korban', 'pelaku', 'pria', 'langsung', 'kuat', 'tersangka', 'kejadian', 'tewas', 'laporan']</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['polsek', 'rumah', 'korban', 'pemerkosaan', 'kejadian', 'warga', 'pria', 'keterangan', 'polres', 'berinisial', 'kondisi', 'kepala', 'pelaku', 'menyebut', 'polisi', 'tim', 'diduga', 'keluarga']</t>
+          <t>['menyebut', 'keterangan', 'rumah', 'warga', 'pemerkosaan', 'polres', 'kepala', 'keluarga', 'korban', 'polisi', 'diduga', 'pelaku', 'pria', 'berinisial', 'kejadian', 'kondisi', 'polsek', 'tim']</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['rumah', 'kuat_ruf', 'hakim', 'ferdy_sambo', 'pembunuhan_berencana', 'terdakwa', 'richard_eliezer', 'ricky_rizal', 'putri_candrawathi', 'mengaku', 'saksi', 'saudara', 'eliezer', 'pembunuhan', 'laporan', 'putri', 'jaksel', 'brigadir_yosua']</t>
+          <t>['ricky_rizal', 'richard_eliezer', 'hakim', 'mengaku', 'rumah', 'pembunuhan_berencana', 'brigadir_yosua', 'jaksel', 'terdakwa', 'saksi', 'pembunuhan', 'kuat_ruf', 'eliezer', 'putri', 'ferdy_sambo', 'putri_candrawathi', 'saudara', 'laporan']</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['menyebut', 'kepala', 'pembunuhan', 'cctv', 'hendra', 'brigadir_yosua', 'ferdy_sambo', 'sambo', 'polri', 'saudara', 'kuhp', 'yosua', 'duren', 'terdakwa', 'yosua_hutabarat', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'rumah_dinas', 'pasal', 'irfan', 'agus', 'jaksa', 'sidang', 'terkait', 'jaksel', 'hendra_kurniawan']</t>
+          <t>['menyebut', 'duren', 'terdakwa', 'brigadir_yosua', 'saksi', 'kepala', 'jaksa', 'pembunuhan_brigadir', 'sidang', 'rumah_dinas', 'saudara', 'agus', 'hendra_kurniawan', 'pembunuhan', 'kuhp', 'cctv', 'pasal', 'terkait', 'jaksel', 'polri', 'irfan', 'yosua', 'mengaku', 'ferdy_sambo', 'hendra', 'sambo', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['richard', 'masuk', 'kuat_ruf', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'kali', 'polri', 'jakarta', 'yosua', 'duren', 'terdakwa', 'bharada_richard', 'ricky_rizal', 'ditemukan', 'pembunuhan_brigadir', 'rumah_dinas', 'tewas', 'ricky', 'keluarga', 'richard_eliezer', 'jaksa', 'sidang', 'sambo']</t>
+          <t>['menyebut', 'duren', 'terdakwa', 'brigadir_yosua', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'rumah_dinas', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'ditemukan', 'bharada_richard', 'pembunuhan', 'jakarta', 'masuk', 'kali', 'polri', 'eliezer', 'keluarga', 'yosua', 'richard', 'ricky', 'ferdy_sambo', 'sambo', 'tewas']</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['mulia', 'masuk', 'kuat_ruf', 'istri', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'saudara', 'putri', 'yosua', 'bharada', 'terdakwa', 'mengaku', 'ricky_rizal', 'saksi', 'ricky', 'sidang', 'jaksel']</t>
+          <t>['terdakwa', 'brigadir_yosua', 'saksi', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'pembunuhan', 'masuk', 'jaksel', 'putri', 'yosua', 'mengaku', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'istri', 'bharada']</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['perintah', 'mulia', 'rumah', 'menyebut', 'pembunuhan', 'cctv', 'hendra', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'polri', 'saudara', 'yosua', 'duren', 'terdakwa', 'kejadian', 'mengaku', 'saksi', 'jenazah', 'rumah_dinas', 'irfan', 'motor', 'agus', 'keterangan', 'terkait', 'jaksel', 'hendra_kurniawan']</t>
+          <t>['menyebut', 'duren', 'terdakwa', 'brigadir_yosua', 'saksi', 'jenazah', 'rumah_dinas', 'saudara', 'keterangan', 'agus', 'hendra_kurniawan', 'motor', 'pembunuhan', 'cctv', 'perintah', 'terkait', 'jaksel', 'rumah', 'polri', 'irfan', 'kejadian', 'yosua', 'mengaku', 'mulia', 'hakim', 'ferdy_sambo', 'hendra', 'sambo']</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['mencuri', 'pencurian', 'rumah', 'juta', 'agus', 'terdakwa', 'mengaku', 'uang', 'ditemukan', 'milik']</t>
+          <t>['mengaku', 'mencuri', 'terdakwa', 'agus', 'ditemukan', 'rumah', 'pencurian', 'uang', 'milik', 'juta']</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['mulia', 'kuat_ruf', 'istri', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'saudara', 'putri', 'yosua', 'bharada', 'terdakwa', 'mengaku', 'ricky', 'keterangan', 'sidang', 'terkait', 'jaksel']</t>
+          <t>['terdakwa', 'brigadir_yosua', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'keterangan', 'pembunuhan', 'terkait', 'jaksel', 'putri', 'yosua', 'mengaku', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'istri', 'bharada']</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['istrinya', 'rumah', 'perampokan', 'juta', 'mengaku', 'jalan', 'keterangan', 'istri', 'pelaku', 'pria', 'polisi', 'rumah_dinas', 'terkait', 'tkp', 'uang', 'aksi', 'langsung']</t>
+          <t>['mengaku', 'keterangan', 'perampokan', 'rumah', 'tkp', 'uang', 'polisi', 'pelaku', 'istrinya', 'langsung', 'pria', 'rumah_dinas', 'istri', 'jalan', 'juta', 'terkait', 'aksi']</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['istrinya', 'magelang', 'rumah', 'kondisi', 'pembunuhan', 'anaknya', 'korban', 'membunuh', 'terkait', 'kali', 'ditangkap', 'polres', 'saudara', 'mengaku', 'polisi', 'ditemukan', 'diduga', 'tewas', 'langsung', 'keluarga', 'ketiga', 'keterangan', 'kejadian']</t>
+          <t>['diduga', 'langsung', 'saudara', 'membunuh', 'keterangan', 'anaknya', 'ditemukan', 'korban', 'pembunuhan', 'terkait', 'ketiga', 'rumah', 'kali', 'istrinya', 'kejadian', 'kondisi', 'keluarga', 'mengaku', 'polres', 'polisi', 'ditangkap', 'magelang', 'tewas']</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['mencuri', 'rumah', 'cctv', 'laporan', 'tkp', 'aksi', 'korban', 'jalan', 'ditangkap', 'polsek', 'kejadian', 'informasi', 'saksi', 'polisi', 'diduga', 'warga', 'keluarga', 'pencurian', 'keterangan', 'pelaku', 'terkait', 'pria']</t>
+          <t>['saksi', 'diduga', 'pelaku', 'pria', 'jalan', 'keterangan', 'tkp', 'korban', 'cctv', 'terkait', 'informasi', 'rumah', 'kejadian', 'keluarga', 'laporan', 'mencuri', 'pencurian', 'warga', 'polisi', 'ditangkap', 'aksi', 'polsek']</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['langsung', 'rumah', 'masuk', 'korban', 'hakim', 'tindak_pidana', 'pemerkosaan', 'pasal', 'ketiga', 'terdakwa', 'kejadian', 'ditangkap', 'polres', 'pelaku', 'sidang', 'terkait', 'tersangka', 'keluarga']</t>
+          <t>['tersangka', 'hakim', 'terdakwa', 'rumah', 'pemerkosaan', 'polres', 'korban', 'pelaku', 'sidang', 'ditangkap', 'langsung', 'pasal', 'tindak_pidana', 'terkait', 'kejadian', 'ketiga', 'keluarga', 'masuk']</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['pencurian', 'polsek', 'masuk', 'jaya', 'juta', 'korban', 'uang', 'kepala', 'pelaku', 'polisi', 'diduga', 'tkp', 'jaksel']</t>
+          <t>['jaksel', 'pencurian', 'tkp', 'kepala', 'uang', 'korban', 'polisi', 'diduga', 'pelaku', 'juta', 'polsek', 'masuk', 'jaya']</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['jaksel', 'mencuri', 'pencurian', 'korban', 'motor', 'kali', 'mengaku', 'ditangkap', 'pelaku', 'polisi', 'jakarta', 'mencari']</t>
+          <t>['mengaku', 'mencuri', 'jaksel', 'pencurian', 'kali', 'polisi', 'korban', 'motor', 'pelaku', 'ditangkap', 'mencari', 'jakarta']</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['langsung', 'juta', 'korban', 'keluarganya', 'pria', 'kondisi', 'uang', 'pelaku', 'kejadian', 'milik', 'warga']</t>
+          <t>['warga', 'keluarganya', 'uang', 'korban', 'pelaku', 'pria', 'langsung', 'milik', 'juta', 'kejadian', 'kondisi']</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['mencuri', 'langsung', 'pencurian', 'rumah', 'motor', 'kali', 'mengaku', 'informasi', 'pria', 'ditangkap', 'polres', 'pelaku', 'polisi', 'laporan', 'aksi', 'warga']</t>
+          <t>['mengaku', 'mencuri', 'informasi', 'rumah', 'warga', 'kali', 'polres', 'pencurian', 'polisi', 'motor', 'pelaku', 'pria', 'ditangkap', 'langsung', 'aksi', 'laporan']</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['istrinya', 'pasal_kuhp', 'pemerkosaan', 'wanita', 'kali', 'istri', 'ditangkap', 'pelaku', 'diduga', 'pasal', 'kejadian', 'kuhp']</t>
+          <t>['pasal_kuhp', 'pemerkosaan', 'kali', 'wanita', 'pelaku', 'istrinya', 'ditangkap', 'diduga', 'istri', 'kuhp', 'pasal', 'kejadian']</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['perintah', 'mulia', 'kuat_ruf', 'menyebut', 'eliezer', 'pembunuhan', 'cctv', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'sambo', 'kali', 'polri', 'saudara', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'saksi', 'pembunuhan_brigadir', 'langsung', 'keterangan', 'jaksa', 'sidang', 'terkait', 'jaksel']</t>
+          <t>['menyebut', 'terdakwa', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'langsung', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'keterangan', 'bharada_richard', 'pembunuhan', 'cctv', 'perintah', 'terkait', 'jaksel', 'kali', 'polri', 'eliezer', 'mulia', 'hakim', 'ferdy_sambo', 'sambo', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'berinisial', 'laporan', 'cctv', 'tkp', 'milik', 'korban', 'ditangkap', 'uang', 'pencuri', 'kuhp', 'tangerang', 'polsek', 'wanita', 'saksi', 'polisi', 'tim', 'pencurian', 'ketiga', 'keterangan', 'pelaku', 'kejadian']</t>
+          <t>['pasal_kuhp', 'saksi', 'pelaku', 'milik', 'keterangan', 'tkp', 'korban', 'wanita', 'kuhp', 'cctv', 'tangerang', 'ketiga', 'pencuri', 'tim', 'uang', 'berinisial', 'kejadian', 'laporan', 'pencurian', 'polisi', 'ditangkap', 'polsek']</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['perintah', 'magelang', 'rumah', 'kuat_ruf', 'pasal_kuhp', 'kondisi', 'menyebut', 'eliezer', 'pembunuhan', 'cctv', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'putri', 'kuhp', 'yosua', 'bharada', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'tewas', 'pembunuhan_berencana', 'sidang', 'kejadian', 'sambo']</t>
+          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'kuhp', 'cctv', 'perintah', 'rumah', 'pembunuhan_berencana', 'eliezer', 'putri', 'kejadian', 'kondisi', 'yosua', 'mengaku', 'ferdy_sambo', 'sambo', 'magelang', 'yosua_hutabarat', 'tewas', 'bharada']</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['magelang', 'mulia', 'rumah', 'kuat_ruf', 'pasal_kuhp', 'istri', 'kondisi', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'putri', 'kuhp', 'yosua', 'terdakwa', 'bharada_richard', 'mengaku', 'saksi', 'mencari', 'ricky', 'kuat', 'pembunuhan_berencana']</t>
+          <t>['terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'kuat_ruf', 'putri_candrawathi', 'bharada_richard', 'pembunuhan', 'kuhp', 'mencari', 'rumah', 'pembunuhan_berencana', 'eliezer', 'putri', 'kondisi', 'yosua', 'mengaku', 'ricky', 'mulia', 'ferdy_sambo', 'kuat', 'istri', 'magelang']</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['anaknya', 'langsung', 'polsek', 'masuk', 'perampokan', 'juta', 'korban', 'agus', 'jalan', 'uang', 'pelaku', 'kejadian', 'kuhp', 'aksi', 'warga']</t>
+          <t>['agus', 'perampokan', 'anaknya', 'warga', 'uang', 'korban', 'pelaku', 'kuhp', 'langsung', 'jalan', 'juta', 'kejadian', 'aksi', 'polsek', 'masuk']</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['perintah', 'magelang', 'rumah', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'kepala', 'pembunuhan', 'putri_candrawathi', 'membunuh', 'hakim', 'ferdy_sambo', 'polri', 'jakarta', 'tersangka', 'kuhp', 'yosua', 'duren', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'polisi', 'pembunuhan_brigadir', 'rumah_dinas', 'tewas', 'kuat', 'luka', 'pembunuhan_berencana', 'richard_eliezer', 'motif', 'jaksa', 'terkait', 'sambo']</t>
+          <t>['menyebut', 'duren', 'terdakwa', 'pasal_kuhp', 'kepala', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'rumah_dinas', 'putri_candrawathi', 'membunuh', 'ricky_rizal', 'richard_eliezer', 'pembunuhan', 'kuhp', 'perintah', 'terkait', 'jakarta', 'luka', 'rumah', 'pembunuhan_berencana', 'polri', 'motif', 'tersangka', 'yosua', 'mengaku', 'hakim', 'polisi', 'ferdy_sambo', 'sambo', 'kuat', 'magelang', 'yosua_hutabarat', 'tewas']</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'korban', 'tindak_pidana', 'pemerkosaan', 'wanita', 'kali', 'motif', 'menyebut', 'pelaku', 'diduga', 'laporan', 'pasal', 'tersangka']</t>
+          <t>['menyebut', 'pasal_kuhp', 'pemerkosaan', 'kali', 'motif', 'korban', 'wanita', 'pelaku', 'diduga', 'pasal', 'tindak_pidana', 'tersangka', 'laporan']</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'pembunuhan', 'laporan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'kuhp', 'yosua', 'bharada_richard', 'yosua_hutabarat', 'diduga', 'pasal', 'kuat', 'pembunuhan_berencana', 'terkait']</t>
+          <t>['menyebut', 'pasal_kuhp', 'brigadir_yosua', 'kuat_ruf', 'diduga', 'putri_candrawathi', 'bharada_richard', 'pembunuhan', 'kuhp', 'pasal', 'terkait', 'pembunuhan_berencana', 'eliezer', 'yosua', 'laporan', 'hakim', 'ferdy_sambo', 'kuat', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['istrinya', 'ditemukan', 'korban', 'luka', 'tewas', 'mengaku', 'jalan', 'motif', 'jenazah', 'polres', 'berinisial', 'pelaku', 'polisi', 'kejadian', 'pembunuhan', 'warga']</t>
+          <t>['luka', 'mengaku', 'ditemukan', 'warga', 'polres', 'motif', 'jenazah', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'istrinya', 'jalan', 'berinisial', 'kejadian', 'tewas']</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['pencurian', 'masuk', 'tindak_pidana', 'jakarta', 'polri', 'informasi', 'kepala', 'pelaku', 'terkait']</t>
+          <t>['informasi', 'polri', 'pencurian', 'kepala', 'pelaku', 'tindak_pidana', 'terkait', 'jakarta', 'masuk']</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>['rumah', 'korban', 'tewas', 'kali', 'mengaku', 'informasi', 'jalan', 'keterangan', 'polres', 'istri', 'pria', 'menyebut', 'polisi', 'kejadian', 'jaksel', 'keluarga']</t>
+          <t>['menyebut', 'mengaku', 'jaksel', 'keterangan', 'informasi', 'rumah', 'kali', 'polres', 'polisi', 'korban', 'pria', 'istri', 'jalan', 'kejadian', 'tewas', 'keluarga']</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['langsung', 'korban', 'luka', 'tewas', 'kali', 'warga', 'jalan', 'keterangan', 'jenazah', 'kepala', 'ditemukan', 'pria', 'menyebut', 'saksi', 'pembunuhan', 'tim', 'diduga', 'keluarga']</t>
+          <t>['luka', 'menyebut', 'keterangan', 'ditemukan', 'warga', 'kali', 'saksi', 'kepala', 'jenazah', 'korban', 'pembunuhan', 'diduga', 'pria', 'langsung', 'jalan', 'tewas', 'keluarga', 'tim']</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>['masuk', 'pasal_kuhp', 'menyebut', 'pembunuhan', 'putri_candrawathi', 'korban', 'ferdy_sambo', 'sambo', 'uang', 'saudara', 'putri', 'tersangka', 'tindak_pidana', 'keluarganya', 'terdakwa', 'yosua_hutabarat', 'saksi', 'pembunuhan_brigadir', 'pasal', 'pembunuhan_berencana', 'pelaku', 'sidang', 'terkait', 'jaksel']</t>
+          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'saksi', 'pembunuhan_brigadir', 'pelaku', 'sidang', 'putri_candrawathi', 'saudara', 'korban', 'pembunuhan', 'pasal', 'terkait', 'masuk', 'jaksel', 'pembunuhan_berencana', 'uang', 'putri', 'tindak_pidana', 'tersangka', 'keluarganya', 'ferdy_sambo', 'sambo', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -8146,7 +8146,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['istrinya', 'rumah', 'perampokan', 'informasi', 'jalan', 'istri', 'keterangan', 'pelaku', 'polisi', 'rumah_dinas', 'kejadian', 'olah_tkp']</t>
+          <t>['olah_tkp', 'keterangan', 'informasi', 'rumah', 'perampokan', 'polisi', 'pelaku', 'istrinya', 'rumah_dinas', 'istri', 'jalan', 'kejadian']</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['masuk', 'membunuh', 'jalan', 'kondisi', 'kepala', 'pembunuhan', 'warga']</t>
+          <t>['membunuh', 'warga', 'kepala', 'pembunuhan', 'jalan', 'kondisi', 'masuk']</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['richard', 'kuat_ruf', 'pasal_kuhp', 'pembunuhan', 'eliezer', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'polri', 'bharada', 'keluarganya', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'pembunuhan_brigadir', 'tim', 'keluarga', 'pembunuhan_berencana', 'richard_eliezer', 'sidang']</t>
+          <t>['terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'pembunuhan', 'tim', 'polri', 'pembunuhan_berencana', 'eliezer', 'keluarga', 'richard', 'mengaku', 'keluarganya', 'ferdy_sambo', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>['rumah', 'korban', 'pemerkosaan', 'wanita', 'ditangkap', 'polres', 'keterangan', 'pelaku', 'laporan', 'diduga', 'tim']</t>
+          <t>['keterangan', 'rumah', 'pemerkosaan', 'polres', 'korban', 'diduga', 'pelaku', 'wanita', 'ditangkap', 'laporan', 'tim']</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['korban', 'tindak_pidana', 'pemerkosaan', 'keluarga', 'mengaku', 'polri', 'informasi', 'menyebut', 'pelaku', 'polisi', 'diduga', 'pasal', 'jakarta', 'tersangka', 'kuhp', 'langsung']</t>
+          <t>['menyebut', 'mengaku', 'informasi', 'pemerkosaan', 'polri', 'polisi', 'korban', 'diduga', 'pelaku', 'kuhp', 'langsung', 'pasal', 'tindak_pidana', 'tersangka', 'jakarta', 'keluarga']</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['korban', 'pemerkosaan', 'wanita', 'kejadian', 'informasi', 'jalan', 'polres', 'berinisial', 'pelaku', 'diduga', 'terkait', 'aksi', 'warga']</t>
+          <t>['informasi', 'pemerkosaan', 'warga', 'polres', 'korban', 'wanita', 'pelaku', 'diduga', 'jalan', 'terkait', 'kejadian', 'aksi', 'berinisial']</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>['rumah', 'masuk', 'kondisi', 'istri', 'pembunuhan', 'laporan', 'tkp', 'aksi', 'milik', 'korban', 'membunuh', 'kali', 'polres', 'saudara', 'mengaku', 'polisi', 'diduga', 'mencari', 'tim', 'warga', 'keluarga', 'kuat', 'luka', 'motif', 'keterangan', 'pelaku', 'kejadian']</t>
+          <t>['diduga', 'pelaku', 'milik', 'saudara', 'membunuh', 'keterangan', 'tkp', 'korban', 'pembunuhan', 'mencari', 'masuk', 'tim', 'luka', 'rumah', 'kali', 'motif', 'kejadian', 'kondisi', 'keluarga', 'laporan', 'mengaku', 'warga', 'polres', 'polisi', 'kuat', 'istri', 'aksi']</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -8677,7 +8677,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>['rumah', 'korban', 'luka', 'ditangkap', 'polres', 'pelaku', 'polisi', 'pembunuhan', 'milik']</t>
+          <t>['luka', 'rumah', 'polres', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'milik', 'ditangkap']</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['pencurian', 'hilang', 'masuk', 'juta', 'tindak_pidana', 'kejadian', 'putri', 'keterangan', 'menyebut', 'polisi', 'diduga', 'laporan', 'terkait', 'tkp', 'tim', 'milik', 'langsung']</t>
+          <t>['menyebut', 'keterangan', 'pencurian', 'tkp', 'polisi', 'hilang', 'diduga', 'putri', 'langsung', 'milik', 'tindak_pidana', 'juta', 'terkait', 'kejadian', 'masuk', 'laporan', 'tim']</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>['hilang', 'kondisi', 'pembunuhan', 'korban', 'polres', 'tangerang', 'keluarganya', 'wanita', 'saksi', 'jenazah', 'polisi', 'ditemukan', 'tewas', 'mencari', 'tim', 'warga', 'keluarga', 'autopsi', 'luka', 'motif', 'keterangan', 'pelaku']</t>
+          <t>['saksi', 'jenazah', 'pelaku', 'keterangan', 'ditemukan', 'korban', 'pembunuhan', 'wanita', 'mencari', 'autopsi', 'tangerang', 'tim', 'luka', 'motif', 'hilang', 'kondisi', 'keluarga', 'warga', 'keluarganya', 'polres', 'polisi', 'tewas']</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['tangerang', 'hilang', 'polsek', 'masuk', 'korban', 'motor', 'mengaku', 'kondisi', 'saksi', 'pelaku', 'kejadian', 'milik', 'langsung']</t>
+          <t>['mengaku', 'tangerang', 'saksi', 'korban', 'motor', 'pelaku', 'langsung', 'milik', 'hilang', 'kejadian', 'kondisi', 'polsek', 'masuk']</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['istrinya', 'rumah', 'kondisi', 'istri', 'menyebut', 'cctv', 'milik', 'perampokan', 'jalan', 'uang', 'juta', 'mengaku', 'saksi', 'polisi', 'rumah_dinas', 'tim', 'keterangan', 'pelaku', 'kejadian']</t>
+          <t>['menyebut', 'perampokan', 'saksi', 'pelaku', 'milik', 'rumah_dinas', 'jalan', 'keterangan', 'cctv', 'juta', 'tim', 'rumah', 'uang', 'istrinya', 'kejadian', 'kondisi', 'mengaku', 'polisi', 'istri']</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['mencuri', 'hilang', 'polsek', 'rumah', 'motor', 'keluarganya', 'ketiga', 'mengaku', 'jalan', 'kondisi', 'cctv', 'pelaku', 'laporan', 'polisi', 'kejadian', 'pencuri', 'aksi', 'warga']</t>
+          <t>['mengaku', 'mencuri', 'kondisi', 'rumah', 'warga', 'keluarganya', 'polisi', 'motor', 'pelaku', 'cctv', 'ketiga', 'jalan', 'hilang', 'kejadian', 'aksi', 'polsek', 'laporan', 'pencuri']</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['rumah', 'korban', 'membunuh', 'wanita', 'mengaku', 'ditangkap', 'berinisial', 'ditemukan', 'pelaku', 'polisi', 'pembunuhan', 'kuhp', 'milik']</t>
+          <t>['membunuh', 'mengaku', 'rumah', 'ditemukan', 'polisi', 'korban', 'pembunuhan', 'wanita', 'pelaku', 'kuhp', 'ditangkap', 'milik', 'berinisial']</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>['magelang', 'mulia', 'masuk', 'istri', 'pembunuhan', 'laporan', 'putri_candrawathi', 'brigadir_yosua', 'korban', 'hakim', 'pemerkosaan', 'ferdy_sambo', 'kali', 'polri', 'polres', 'saudara', 'putri', 'yosua', 'terdakwa', 'bharada_richard', 'mengaku', 'ricky_rizal', 'saksi', 'polisi', 'kuat', 'sidang', 'jaksel']</t>
+          <t>['terdakwa', 'pemerkosaan', 'brigadir_yosua', 'saksi', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'bharada_richard', 'korban', 'pembunuhan', 'masuk', 'jaksel', 'kali', 'polri', 'putri', 'yosua', 'laporan', 'mengaku', 'mulia', 'hakim', 'polres', 'polisi', 'ferdy_sambo', 'kuat', 'istri', 'magelang']</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>['pembunuhan_berencana', 'terkait', 'jakarta', 'polri', 'jalan', 'pelaku', 'pembunuhan', 'pasal', 'rekonstruksi', 'tersangka', 'aksi']</t>
+          <t>['tersangka', 'aksi', 'pembunuhan_berencana', 'polri', 'pembunuhan', 'pelaku', 'pasal', 'jalan', 'terkait', 'jakarta', 'rekonstruksi']</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>['pencurian', 'tersangka', 'korban', 'pemerkosaan', 'pasal', 'jalan', 'pelaku', 'ditemukan', 'polisi', 'pembunuhan', 'kejadian', 'tkp', 'kuhp', 'milik']</t>
+          <t>['pencurian', 'pemerkosaan', 'ditemukan', 'tkp', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'kuhp', 'milik', 'jalan', 'pasal', 'tersangka', 'kejadian']</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>['luka', 'korban', 'mengaku', 'pria', 'saksi', 'polisi', 'ditemukan', 'cctv', 'pembunuhan', 'jakarta', 'tkp', 'warga']</t>
+          <t>['luka', 'mengaku', 'ditemukan', 'warga', 'tkp', 'saksi', 'polisi', 'korban', 'pembunuhan', 'pria', 'cctv', 'jakarta']</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>['perintah', 'mulia', 'pembunuhan', 'cctv', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'terkait', 'kali', 'saudara', 'chuck', 'jakarta', 'duren', 'terdakwa', 'mengaku', 'saksi', 'rumah_dinas', 'langsung', 'sidang', 'kejadian', 'sambo']</t>
+          <t>['duren', 'terdakwa', 'brigadir_yosua', 'saksi', 'sidang', 'langsung', 'rumah_dinas', 'saudara', 'pembunuhan', 'cctv', 'perintah', 'terkait', 'jakarta', 'kali', 'kejadian', 'mengaku', 'mulia', 'hakim', 'chuck', 'ferdy_sambo', 'sambo']</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>['anaknya', 'pencurian', 'jaya', 'pasal_kuhp', 'korban', 'luka', 'jakarta', 'mengaku', 'keterangan', 'pelaku', 'polisi', 'laporan', 'pasal', 'kejadian', 'jaksel']</t>
+          <t>['luka', 'mengaku', 'jaksel', 'keterangan', 'pasal_kuhp', 'anaknya', 'pencurian', 'polisi', 'korban', 'pelaku', 'pasal', 'kejadian', 'jakarta', 'laporan', 'jaya']</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>['istrinya', 'rumah', 'perampokan', 'korban', 'kejadian', 'kali', 'informasi', 'jalan', 'istri', 'saksi', 'pelaku', 'polisi', 'diduga', 'rumah_dinas', 'terkait']</t>
+          <t>['informasi', 'perampokan', 'kali', 'rumah', 'saksi', 'polisi', 'korban', 'diduga', 'pelaku', 'istrinya', 'rumah_dinas', 'istri', 'jalan', 'terkait', 'kejadian']</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -9650,7 +9650,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>['pencurian', 'masuk', 'korban', 'luka', 'mengaku', 'kondisi', 'keterangan', 'menyebut', 'saksi', 'laporan', 'polisi']</t>
+          <t>['luka', 'menyebut', 'mengaku', 'keterangan', 'pencurian', 'saksi', 'polisi', 'korban', 'kondisi', 'masuk', 'laporan']</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -9727,7 +9727,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>['rumah', 'pasal_kuhp', 'kondisi', 'pembunuhan', 'tkp', 'milik', 'korban', 'jalan', 'polres', 'tersangka', 'kuhp', 'tangerang', 'wanita', 'mengaku', 'saksi', 'polisi', 'ditemukan', 'diduga', 'tewas', 'warga', 'keluarga', 'pencurian', 'pembunuhan_berencana', 'motif', 'kejadian']</t>
+          <t>['pasal_kuhp', 'saksi', 'diduga', 'milik', 'jalan', 'ditemukan', 'tkp', 'korban', 'pembunuhan', 'wanita', 'kuhp', 'tangerang', 'rumah', 'pembunuhan_berencana', 'motif', 'tersangka', 'kejadian', 'kondisi', 'keluarga', 'mengaku', 'pencurian', 'warga', 'polres', 'polisi', 'tewas']</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>['korban', 'pembunuhan', 'pelaku', 'keluarga']</t>
+          <t>['pelaku', 'keluarga', 'korban', 'pembunuhan']</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>['istrinya', 'pencurian', 'rumah', 'masuk', 'perampokan', 'luka', 'polri', 'informasi', 'istri', 'kondisi', 'kepala', 'pelaku', 'cctv', 'rumah_dinas', 'polisi', 'diduga', 'olah_tkp', 'langsung']</t>
+          <t>['luka', 'olah_tkp', 'informasi', 'perampokan', 'polri', 'pencurian', 'rumah', 'kepala', 'polisi', 'diduga', 'pelaku', 'istrinya', 'langsung', 'cctv', 'rumah_dinas', 'istri', 'kondisi', 'masuk']</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>['mencuri', 'pencurian', 'hilang', 'rumah', 'wanita', 'mengaku', 'pelaku', 'ditemukan', 'cctv', 'aksi', 'milik', 'pria']</t>
+          <t>['mengaku', 'mencuri', 'pencurian', 'rumah', 'ditemukan', 'wanita', 'pelaku', 'pria', 'milik', 'cctv', 'hilang', 'aksi']</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>['perintah', 'mulia', 'kuat_ruf', 'pasal_kuhp', 'eliezer', 'pembunuhan', 'cctv', 'hendra', 'tkp', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'sambo', 'polri', 'polres', 'saudara', 'kuhp', 'olah_tkp', 'yosua', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'jenazah', 'polisi', 'autopsi', 'pembunuhan_berencana', 'richard_eliezer', 'sidang', 'terkait', 'jaksel']</t>
+          <t>['terdakwa', 'pasal_kuhp', 'saksi', 'jenazah', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'olah_tkp', 'ricky_rizal', 'richard_eliezer', 'tkp', 'pembunuhan', 'kuhp', 'cctv', 'autopsi', 'perintah', 'terkait', 'jaksel', 'polri', 'pembunuhan_berencana', 'eliezer', 'yosua', 'mengaku', 'mulia', 'hakim', 'polres', 'polisi', 'ferdy_sambo', 'sambo', 'hendra', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>['istrinya', 'anaknya', 'rumah', 'masuk', 'perampokan', 'juta', 'korban', 'pasal_kuhp', 'kali', 'ditangkap', 'polres', 'berinisial', 'kepala', 'pelaku', 'saksi', 'uang', 'warga']</t>
+          <t>['pasal_kuhp', 'anaknya', 'warga', 'rumah', 'polres', 'perampokan', 'kepala', 'kali', 'korban', 'uang', 'saksi', 'pelaku', 'istrinya', 'ditangkap', 'juta', 'berinisial', 'masuk']</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>['richard', 'kuat_ruf', 'kuat', 'ferdy_sambo', 'pembunuhan_berencana', 'sambo', 'terdakwa', 'bharada_richard', 'kali', 'ricky_rizal', 'polri', 'eliezer', 'pembunuhan', 'putri', 'putri_candrawathi', 'ricky']</t>
+          <t>['richard', 'ricky_rizal', 'ricky', 'terdakwa', 'kali', 'bharada_richard', 'pembunuhan_berencana', 'polri', 'pembunuhan', 'kuat_ruf', 'eliezer', 'sambo', 'putri', 'kuat', 'ferdy_sambo', 'putri_candrawathi']</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>['istrinya', 'langsung', 'rumah', 'tersangka', 'korban', 'luka', 'putri', 'mengaku', 'jalan', 'istri', 'pria', 'pelaku', 'ditemukan', 'polisi', 'tewas', 'kejadian', 'pembunuhan', 'keluarga']</t>
+          <t>['luka', 'mengaku', 'rumah', 'ditemukan', 'polisi', 'korban', 'pembunuhan', 'putri', 'pelaku', 'istrinya', 'langsung', 'pria', 'istri', 'jalan', 'tersangka', 'kejadian', 'tewas', 'keluarga']</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -10290,7 +10290,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>['korban', 'luka', 'kali', 'polri', 'jalan', 'ditangkap', 'uang', 'berinisial', 'pelaku', 'polisi', 'tewas', 'pembunuhan', 'tersangka', 'langsung']</t>
+          <t>['luka', 'kali', 'polri', 'uang', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'ditangkap', 'langsung', 'jalan', 'tersangka', 'berinisial', 'tewas']</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -10362,7 +10362,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>['richard', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'kuhp', 'yosua', 'bharada', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'saksi', 'kuat', 'pembunuhan_berencana', 'jaksa', 'sidang', 'jaksel']</t>
+          <t>['menyebut', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'jaksa', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'kuhp', 'jaksel', 'pembunuhan_berencana', 'eliezer', 'yosua', 'richard', 'ferdy_sambo', 'kuat', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -10422,7 +10422,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>['polsek', 'rumah', 'pemerkosaan', 'mengaku', 'jalan', 'ditangkap', 'menyebut', 'pelaku', 'polisi', 'uang', 'aksi']</t>
+          <t>['menyebut', 'mengaku', 'rumah', 'pemerkosaan', 'uang', 'polisi', 'pelaku', 'ditangkap', 'jalan', 'aksi', 'polsek']</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>['korban', 'kali', 'mengaku', 'informasi', 'kondisi', 'polres', 'pelaku', 'polisi', 'tewas']</t>
+          <t>['mengaku', 'informasi', 'kali', 'polres', 'polisi', 'korban', 'pelaku', 'kondisi', 'tewas']</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>['mulia', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'kepala', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'polri', 'saudara', 'tersangka', 'kuhp', 'yosua', 'terdakwa', 'mengaku', 'ricky_rizal', 'polisi', 'pembunuhan_berencana', 'richard_eliezer', 'sidang', 'terkait', 'jaksel']</t>
+          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'kepala', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'richard_eliezer', 'pembunuhan', 'kuhp', 'terkait', 'jaksel', 'polri', 'pembunuhan_berencana', 'tersangka', 'yosua', 'mengaku', 'mulia', 'hakim', 'polisi', 'ferdy_sambo', 'sambo']</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>['jaksel', 'masuk', 'hakim', 'ferdy_sambo', 'wanita', 'sambo', 'terdakwa', 'jakarta', 'mengaku', 'jaksa', 'sidang', 'kejadian', 'tim', 'langsung']</t>
+          <t>['mengaku', 'jaksel', 'hakim', 'terdakwa', 'jaksa', 'wanita', 'ferdy_sambo', 'sidang', 'sambo', 'langsung', 'kejadian', 'jakarta', 'masuk', 'tim']</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>['pencurian', 'mulia', 'juta', 'hakim', 'motor', 'terdakwa', 'jalan', 'kondisi', 'uang', 'pelaku', 'polisi', 'pria', 'kuhp', 'milik', 'langsung']</t>
+          <t>['mulia', 'hakim', 'terdakwa', 'pencurian', 'uang', 'polisi', 'motor', 'pelaku', 'kuhp', 'langsung', 'milik', 'pria', 'jalan', 'juta', 'kondisi']</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>['istrinya', 'istri', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'polri', 'putri', 'yosua', 'wanita', 'saksi', 'diduga', 'keluarga', 'ketiga', 'richard_eliezer', 'motif', 'keterangan', 'terkait', 'sambo']</t>
+          <t>['brigadir_yosua', 'saksi', 'diduga', 'putri_candrawathi', 'richard_eliezer', 'keterangan', 'pembunuhan', 'wanita', 'terkait', 'ketiga', 'polri', 'motif', 'eliezer', 'putri', 'istrinya', 'keluarga', 'yosua', 'hakim', 'ferdy_sambo', 'sambo', 'istri']</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>['istrinya', 'perintah', 'mulia', 'rumah', 'menyebut', 'kepala', 'pembunuhan', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'sambo', 'polri', 'saudara', 'tersangka', 'yosua', 'duren', 'terdakwa', 'yosua_hutabarat', 'mengaku', 'jenazah', 'polisi', 'pembunuhan_brigadir', 'agus', 'sidang', 'terkait', 'jaksel']</t>
+          <t>['menyebut', 'duren', 'terdakwa', 'kepala', 'jenazah', 'pembunuhan_brigadir', 'sidang', 'putri_candrawathi', 'saudara', 'agus', 'pembunuhan', 'perintah', 'terkait', 'jaksel', 'rumah', 'polri', 'istrinya', 'tersangka', 'yosua', 'mengaku', 'mulia', 'hakim', 'polisi', 'ferdy_sambo', 'sambo', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>['richard', 'magelang', 'rumah', 'masuk', 'kuat_ruf', 'istri', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'kali', 'putri', 'yosua', 'bharada', 'terdakwa', 'mengaku', 'saksi', 'kuat', 'sidang', 'jaksel']</t>
+          <t>['menyebut', 'terdakwa', 'brigadir_yosua', 'saksi', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'pembunuhan', 'masuk', 'jaksel', 'rumah', 'kali', 'eliezer', 'putri', 'yosua', 'richard', 'mengaku', 'hakim', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'magelang', 'bharada']</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>['richard', 'perintah', 'magelang', 'kuat_ruf', 'pasal_kuhp', 'kepala', 'pembunuhan', 'putri_candrawathi', 'korban', 'ferdy_sambo', 'kali', 'jakarta', 'kuhp', 'yosua', 'duren', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'rumah_dinas', 'tewas', 'ricky', 'langsung', 'kuat', 'pembunuhan_berencana', 'richard_eliezer', 'keterangan', 'jaksa', 'sidang', 'terkait', 'sambo']</t>
+          <t>['duren', 'terdakwa', 'pasal_kuhp', 'saksi', 'kepala', 'jaksa', 'kuat_ruf', 'sidang', 'langsung', 'rumah_dinas', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'korban', 'pembunuhan', 'kuhp', 'perintah', 'terkait', 'jakarta', 'kali', 'pembunuhan_berencana', 'yosua', 'richard', 'mengaku', 'ricky', 'ferdy_sambo', 'sambo', 'kuat', 'magelang', 'yosua_hutabarat', 'tewas']</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -11094,7 +11094,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>['menyebut', 'kepala', 'pembunuhan', 'milik', 'korban', 'terkait', 'polri', 'polres', 'mengaku', 'informasi', 'saksi', 'polisi', 'tewas', 'mencari', 'warga', 'keluarga', 'autopsi', 'pelaku', 'kejadian']</t>
+          <t>['menyebut', 'saksi', 'kepala', 'pelaku', 'milik', 'korban', 'pembunuhan', 'mencari', 'autopsi', 'terkait', 'informasi', 'polri', 'kejadian', 'keluarga', 'mengaku', 'warga', 'polres', 'polisi', 'tewas']</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>['hilang', 'korban', 'luka', 'wanita', 'olah_tkp', 'pria', 'kondisi', 'keterangan', 'saksi', 'ditemukan', 'polisi', 'tewas', 'pembunuhan', 'diduga', 'milik', 'warga']</t>
+          <t>['luka', 'olah_tkp', 'keterangan', 'ditemukan', 'warga', 'saksi', 'polisi', 'korban', 'pembunuhan', 'wanita', 'diduga', 'pria', 'milik', 'hilang', 'kondisi', 'tewas']</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -11238,7 +11238,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>['mulia', 'rumah', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'hakim', 'ferdy_sambo', 'jalan', 'saudara', 'putri', 'bharada', 'wanita', 'bharada_richard', 'yosua_hutabarat', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'jaksel', 'keterangan', 'sambo']</t>
+          <t>['menyebut', 'saksi', 'pembunuhan_brigadir', 'jalan', 'putri_candrawathi', 'saudara', 'keterangan', 'bharada_richard', 'pembunuhan', 'wanita', 'jaksel', 'rumah', 'eliezer', 'putri', 'mengaku', 'mulia', 'hakim', 'ferdy_sambo', 'sambo', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -11310,7 +11310,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>['tindak_pidana', 'ferdy_sambo', 'jakarta', 'polri', 'kepala', 'sidang', 'pembunuhan', 'pembunuhan_brigadir', 'terkait', 'sambo']</t>
+          <t>['polri', 'kepala', 'pembunuhan_brigadir', 'pembunuhan', 'ferdy_sambo', 'sidang', 'sambo', 'tindak_pidana', 'terkait', 'jakarta']</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -11362,7 +11362,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>['magelang', 'mulia', 'rumah', 'masuk', 'kuat_ruf', 'kondisi', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'saudara', 'putri', 'yosua', 'bharada', 'duren', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'kuat', 'ketiga', 'kejadian', 'jaksel']</t>
+          <t>['duren', 'menyebut', 'terdakwa', 'brigadir_yosua', 'saksi', 'pembunuhan_brigadir', 'kuat_ruf', 'putri_candrawathi', 'saudara', 'bharada_richard', 'pembunuhan', 'ketiga', 'masuk', 'jaksel', 'rumah', 'eliezer', 'putri', 'kejadian', 'kondisi', 'yosua', 'mengaku', 'mulia', 'hakim', 'ferdy_sambo', 'kuat', 'magelang', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -11442,7 +11442,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>['rumah', 'masuk', 'kuat_ruf', 'kondisi', 'eliezer', 'pembunuhan', 'cctv', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'polri', 'chuck', 'jakarta', 'yosua', 'terdakwa', 'bharada_richard', 'mengaku', 'jenazah', 'arif', 'pembunuhan_brigadir', 'tewas', 'rumah_dinas', 'autopsi', 'luka', 'keterangan', 'terkait', 'jaksel']</t>
+          <t>['terdakwa', 'brigadir_yosua', 'jenazah', 'pembunuhan_brigadir', 'kuat_ruf', 'rumah_dinas', 'keterangan', 'bharada_richard', 'pembunuhan', 'cctv', 'autopsi', 'terkait', 'jakarta', 'masuk', 'luka', 'jaksel', 'rumah', 'polri', 'eliezer', 'kondisi', 'yosua', 'mengaku', 'hakim', 'chuck', 'ferdy_sambo', 'tewas', 'arif']</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -11522,7 +11522,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>['pencurian', 'masuk', 'pasal_kuhp', 'motor', 'ketiga', 'kali', 'mengaku', 'ditangkap', 'pelaku', 'polisi', 'diduga', 'milik']</t>
+          <t>['mengaku', 'pasal_kuhp', 'kali', 'pencurian', 'polisi', 'motor', 'diduga', 'pelaku', 'ditangkap', 'milik', 'ketiga', 'masuk']</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -11590,7 +11590,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>['rumah', 'korban', 'pemerkosaan', 'wanita', 'pria', 'saksi', 'kepala', 'berinisial', 'pelaku', 'laporan', 'polisi', 'diduga', 'tkp', 'warga']</t>
+          <t>['rumah', 'warga', 'pemerkosaan', 'saksi', 'tkp', 'kepala', 'polisi', 'korban', 'wanita', 'pelaku', 'diduga', 'pria', 'berinisial', 'laporan']</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -11643,7 +11643,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>['jaya', 'juta', 'korban', 'perampokan', 'kejadian', 'jakarta', 'jalan', 'keterangan', 'uang', 'pelaku', 'laporan', 'terkait', 'mencari', 'aksi', 'milik', 'langsung']</t>
+          <t>['keterangan', 'perampokan', 'aksi', 'uang', 'korban', 'pelaku', 'langsung', 'milik', 'mencari', 'jalan', 'juta', 'terkait', 'kejadian', 'jakarta', 'laporan', 'jaya']</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>['pemerkosaan', 'wanita', 'ketiga', 'kali', 'menyebut', 'diduga', 'laporan', 'terkait']</t>
+          <t>['menyebut', 'pemerkosaan', 'kali', 'wanita', 'diduga', 'terkait', 'ketiga', 'laporan']</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>['pemerkosaan', 'ketiga', 'jakarta', 'mengaku', 'laporan', 'kejadian', 'tersangka']</t>
+          <t>['mengaku', 'pemerkosaan', 'ketiga', 'tersangka', 'kejadian', 'jakarta', 'laporan']</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -11852,7 +11852,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>['hakim', 'kali', 'mengaku', 'pembunuhan', 'pembunuhan_brigadir', 'putri', 'putri_candrawathi', 'yosua']</t>
+          <t>['mengaku', 'hakim', 'kali', 'pembunuhan_brigadir', 'pembunuhan', 'putri', 'putri_candrawathi', 'yosua']</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -11890,7 +11890,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>['perintah', 'magelang', 'kuat_ruf', 'pasal_kuhp', 'kondisi', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'milik', 'hakim', 'ferdy_sambo', 'jakarta', 'kuhp', 'yosua', 'bharada', 'tindak_pidana', 'bharada_richard', 'mengaku', 'ricky_rizal', 'diduga', 'pembunuhan_brigadir', 'mencari', 'ricky', 'kuat', 'pembunuhan_berencana', 'jaksa', 'kejadian', 'sambo']</t>
+          <t>['pasal_kuhp', 'jaksa', 'pembunuhan_brigadir', 'diduga', 'kuat_ruf', 'milik', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'kuhp', 'mencari', 'perintah', 'jakarta', 'pembunuhan_berencana', 'eliezer', 'tindak_pidana', 'kejadian', 'kondisi', 'yosua', 'mengaku', 'ricky', 'hakim', 'ferdy_sambo', 'sambo', 'kuat', 'magelang', 'bharada']</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -11959,7 +11959,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>['hilang', 'rumah', 'masuk', 'jaya', 'kondisi', 'berinisial', 'pembunuhan', 'laporan', 'tkp', 'aksi', 'milik', 'korban', 'kali', 'ditangkap', 'tersangka', 'olah_tkp', 'polsek', 'wanita', 'kejadian', 'informasi', 'saksi', 'jenazah', 'polisi', 'ditemukan', 'diduga', 'tim', 'langsung', 'warga', 'autopsi', 'pelaku', 'terkait']</t>
+          <t>['saksi', 'jenazah', 'diduga', 'pelaku', 'langsung', 'milik', 'olah_tkp', 'ditemukan', 'tkp', 'korban', 'pembunuhan', 'wanita', 'autopsi', 'terkait', 'masuk', 'tim', 'jaya', 'informasi', 'rumah', 'kali', 'hilang', 'tersangka', 'kondisi', 'kejadian', 'berinisial', 'laporan', 'warga', 'polisi', 'ditangkap', 'aksi', 'polsek']</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -12130,7 +12130,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>['korban', 'hakim', 'tewas', 'membunuh', 'terdakwa', 'polres', 'pelaku', 'ditemukan', 'polisi', 'sidang', 'kejadian', 'pembunuhan', 'aksi', 'milik', 'warga']</t>
+          <t>['membunuh', 'hakim', 'terdakwa', 'ditemukan', 'warga', 'polres', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'sidang', 'milik', 'kejadian', 'aksi', 'tewas']</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -12202,7 +12202,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>['pencurian', 'rumah', 'ketiga', 'ditangkap', 'polres', 'pelaku', 'polisi', 'pasal', 'tersangka', 'mencari', 'pencuri', 'warga']</t>
+          <t>['pencurian', 'rumah', 'warga', 'polres', 'polisi', 'pelaku', 'ditangkap', 'mencari', 'pasal', 'tersangka', 'ketiga', 'pencuri']</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>['kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'jakarta', 'kuhp', 'yosua', 'terdakwa', 'bharada_richard', 'ricky_rizal', 'saksi', 'ditemukan', 'pembunuhan_brigadir', 'pembunuhan_berencana', 'richard_eliezer', 'keterangan', 'sidang', 'sambo']</t>
+          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'ditemukan', 'bharada_richard', 'pembunuhan', 'kuhp', 'jakarta', 'pembunuhan_berencana', 'eliezer', 'yosua', 'ferdy_sambo', 'sambo']</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'kepala', 'berinisial', 'pembunuhan', 'tkp', 'korban', 'membunuh', 'ditangkap', 'informasi', 'saksi', 'polisi', 'ditemukan', 'diduga', 'tewas', 'warga', 'keluarga', 'pembunuhan_berencana', 'agus', 'ketiga', 'motif', 'pelaku', 'terkait', 'pria']</t>
+          <t>['pasal_kuhp', 'saksi', 'kepala', 'diduga', 'pelaku', 'pria', 'membunuh', 'agus', 'ditemukan', 'tkp', 'korban', 'pembunuhan', 'terkait', 'ketiga', 'informasi', 'pembunuhan_berencana', 'motif', 'berinisial', 'keluarga', 'warga', 'polisi', 'ditangkap', 'tewas']</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>['istrinya', 'juta', 'korban', 'membunuh', 'istri', 'keterangan', 'berinisial', 'pelaku', 'uang', 'tewas', 'tersangka', 'milik']</t>
+          <t>['membunuh', 'keterangan', 'uang', 'korban', 'pelaku', 'istrinya', 'milik', 'istri', 'juta', 'tersangka', 'berinisial', 'tewas']</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>['mulia', 'masuk', 'kuat_ruf', 'pasal_kuhp', 'istri', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'korban', 'hakim', 'ferdy_sambo', 'saudara', 'jakarta', 'putri', 'kuhp', 'yosua', 'bharada', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'saksi', 'pembunuhan_berencana', 'sidang', 'sambo']</t>
+          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'bharada_richard', 'korban', 'pembunuhan', 'kuhp', 'jakarta', 'masuk', 'pembunuhan_berencana', 'eliezer', 'putri', 'yosua', 'mulia', 'hakim', 'ferdy_sambo', 'sambo', 'istri', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>['hilang', 'rumah', 'pasal_kuhp', 'kondisi', 'pembunuhan', 'aksi', 'milik', 'korban', 'membunuh', 'jalan', 'uang', 'polres', 'tersangka', 'ditemukan', 'tewas', 'langsung', 'pencurian', 'luka', 'motor', 'ketiga', 'pelaku', 'kejadian']</t>
+          <t>['pasal_kuhp', 'pelaku', 'langsung', 'milik', 'jalan', 'membunuh', 'ditemukan', 'korban', 'motor', 'pembunuhan', 'ketiga', 'luka', 'rumah', 'uang', 'tersangka', 'hilang', 'kejadian', 'kondisi', 'pencurian', 'polres', 'aksi', 'tewas']</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>['pencurian', 'rumah', 'perampokan', 'juta', 'luka', 'istri', 'kondisi', 'kepala', 'pelaku', 'menyebut', 'rumah_dinas', 'uang', 'tim', 'milik', 'langsung']</t>
+          <t>['luka', 'menyebut', 'perampokan', 'pencurian', 'rumah', 'kepala', 'uang', 'pelaku', 'langsung', 'milik', 'rumah_dinas', 'istri', 'juta', 'kondisi', 'tim']</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>['kuat_ruf', 'istri', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'saudara', 'putri', 'yosua', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'pembunuhan_brigadir', 'keluarga', 'jaksel', 'kuat', 'jaksa', 'terkait', 'sambo']</t>
+          <t>['brigadir_yosua', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'terkait', 'jaksel', 'putri', 'keluarga', 'yosua', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -12754,7 +12754,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>['mencuri', 'pencurian', 'polsek', 'korban', 'motor', 'keluarganya', 'mengaku', 'ditangkap', 'uang', 'berinisial', 'pelaku', 'polisi', 'jakarta', 'tkp', 'keluarga']</t>
+          <t>['mengaku', 'mencuri', 'pencurian', 'keluarganya', 'tkp', 'uang', 'keluarga', 'korban', 'motor', 'polisi', 'pelaku', 'ditangkap', 'berinisial', 'jakarta', 'polsek']</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -12817,7 +12817,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>['richard', 'kuat_ruf', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'jakarta', 'tersangka', 'putri', 'kuhp', 'terdakwa', 'bharada_richard', 'ricky_rizal', 'informasi', 'pembunuhan_brigadir', 'ricky', 'kuat', 'pembunuhan_berencana', 'agus', 'richard_eliezer', 'sidang', 'terkait', 'hendra_kurniawan']</t>
+          <t>['terdakwa', 'brigadir_yosua', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'agus', 'bharada_richard', 'hendra_kurniawan', 'pembunuhan', 'kuhp', 'terkait', 'jakarta', 'informasi', 'pembunuhan_berencana', 'putri', 'tersangka', 'richard', 'ricky', 'ferdy_sambo', 'kuat']</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -12872,7 +12872,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>['pencurian', 'rumah', 'pasal_kuhp', 'korban', 'warga', 'pria', 'keterangan', 'ditangkap', 'polres', 'pelaku', 'terkait', 'mencari', 'milik', 'keluarga']</t>
+          <t>['keterangan', 'pasal_kuhp', 'rumah', 'warga', 'pencurian', 'polres', 'korban', 'pelaku', 'pria', 'ditangkap', 'milik', 'mencari', 'terkait', 'keluarga']</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -12930,7 +12930,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>['terkait', 'pemerkosaan', 'menyebut', 'wanita']</t>
+          <t>['terkait', 'menyebut', 'pemerkosaan', 'wanita']</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -12969,7 +12969,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>['rumah', 'masuk', 'korban', 'tindak_pidana', 'luka', 'hendra', 'pembunuhan_berencana', 'terdakwa', 'warga', 'jalan', 'informasi', 'polres', 'kepala', 'polisi', 'pembunuhan', 'tewas', 'tim', 'keluarga']</t>
+          <t>['luka', 'terdakwa', 'informasi', 'rumah', 'warga', 'pembunuhan_berencana', 'polres', 'kepala', 'polisi', 'korban', 'pembunuhan', 'hendra', 'tindak_pidana', 'jalan', 'tewas', 'keluarga', 'masuk', 'tim']</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -13109,7 +13109,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>['istrinya', 'langsung', 'pasal_kuhp', 'tindak_pidana', 'pemerkosaan', 'jakarta', 'polri', 'kepala', 'pelaku', 'polisi', 'pasal', 'terkait', 'kuhp', 'keluarga']</t>
+          <t>['pasal_kuhp', 'pemerkosaan', 'polri', 'kepala', 'polisi', 'pelaku', 'istrinya', 'langsung', 'kuhp', 'pasal', 'tindak_pidana', 'terkait', 'jakarta', 'keluarga']</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -13171,7 +13171,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>['rumah', 'kondisi', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'anaknya', 'ferdy_sambo', 'jalan', 'jakarta', 'putri', 'yosua', 'wanita', 'terdakwa', 'bharada_richard', 'mengaku', 'mencari', 'langsung', 'keluarga', 'pembunuhan_berencana', 'sidang', 'sambo']</t>
+          <t>['menyebut', 'terdakwa', 'brigadir_yosua', 'sidang', 'langsung', 'jalan', 'putri_candrawathi', 'anaknya', 'bharada_richard', 'pembunuhan', 'wanita', 'mencari', 'jakarta', 'rumah', 'pembunuhan_berencana', 'eliezer', 'putri', 'kondisi', 'keluarga', 'yosua', 'mengaku', 'ferdy_sambo', 'sambo']</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -13247,7 +13247,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>['magelang', 'rumah', 'korban', 'pembunuhan_berencana', 'terkait', 'kejadian', 'warga', 'jalan', 'keterangan', 'saudara', 'pelaku', 'jaksa', 'pembunuhan', 'rekonstruksi', 'tersangka', 'mencari', 'aksi', 'keluarga']</t>
+          <t>['tersangka', 'keterangan', 'rumah', 'warga', 'pembunuhan_berencana', 'rekonstruksi', 'korban', 'jaksa', 'pembunuhan', 'pelaku', 'mencari', 'magelang', 'jalan', 'terkait', 'kejadian', 'aksi', 'saudara', 'keluarga']</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -13326,7 +13326,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>['pencurian', 'jaya', 'jalan', 'menyebut', 'pelaku', 'polisi', 'cctv', 'terkait', 'aksi']</t>
+          <t>['menyebut', 'pencurian', 'polisi', 'pelaku', 'cctv', 'jalan', 'terkait', 'aksi', 'jaya']</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>['pencurian', 'pasal', 'informasi', 'jalan', 'pelaku', 'laporan', 'hendra', 'terkait', 'pencuri', 'warga']</t>
+          <t>['informasi', 'pencurian', 'warga', 'pelaku', 'hendra', 'pasal', 'jalan', 'terkait', 'laporan', 'pencuri']</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>['masuk', 'milik', 'korban', 'hakim', 'jalan', 'polsek', 'wanita', 'mengaku', 'informasi', 'saksi', 'polisi', 'mencari', 'langsung', 'warga', 'pencurian', 'motor', 'pelaku', 'kejadian', 'pria']</t>
+          <t>['saksi', 'pelaku', 'pria', 'langsung', 'milik', 'jalan', 'korban', 'motor', 'wanita', 'mencari', 'masuk', 'informasi', 'kejadian', 'mengaku', 'hakim', 'pencurian', 'warga', 'polisi', 'polsek']</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -13514,7 +13514,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>['pencurian', 'polsek', 'korban', 'tim', 'keterangan', 'cctv', 'pelaku', 'laporan', 'pencuri', 'aksi', 'milik', 'pria']</t>
+          <t>['keterangan', 'pencurian', 'tim', 'korban', 'pelaku', 'pria', 'milik', 'cctv', 'aksi', 'polsek', 'laporan', 'pencuri']</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -13588,7 +13588,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>['mulia', 'cctv', 'hendra', 'putri_candrawathi', 'membunuh', 'ferdy_sambo', 'kali', 'polri', 'jakarta', 'putri', 'bharada', 'terdakwa', 'yosua_hutabarat', 'arif', 'tim', 'keluarga', 'richard_eliezer', 'keterangan', 'sidang', 'sambo', 'hendra_kurniawan']</t>
+          <t>['terdakwa', 'sidang', 'putri_candrawathi', 'membunuh', 'richard_eliezer', 'keterangan', 'hendra_kurniawan', 'cctv', 'jakarta', 'tim', 'kali', 'polri', 'putri', 'keluarga', 'mulia', 'ferdy_sambo', 'hendra', 'sambo', 'yosua_hutabarat', 'arif', 'bharada']</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -13674,7 +13674,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>['richard', 'istrinya', 'rumah', 'masuk', 'kuat_ruf', 'pasal_kuhp', 'istri', 'kepala', 'eliezer', 'pembunuhan', 'tkp', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'jalan', 'kuhp', 'yosua', 'duren', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'pembunuhan_brigadir', 'langsung', 'pembunuhan_berencana', 'sidang', 'jaksel']</t>
+          <t>['duren', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'kepala', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'langsung', 'jalan', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'tkp', 'pembunuhan', 'kuhp', 'masuk', 'jaksel', 'rumah', 'pembunuhan_berencana', 'eliezer', 'istrinya', 'yosua', 'richard', 'mengaku', 'hakim', 'ferdy_sambo', 'sambo', 'istri', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -13747,7 +13747,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>['polres', 'aksi', 'jalan', 'masuk']</t>
+          <t>['polres', 'aksi', 'masuk', 'jalan']</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -13810,7 +13810,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>['pencurian', 'korban', 'informasi', 'motif', 'keterangan', 'uang', 'berinisial', 'jaksa', 'pelaku', 'polisi', 'jakarta', 'tersangka', 'pencuri']</t>
+          <t>['keterangan', 'informasi', 'pencurian', 'motif', 'uang', 'polisi', 'korban', 'jaksa', 'pelaku', 'tersangka', 'berinisial', 'jakarta', 'pencuri']</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>['istrinya', 'mencuri', 'pencurian', 'rumah', 'korban', 'wanita', 'kali', 'mengaku', 'pria', 'istri', 'berinisial', 'pelaku', 'polisi', 'warga']</t>
+          <t>['mengaku', 'mencuri', 'pencurian', 'rumah', 'warga', 'kali', 'polisi', 'korban', 'wanita', 'pelaku', 'istrinya', 'pria', 'istri', 'berinisial']</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -13920,7 +13920,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>['membunuh', 'keluarga', 'saudara', 'pembunuhan', 'terkait', 'langsung']</t>
+          <t>['membunuh', 'pembunuhan', 'langsung', 'terkait', 'saudara', 'keluarga']</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>['istrinya', 'magelang', 'mulia', 'rumah', 'masuk', 'kuat_ruf', 'pasal_kuhp', 'kondisi', 'istri', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'putri', 'jakarta', 'kuhp', 'yosua', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'kuat', 'pembunuhan_berencana', 'sidang', 'kejadian', 'jaksel']</t>
+          <t>['pasal_kuhp', 'brigadir_yosua', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'kuhp', 'jakarta', 'masuk', 'jaksel', 'rumah', 'pembunuhan_berencana', 'eliezer', 'putri', 'istrinya', 'kejadian', 'kondisi', 'yosua', 'mengaku', 'mulia', 'hakim', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'magelang', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -14082,7 +14082,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>['kuat_ruf', 'pasal_kuhp', 'istri', 'menyebut', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'sambo', 'polri', 'tersangka', 'kuhp', 'yosua', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'pembunuhan_brigadir', 'tim', 'ricky', 'kuat', 'pembunuhan_berencana', 'richard_eliezer', 'jaksa', 'terkait', 'jaksel']</t>
+          <t>['menyebut', 'pasal_kuhp', 'brigadir_yosua', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'pembunuhan', 'kuhp', 'terkait', 'tim', 'jaksel', 'polri', 'pembunuhan_berencana', 'tersangka', 'yosua', 'mengaku', 'ricky', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -14153,7 +14153,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>['istrinya', 'korban', 'pemerkosaan', 'kali', 'mengaku', 'pria', 'istri', 'uang', 'pelaku', 'tersangka', 'aksi', 'warga']</t>
+          <t>['mengaku', 'pemerkosaan', 'warga', 'kali', 'uang', 'korban', 'pelaku', 'istrinya', 'pria', 'istri', 'tersangka', 'aksi']</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -14208,7 +14208,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>['hilang', 'rumah', 'masuk', 'pembunuhan', 'korban', 'terkait', 'kali', 'polres', 'jenazah', 'polisi', 'ditemukan', 'diduga', 'tewas', 'warga', 'autopsi', 'kuat', 'luka', 'pelaku', 'kejadian']</t>
+          <t>['jenazah', 'diduga', 'pelaku', 'ditemukan', 'korban', 'pembunuhan', 'autopsi', 'terkait', 'masuk', 'luka', 'rumah', 'kali', 'hilang', 'kejadian', 'warga', 'polres', 'polisi', 'kuat', 'tewas']</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -14278,7 +14278,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>['anaknya', 'pencurian', 'hilang', 'pelaku', 'cctv', 'kejadian', 'aksi', 'olah_tkp']</t>
+          <t>['olah_tkp', 'pencurian', 'anaknya', 'pelaku', 'cctv', 'hilang', 'kejadian', 'aksi']</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -14337,7 +14337,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>['istrinya', 'jaya', 'korban', 'jakarta', 'informasi', 'motif', 'istri', 'jenazah', 'polisi', 'ditemukan', 'pembunuhan', 'terkait', 'milik', 'keluarga']</t>
+          <t>['informasi', 'ditemukan', 'motif', 'jenazah', 'polisi', 'korban', 'pembunuhan', 'istrinya', 'milik', 'istri', 'terkait', 'jakarta', 'keluarga', 'jaya']</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>['pemerkosaan', 'wanita', 'kali', 'pasal', 'tersangka', 'keluarga']</t>
+          <t>['kali', 'pemerkosaan', 'wanita', 'pasal', 'tersangka', 'keluarga']</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -14494,7 +14494,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>['richard', 'istrinya', 'rumah', 'masuk', 'kondisi', 'istri', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'anaknya', 'hakim', 'ferdy_sambo', 'sambo', 'jalan', 'putri', 'jakarta', 'yosua', 'bharada', 'wanita', 'terdakwa', 'bharada_richard', 'mengaku', 'mencari', 'langsung', 'pembunuhan_berencana', 'richard_eliezer', 'motif', 'keterangan', 'sidang', 'jaksel']</t>
+          <t>['menyebut', 'terdakwa', 'brigadir_yosua', 'sidang', 'langsung', 'jalan', 'putri_candrawathi', 'richard_eliezer', 'keterangan', 'anaknya', 'bharada_richard', 'pembunuhan', 'wanita', 'mencari', 'jakarta', 'masuk', 'jaksel', 'rumah', 'pembunuhan_berencana', 'motif', 'eliezer', 'putri', 'istrinya', 'kondisi', 'yosua', 'richard', 'mengaku', 'hakim', 'ferdy_sambo', 'sambo', 'istri', 'bharada']</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>['langsung', 'rumah', 'masuk', 'korban', 'motor', 'wanita', 'kali', 'informasi', 'polres', 'pelaku', 'tim', 'laporan', 'kejadian', 'tersangka', 'mencari', 'milik', 'warga']</t>
+          <t>['informasi', 'rumah', 'warga', 'kali', 'polres', 'korban', 'motor', 'wanita', 'pelaku', 'langsung', 'milik', 'mencari', 'tersangka', 'kejadian', 'masuk', 'laporan', 'tim']</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>['rumah', 'korban', 'kali', 'mengaku', 'kondisi', 'ditangkap', 'pelaku', 'menyebut', 'laporan', 'polisi', 'terkait', 'diduga', 'tim', 'warga']</t>
+          <t>['menyebut', 'mengaku', 'rumah', 'warga', 'kali', 'polisi', 'korban', 'diduga', 'pelaku', 'ditangkap', 'terkait', 'kondisi', 'laporan', 'tim']</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -14725,7 +14725,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>['istrinya', 'anaknya', 'korban', 'tewas', 'kali', 'istri', 'kondisi', 'polres', 'berinisial', 'menyebut', 'polisi', 'pembunuhan', 'tersangka', 'pria']</t>
+          <t>['menyebut', 'anaknya', 'kali', 'polres', 'polisi', 'korban', 'pembunuhan', 'istrinya', 'pria', 'istri', 'tersangka', 'berinisial', 'kondisi', 'tewas']</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -14782,7 +14782,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>['berinisial', 'pembunuhan', 'korban', 'polres', 'jakarta', 'tersangka', 'olah_tkp', 'polsek', 'tindak_pidana', 'kejadian', 'informasi', 'polisi', 'tewas', 'langsung', 'keluarga', 'autopsi', 'pelaku', 'terkait', 'jaksel']</t>
+          <t>['pelaku', 'langsung', 'olah_tkp', 'korban', 'pembunuhan', 'autopsi', 'terkait', 'jakarta', 'jaksel', 'informasi', 'tindak_pidana', 'tersangka', 'kejadian', 'berinisial', 'keluarga', 'polres', 'polisi', 'tewas', 'polsek']</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -14847,7 +14847,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>['pencurian', 'hilang', 'juta', 'korban', 'saksi', 'polisi', 'putri', 'tkp', 'pencuri', 'olah_tkp']</t>
+          <t>['olah_tkp', 'pencurian', 'tkp', 'saksi', 'polisi', 'korban', 'putri', 'juta', 'hilang', 'pencuri']</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>['perintah', 'masuk', 'kuat_ruf', 'pasal_kuhp', 'eliezer', 'pembunuhan', 'laporan', 'tkp', 'putri_candrawathi', 'brigadir_yosua', 'korban', 'ferdy_sambo', 'kali', 'jakarta', 'tersangka', 'kuhp', 'bharada', 'duren', 'tindak_pidana', 'terdakwa', 'bharada_richard', 'ricky_rizal', 'saksi', 'arif', 'pembunuhan_brigadir', 'rumah_dinas', 'pasal', 'tim', 'ricky', 'kuat', 'pembunuhan_berencana', 'motif', 'pelaku', 'jaksa', 'sidang', 'terkait', 'sambo']</t>
+          <t>['duren', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'pelaku', 'sidang', 'kuat_ruf', 'rumah_dinas', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'tkp', 'korban', 'pembunuhan', 'kuhp', 'pasal', 'perintah', 'terkait', 'jakarta', 'masuk', 'tim', 'kali', 'pembunuhan_berencana', 'motif', 'eliezer', 'tindak_pidana', 'tersangka', 'laporan', 'ricky', 'ferdy_sambo', 'sambo', 'kuat', 'arif', 'bharada']</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>['terkait', 'polri', 'menyebut', 'polisi', 'diduga', 'jakarta']</t>
+          <t>['menyebut', 'polri', 'polisi', 'diduga', 'terkait', 'jakarta']</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -15091,7 +15091,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>['magelang', 'rumah', 'masuk', 'hakim', 'ferdy_sambo', 'sambo', 'terdakwa', 'yosua_hutabarat', 'mengaku', 'istri', 'saudara', 'pembunuhan', 'pembunuhan_brigadir', 'putri', 'putri_candrawathi', 'ricky', 'yosua', 'keluarga']</t>
+          <t>['mengaku', 'ricky', 'hakim', 'terdakwa', 'rumah', 'pembunuhan_brigadir', 'pembunuhan', 'putri', 'sambo', 'ferdy_sambo', 'istri', 'magelang', 'putri_candrawathi', 'yosua_hutabarat', 'saudara', 'keluarga', 'yosua', 'masuk']</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>['pencurian', 'polsek', 'masuk', 'juta', 'kejadian', 'jalan', 'ditangkap', 'polres', 'kepala', 'pelaku', 'laporan', 'polisi', 'terkait', 'tkp', 'uang', 'kuhp', 'olah_tkp']</t>
+          <t>['olah_tkp', 'pencurian', 'tkp', 'polres', 'kepala', 'uang', 'polisi', 'pelaku', 'kuhp', 'ditangkap', 'jalan', 'juta', 'terkait', 'kejadian', 'polsek', 'masuk', 'laporan']</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>['pencurian', 'hilang', 'masuk', 'korban', 'luka', 'menyebut', 'berinisial', 'polisi', 'laporan', 'diduga', 'putri', 'pencuri', 'langsung']</t>
+          <t>['luka', 'menyebut', 'pencurian', 'polisi', 'korban', 'diduga', 'putri', 'langsung', 'hilang', 'berinisial', 'masuk', 'laporan', 'pencuri']</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -15301,7 +15301,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>['anaknya', 'korban', 'hakim', 'tewas', 'membunuh', 'pembunuhan_berencana', 'terdakwa', 'warga', 'jalan', 'ditangkap', 'kondisi', 'pelaku', 'ditemukan', 'polisi', 'sidang', 'pembunuhan', 'keluarga']</t>
+          <t>['membunuh', 'hakim', 'terdakwa', 'anaknya', 'pembunuhan_berencana', 'warga', 'ditemukan', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'sidang', 'ditangkap', 'jalan', 'kondisi', 'tewas', 'keluarga']</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -15374,7 +15374,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>['istrinya', 'korban', 'tindak_pidana', 'pemerkosaan', 'wanita', 'ketiga', 'ditangkap', 'polres', 'istri', 'kepala', 'laporan', 'polisi', 'diduga']</t>
+          <t>['pemerkosaan', 'polres', 'kepala', 'polisi', 'korban', 'wanita', 'diduga', 'istrinya', 'ditangkap', 'istri', 'tindak_pidana', 'ketiga', 'laporan']</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -15440,7 +15440,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>['mulia', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'kepala', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'sambo', 'polri', 'saudara', 'jakarta', 'tersangka', 'kuhp', 'yosua', 'terdakwa', 'mengaku', 'ricky_rizal', 'polisi', 'pembunuhan_berencana', 'richard_eliezer', 'sidang', 'terkait', 'jaksel']</t>
+          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'kepala', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'richard_eliezer', 'pembunuhan', 'kuhp', 'terkait', 'jakarta', 'jaksel', 'polri', 'pembunuhan_berencana', 'tersangka', 'yosua', 'mengaku', 'mulia', 'hakim', 'polisi', 'ferdy_sambo', 'sambo']</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>['richard', 'kuat_ruf', 'pasal_kuhp', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'membunuh', 'ferdy_sambo', 'sambo', 'saudara', 'kuhp', 'yosua', 'bharada', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'ricky', 'kuat', 'pembunuhan_berencana', 'keterangan', 'jaksa', 'sidang', 'terkait', 'jaksel']</t>
+          <t>['menyebut', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'membunuh', 'ricky_rizal', 'keterangan', 'bharada_richard', 'pembunuhan', 'kuhp', 'terkait', 'jaksel', 'pembunuhan_berencana', 'eliezer', 'yosua', 'richard', 'mengaku', 'ricky', 'ferdy_sambo', 'sambo', 'kuat', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -15585,7 +15585,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>['mencuri', 'pencurian', 'korban', 'wanita', 'ketiga', 'mengaku', 'motif', 'keterangan', 'polres', 'pelaku', 'polisi', 'cctv', 'putri', 'tkp', 'warga']</t>
+          <t>['mengaku', 'mencuri', 'keterangan', 'pencurian', 'warga', 'tkp', 'polres', 'motif', 'polisi', 'korban', 'wanita', 'pelaku', 'cctv', 'putri', 'ketiga']</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -15652,7 +15652,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>['langsung', 'rumah', 'korban', 'wanita', 'ditangkap', 'berinisial', 'ditemukan', 'pelaku', 'pembunuhan', 'kuhp', 'milik', 'warga']</t>
+          <t>['rumah', 'warga', 'ditemukan', 'korban', 'pembunuhan', 'wanita', 'pelaku', 'kuhp', 'ditangkap', 'langsung', 'milik', 'berinisial']</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -15709,7 +15709,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>['masuk', 'perampokan', 'juta', 'korban', 'mengaku', 'jalan', 'keterangan', 'polres', 'pelaku', 'polisi', 'uang', 'pria', 'milik', 'warga']</t>
+          <t>['mengaku', 'keterangan', 'perampokan', 'warga', 'polres', 'uang', 'polisi', 'korban', 'pelaku', 'pria', 'milik', 'jalan', 'juta', 'masuk']</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -15774,7 +15774,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>['rumah', 'korban', 'luka', 'warga', 'informasi', 'saksi', 'jenazah', 'polres', 'berinisial', 'polisi', 'pembunuhan', 'tersangka', 'keluarga']</t>
+          <t>['luka', 'informasi', 'rumah', 'warga', 'polres', 'saksi', 'jenazah', 'polisi', 'korban', 'pembunuhan', 'tersangka', 'berinisial', 'keluarga']</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>['istrinya', 'masuk', 'korban', 'luka', 'pemerkosaan', 'jalan', 'istri', 'pelaku', 'polisi', 'terkait', 'aksi', 'pria']</t>
+          <t>['luka', 'pemerkosaan', 'polisi', 'korban', 'pelaku', 'istrinya', 'pria', 'istri', 'jalan', 'terkait', 'aksi', 'masuk']</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -15902,7 +15902,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>['rumah', 'korban', 'kali', 'jalan', 'kondisi', 'polres', 'pelaku', 'pasal', 'kejadian', 'tersangka', 'aksi', 'langsung']</t>
+          <t>['aksi', 'rumah', 'kali', 'polres', 'korban', 'pelaku', 'langsung', 'pasal', 'jalan', 'tersangka', 'kejadian', 'kondisi']</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>['rumah', 'kondisi', 'berinisial', 'pembunuhan', 'milik', 'perampokan', 'korban', 'polres', 'polsek', 'saksi', 'polisi', 'ditemukan', 'diduga', 'tewas', 'tim', 'mencari', 'langsung', 'pencurian', 'pelaku']</t>
+          <t>['perampokan', 'saksi', 'diduga', 'pelaku', 'langsung', 'milik', 'ditemukan', 'korban', 'pembunuhan', 'mencari', 'tim', 'rumah', 'berinisial', 'kondisi', 'pencurian', 'polres', 'polisi', 'tewas', 'polsek']</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -16046,7 +16046,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>['mencuri', 'hilang', 'laporan', 'cctv', 'tkp', 'milik', 'korban', 'jalan', 'ditangkap', 'uang', 'pencuri', 'kuhp', 'polsek', 'juta', 'tindak_pidana', 'mengaku', 'informasi', 'saksi', 'tim', 'langsung', 'pencurian', 'agus', 'ketiga', 'keterangan', 'pelaku', 'kejadian', 'pria']</t>
+          <t>['saksi', 'pelaku', 'pria', 'langsung', 'milik', 'jalan', 'keterangan', 'agus', 'tkp', 'korban', 'kuhp', 'cctv', 'juta', 'ketiga', 'tim', 'pencuri', 'informasi', 'uang', 'tindak_pidana', 'hilang', 'kejadian', 'laporan', 'mengaku', 'mencuri', 'pencurian', 'ditangkap', 'polsek']</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -16137,7 +16137,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>['mulia', 'menyebut', 'pembunuhan', 'laporan', 'hendra', 'brigadir_yosua', 'hakim', 'polri', 'saudara', 'terdakwa', 'saksi', 'tim', 'langsung', 'irfan', 'jaksa', 'sidang', 'terkait', 'jaksel', 'hendra_kurniawan']</t>
+          <t>['menyebut', 'terdakwa', 'brigadir_yosua', 'saksi', 'jaksa', 'sidang', 'langsung', 'saudara', 'hendra_kurniawan', 'pembunuhan', 'terkait', 'tim', 'jaksel', 'polri', 'irfan', 'laporan', 'mulia', 'hakim', 'hendra']</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>['perintah', 'magelang', 'mulia', 'kuat_ruf', 'pasal_kuhp', 'kepala', 'pembunuhan', 'putri_candrawathi', 'ferdy_sambo', 'jakarta', 'kuhp', 'duren', 'keluarganya', 'mengaku', 'ricky_rizal', 'informasi', 'polisi', 'pembunuhan_brigadir', 'tewas', 'rumah_dinas', 'pasal', 'keluarga', 'pembunuhan_berencana', 'richard_eliezer', 'jaksa', 'sidang', 'terkait', 'sambo']</t>
+          <t>['duren', 'pasal_kuhp', 'kepala', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'rumah_dinas', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'pembunuhan', 'kuhp', 'perintah', 'pasal', 'terkait', 'jakarta', 'informasi', 'pembunuhan_berencana', 'keluarga', 'mengaku', 'mulia', 'keluarganya', 'polisi', 'ferdy_sambo', 'sambo', 'magelang', 'tewas']</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>['richard', 'istrinya', 'kuat_ruf', 'menyebut', 'eliezer', 'pembunuhan', 'putri_candrawathi', 'ferdy_sambo', 'sambo', 'kali', 'putri', 'bharada', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'ricky_rizal', 'saksi', 'pembunuhan_brigadir', 'ricky', 'kuat', 'jaksa', 'sidang', 'jaksel']</t>
+          <t>['menyebut', 'terdakwa', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'jaksel', 'kali', 'eliezer', 'putri', 'istrinya', 'richard', 'ricky', 'ferdy_sambo', 'sambo', 'kuat', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -16372,7 +16372,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>['pencurian', 'perampokan', 'agus', 'jalan', 'ditangkap', 'polres', 'pelaku', 'polisi', 'pasal', 'tersangka', 'tim', 'kuhp', 'milik', 'warga']</t>
+          <t>['agus', 'perampokan', 'pencurian', 'warga', 'polres', 'polisi', 'pelaku', 'kuhp', 'ditangkap', 'milik', 'pasal', 'jalan', 'tersangka', 'tim']</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -16427,7 +16427,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>['langsung', 'polsek', 'korban', 'luka', 'kali', 'polri', 'jalan', 'kondisi', 'kepala', 'pria', 'ditemukan', 'pembunuhan', 'diduga', 'jakarta', 'tkp', 'polisi', 'warga']</t>
+          <t>['luka', 'kondisi', 'ditemukan', 'warga', 'kali', 'polri', 'tkp', 'kepala', 'polisi', 'korban', 'pembunuhan', 'diduga', 'pria', 'langsung', 'jalan', 'jakarta', 'polsek']</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -16490,7 +16490,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>['istrinya', 'perintah', 'rumah', 'masuk', 'pasal_kuhp', 'istri', 'kepala', 'menyebut', 'perampokan', 'korban', 'kali', 'uang', 'juta', 'kejadian', 'mengaku', 'polisi', 'rumah_dinas', 'pasal', 'langsung', 'warga', 'luka', 'keterangan', 'pelaku', 'terkait']</t>
+          <t>['menyebut', 'pasal_kuhp', 'perampokan', 'kepala', 'pelaku', 'langsung', 'rumah_dinas', 'keterangan', 'korban', 'perintah', 'pasal', 'terkait', 'juta', 'masuk', 'luka', 'rumah', 'kali', 'uang', 'istrinya', 'kejadian', 'mengaku', 'warga', 'polisi', 'istri']</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>['richard', 'perintah', 'mulia', 'masuk', 'kuat_ruf', 'pembunuhan', 'brigadir_yosua', 'hakim', 'ferdy_sambo', 'kali', 'saudara', 'jakarta', 'yosua', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'saksi', 'pembunuhan_brigadir', 'ricky', 'langsung', 'kuat', 'agus', 'ketiga', 'richard_eliezer', 'keterangan', 'sidang', 'terkait', 'sambo']</t>
+          <t>['terdakwa', 'brigadir_yosua', 'saksi', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'langsung', 'saudara', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'agus', 'pembunuhan', 'perintah', 'terkait', 'jakarta', 'ketiga', 'masuk', 'kali', 'yosua', 'richard', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'kuat', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>['perampokan', 'juta', 'motor', 'agus', 'jalan', 'menyebut', 'polres', 'pelaku', 'polisi', 'uang', 'tersangka', 'milik']</t>
+          <t>['menyebut', 'agus', 'perampokan', 'polres', 'uang', 'polisi', 'motor', 'pelaku', 'milik', 'jalan', 'juta', 'tersangka']</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -16764,7 +16764,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>['pencurian', 'hilang', 'irfan', 'terkait', 'menyebut', 'diduga', 'kejadian', 'tersangka']</t>
+          <t>['menyebut', 'tersangka', 'pencurian', 'diduga', 'irfan', 'hilang', 'kejadian', 'terkait']</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -16829,7 +16829,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>['anaknya', 'pemerkosaan', 'kali', 'mengaku', 'warga', 'jalan', 'ditangkap', 'polres', 'pria', 'polisi', 'laporan', 'aksi', 'keluarga']</t>
+          <t>['mengaku', 'anaknya', 'warga', 'pemerkosaan', 'polres', 'kali', 'polisi', 'pria', 'ditangkap', 'jalan', 'aksi', 'keluarga', 'laporan']</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -16902,7 +16902,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>['pencurian', 'juta', 'motor', 'ketiga', 'ditangkap', 'polres', 'pelaku', 'polisi', 'uang', 'tkp', 'pencuri', 'tim']</t>
+          <t>['pencurian', 'tkp', 'polres', 'tim', 'uang', 'polisi', 'motor', 'pelaku', 'ditangkap', 'juta', 'ketiga', 'pencuri']</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -16960,7 +16960,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>['perintah', 'duren', 'ferdy_sambo', 'jakarta', 'mengaku', 'polri', 'menyebut', 'saksi', 'polisi', 'arif', 'pembunuhan', 'saudara', 'terkait', 'sambo', 'brigadir_yosua']</t>
+          <t>['menyebut', 'mengaku', 'duren', 'polri', 'brigadir_yosua', 'saksi', 'polisi', 'pembunuhan', 'ferdy_sambo', 'sambo', 'perintah', 'terkait', 'saudara', 'jakarta', 'arif']</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -17038,7 +17038,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>['anaknya', 'rumah', 'korban', 'tindak_pidana', 'pemerkosaan', 'terdakwa', 'kali', 'istri', 'uang', 'berinisial', 'polisi', 'sidang', 'tersangka']</t>
+          <t>['terdakwa', 'rumah', 'anaknya', 'pemerkosaan', 'kali', 'uang', 'polisi', 'korban', 'sidang', 'istri', 'tindak_pidana', 'tersangka', 'berinisial']</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -17106,7 +17106,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>['rumah', 'istri', 'kondisi', 'pembunuhan', 'aksi', 'korban', 'membunuh', 'kali', 'tersangka', 'wanita', 'saksi', 'polisi', 'ditemukan', 'tewas', 'warga', 'luka', 'motif', 'pelaku', 'kejadian']</t>
+          <t>['saksi', 'pelaku', 'membunuh', 'ditemukan', 'korban', 'pembunuhan', 'wanita', 'luka', 'rumah', 'kali', 'motif', 'tersangka', 'kejadian', 'kondisi', 'warga', 'polisi', 'istri', 'aksi', 'tewas']</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -17180,7 +17180,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>['korban', 'tindak_pidana', 'pemerkosaan', 'keluarga', 'jakarta', 'polri', 'menyebut', 'pelaku', 'diduga', 'pasal', 'terkait', 'kuhp', 'langsung']</t>
+          <t>['menyebut', 'pemerkosaan', 'polri', 'korban', 'diduga', 'pelaku', 'kuhp', 'langsung', 'pasal', 'tindak_pidana', 'terkait', 'jakarta', 'keluarga']</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -17241,7 +17241,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>['pencurian', 'hilang', 'masuk', 'tindak_pidana', 'olah_tkp', 'putri', 'menyebut', 'laporan', 'kejadian', 'tkp', 'milik', 'langsung']</t>
+          <t>['menyebut', 'olah_tkp', 'pencurian', 'tkp', 'putri', 'langsung', 'milik', 'tindak_pidana', 'hilang', 'kejadian', 'masuk', 'laporan']</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -17308,7 +17308,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>['langsung', 'pencurian', 'korban', 'motor', 'jalan', 'berinisial', 'pelaku', 'polisi', 'warga']</t>
+          <t>['pencurian', 'warga', 'polisi', 'korban', 'motor', 'pelaku', 'langsung', 'jalan', 'berinisial']</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -17360,7 +17360,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>['mencuri', 'langsung', 'pemerkosaan', 'jalan', 'pria', 'polisi', 'kejadian', 'aksi', 'milik', 'warga']</t>
+          <t>['mencuri', 'pemerkosaan', 'warga', 'polisi', 'pria', 'langsung', 'milik', 'jalan', 'kejadian', 'aksi']</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -17420,7 +17420,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>['polri', 'ditangkap', 'polres', 'pelaku', 'ditemukan', 'polisi', 'rumah_dinas', 'tkp', 'olah_tkp']</t>
+          <t>['olah_tkp', 'ditemukan', 'polri', 'tkp', 'polres', 'polisi', 'pelaku', 'ditangkap', 'rumah_dinas']</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>['rumah', 'korban', 'mengaku', 'pria', 'istri', 'saudara', 'pelaku', 'kejadian', 'milik', 'keluarga']</t>
+          <t>['mengaku', 'rumah', 'korban', 'pelaku', 'pria', 'milik', 'istri', 'kejadian', 'saudara', 'keluarga']</t>
         </is>
       </c>
       <c r="F236" t="n">
@@ -17538,7 +17538,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>['korban', 'tindak_pidana', 'pemerkosaan', 'pelaku', 'jakarta', 'tim']</t>
+          <t>['pemerkosaan', 'korban', 'pelaku', 'tindak_pidana', 'jakarta', 'tim']</t>
         </is>
       </c>
       <c r="F237" t="n">
@@ -17609,7 +17609,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>['magelang', 'korban', 'membunuh', 'motif', 'saksi', 'pelaku', 'polisi', 'berinisial', 'pembunuhan', 'terkait', 'diduga']</t>
+          <t>['membunuh', 'motif', 'saksi', 'polisi', 'korban', 'pembunuhan', 'diduga', 'pelaku', 'magelang', 'terkait', 'berinisial']</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -17665,7 +17665,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'berinisial', 'laporan', 'milik', 'korban', 'jalan', 'uang', 'polres', 'tersangka', 'polsek', 'juta', 'tindak_pidana', 'informasi', 'polisi', 'langsung', 'warga', 'pencurian', 'pelaku', 'pria']</t>
+          <t>['pasal_kuhp', 'pelaku', 'pria', 'langsung', 'milik', 'jalan', 'korban', 'juta', 'informasi', 'uang', 'tindak_pidana', 'tersangka', 'berinisial', 'laporan', 'pencurian', 'warga', 'polres', 'polisi', 'polsek']</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -17735,7 +17735,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>['kuat_ruf', 'kuat', 'pasal_kuhp', 'ferdy_sambo', 'pembunuhan_berencana', 'sambo', 'terdakwa', 'richard_eliezer', 'ricky_rizal', 'informasi', 'saksi', 'sidang', 'pembunuhan', 'pembunuhan_brigadir', 'jakarta', 'putri_candrawathi', 'kuhp', 'brigadir_yosua']</t>
+          <t>['ricky_rizal', 'richard_eliezer', 'terdakwa', 'pasal_kuhp', 'informasi', 'pembunuhan_berencana', 'brigadir_yosua', 'saksi', 'pembunuhan_brigadir', 'pembunuhan', 'kuat_ruf', 'sidang', 'kuhp', 'kuat', 'ferdy_sambo', 'sambo', 'putri_candrawathi', 'jakarta']</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -17786,7 +17786,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>['istrinya', 'korban', 'luka', 'membunuh', 'kali', 'informasi', 'motif', 'keterangan', 'kondisi', 'ditangkap', 'istri', 'kepala', 'pelaku', 'polisi', 'pembunuhan', 'milik', 'pria']</t>
+          <t>['luka', 'membunuh', 'keterangan', 'informasi', 'kali', 'motif', 'kepala', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'istrinya', 'ditangkap', 'milik', 'istri', 'pria', 'kondisi']</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -17847,7 +17847,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>['richard', 'magelang', 'mulia', 'masuk', 'kuat_ruf', 'pasal_kuhp', 'eliezer', 'pembunuhan', 'laporan', 'putri_candrawathi', 'brigadir_yosua', 'milik', 'hakim', 'ferdy_sambo', 'saudara', 'jakarta', 'kuhp', 'yosua', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'saksi', 'pembunuhan_brigadir', 'ricky', 'pembunuhan_berencana', 'richard_eliezer', 'keterangan', 'sidang', 'sambo']</t>
+          <t>['terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'milik', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'pembunuhan', 'kuhp', 'jakarta', 'masuk', 'pembunuhan_berencana', 'eliezer', 'yosua', 'laporan', 'richard', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'magelang', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -17915,7 +17915,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>['perintah', 'pembunuhan', 'cctv', 'hendra', 'putri_candrawathi', 'brigadir_yosua', 'ferdy_sambo', 'chuck', 'jakarta', 'yosua', 'terdakwa', 'yosua_hutabarat', 'mengaku', 'informasi', 'saksi', 'arif', 'pembunuhan_brigadir', 'rumah_dinas', 'agus', 'keterangan', 'jaksa', 'sidang', 'terkait', 'sambo', 'hendra_kurniawan']</t>
+          <t>['terdakwa', 'brigadir_yosua', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'sidang', 'rumah_dinas', 'putri_candrawathi', 'keterangan', 'agus', 'hendra_kurniawan', 'pembunuhan', 'cctv', 'perintah', 'terkait', 'jakarta', 'informasi', 'yosua', 'mengaku', 'chuck', 'ferdy_sambo', 'sambo', 'hendra', 'yosua_hutabarat', 'arif']</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -17983,7 +17983,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>['pencurian', 'polsek', 'perampokan', 'juta', 'korban', 'mengaku', 'ditangkap', 'polres', 'berinisial', 'pelaku', 'laporan', 'saudara', 'diduga', 'aksi', 'milik', 'pria']</t>
+          <t>['mengaku', 'perampokan', 'pencurian', 'polres', 'korban', 'diduga', 'pelaku', 'pria', 'ditangkap', 'milik', 'juta', 'berinisial', 'aksi', 'saudara', 'polsek', 'laporan']</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>['tersangka', 'jaya', 'korban', 'membunuh', 'ketiga', 'kali', 'jakarta', 'informasi', 'jalan', 'polisi', 'ditemukan', 'pembunuhan', 'rekonstruksi', 'tkp', 'milik']</t>
+          <t>['membunuh', 'informasi', 'ditemukan', 'kali', 'tkp', 'polisi', 'korban', 'pembunuhan', 'ketiga', 'milik', 'jalan', 'tersangka', 'jakarta', 'rekonstruksi', 'jaya']</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -18133,7 +18133,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>['richard', 'istri', 'menyebut', 'eliezer', 'pembunuhan', 'cctv', 'hendra', 'brigadir_yosua', 'ferdy_sambo', 'kali', 'polri', 'saudara', 'chuck', 'jakarta', 'tersangka', 'kuhp', 'yosua', 'bharada', 'duren', 'terdakwa', 'bharada_richard', 'yosua_hutabarat', 'mengaku', 'saksi', 'pasal', 'tim', 'agus', 'keterangan', 'jaksa', 'sambo']</t>
+          <t>['menyebut', 'duren', 'terdakwa', 'brigadir_yosua', 'saksi', 'jaksa', 'saudara', 'keterangan', 'agus', 'bharada_richard', 'pembunuhan', 'kuhp', 'cctv', 'pasal', 'jakarta', 'tim', 'kali', 'polri', 'eliezer', 'tersangka', 'yosua', 'richard', 'mengaku', 'chuck', 'ferdy_sambo', 'sambo', 'hendra', 'istri', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -18227,7 +18227,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>['mulia', 'bharada', 'masuk', 'hakim', 'ferdy_sambo', 'sambo', 'bharada_richard', 'putri', 'putri_candrawathi', 'keterangan', 'menyebut', 'saksi', 'eliezer', 'saudara', 'sidang', 'kejadian', 'jaksel']</t>
+          <t>['menyebut', 'jaksel', 'mulia', 'hakim', 'keterangan', 'bharada_richard', 'saksi', 'eliezer', 'putri', 'ferdy_sambo', 'sambo', 'sidang', 'putri_candrawathi', 'kejadian', 'saudara', 'bharada', 'masuk']</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -18302,7 +18302,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>['magelang', 'rumah', 'masuk', 'istri', 'menyebut', 'pembunuhan', 'putri_candrawathi', 'brigadir_yosua', 'anaknya', 'hakim', 'ferdy_sambo', 'sambo', 'polri', 'saudara', 'putri', 'terdakwa', 'yosua_hutabarat', 'ricky_rizal', 'mengaku', 'pembunuhan_brigadir', 'ricky', 'keluarga', 'sidang', 'jaksel']</t>
+          <t>['menyebut', 'terdakwa', 'brigadir_yosua', 'pembunuhan_brigadir', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'anaknya', 'pembunuhan', 'masuk', 'jaksel', 'rumah', 'polri', 'putri', 'keluarga', 'mengaku', 'ricky', 'hakim', 'ferdy_sambo', 'sambo', 'istri', 'magelang', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -18395,7 +18395,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>['tangerang', 'masuk', 'korban', 'luka', 'mengaku', 'informasi', 'jalan', 'saksi', 'polres', 'berinisial', 'ditemukan', 'polisi', 'tewas', 'diduga', 'langsung']</t>
+          <t>['luka', 'mengaku', 'informasi', 'ditemukan', 'polres', 'saksi', 'polisi', 'korban', 'diduga', 'langsung', 'jalan', 'tangerang', 'berinisial', 'tewas', 'masuk']</t>
         </is>
       </c>
       <c r="F249" t="n">

--- a/what/kriminalitas/df_result_lda.xlsx
+++ b/what/kriminalitas/df_result_lda.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'diduga', 'pria', 'jalan', 'ditemukan', 'korban', 'pembunuhan', 'wanita', 'mencari', 'pasal', 'motif', 'uang', 'putri', 'tindak_pidana', 'tersangka', 'kejadian', 'berinisial', 'polisi', 'ditangkap']</t>
+          <t>['berinisial', 'pembunuhan', 'diduga', 'ditemukan', 'putri', 'tindak_pidana', 'pasal_kuhp', 'tersangka', 'kejadian', 'pria', 'korban', 'motif', 'jalan', 'hukum']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['mengaku', 'keluarganya', 'pembunuhan', 'wanita', 'istrinya', 'langsung', 'mencari', 'istri', 'terkait', 'saudara', 'keluarga', 'masuk']</t>
+          <t>['pembunuhan', 'mengaku', 'terkait', 'keluarga', 'langsung', 'saudara', 'masuk']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'saksi', 'kuat_ruf', 'sidang', 'milik', 'saudara', 'anaknya', 'motor', 'kuhp', 'juta', 'jaksel', 'uang', 'eliezer', 'mengaku', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'kuat', 'magelang']</t>
+          <t>['kuat', 'mengaku', 'saksi', 'magelang', 'ricky', 'pasal_kuhp', 'kuat_ruf', 'eliezer', 'sidang', 'sambo', 'ferdy_sambo', 'juta', 'hakim', 'milik', 'motor', 'saudara', 'terdakwa', 'kuhp']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['menyebut', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'membunuh', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'bharada_richard', 'pembunuhan', 'kuhp', 'jakarta', 'jaksel', 'kali', 'pembunuhan_berencana', 'eliezer', 'yosua', 'richard', 'mengaku', 'ricky', 'hakim', 'ferdy_sambo', 'sambo', 'yosua_hutabarat', 'bharada']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard_eliezer', 'jaksa', 'saksi', 'pasal_kuhp', 'perkara', 'saudara', 'pembunuhan', 'ricky', 'kuat_ruf', 'yosua', 'eliezer', 'richard', 'hakim', 'ricky_rizal', 'sidang', 'membunuh', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -784,7 +784,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['menyebut', 'duren', 'terdakwa', 'pasal_kuhp', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'langsung', 'rumah_dinas', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'bharada_richard', 'hendra_kurniawan', 'tkp', 'pembunuhan', 'kuhp', 'cctv', 'perintah', 'jakarta', 'masuk', 'jaksel', 'rumah', 'pembunuhan_berencana', 'polri', 'eliezer', 'yosua', 'richard', 'mengaku', 'polres', 'chuck', 'ferdy_sambo', 'sambo', 'yosua_hutabarat']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard_eliezer', 'tkp', 'polri', 'pasal_kuhp', 'rumah_dinas', 'saudara', 'masuk', 'pembunuhan', 'kuat_ruf', 'yosua', 'richard', 'langsung', 'chuck', 'sidang', 'yosua_hutabarat', 'rumah']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -862,7 +862,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['mengaku', 'informasi', 'rumah', 'ditemukan', 'korban', 'diduga', 'jalan', 'hilang', 'kejadian', 'keluarga']</t>
+          <t>['mengaku', 'diduga', 'ditemukan', 'keluarga', 'kejadian', 'korban', 'lpsk', 'rumah', 'jalan', 'hukum']</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -926,7 +926,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['ricky', 'hakim', 'pembunuhan', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'sambo', 'kuat', 'yosua']</t>
+          <t>['santoso', 'kuat', 'pembunuhan', 'pembunuhan_brigadir', 'sidang', 'kuat_ruf', 'ricky', 'yosua', 'sambo', 'hakim']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -964,7 +964,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['menyebut', 'duren', 'jaksel', 'terdakwa', 'agus', 'polri', 'hendra_kurniawan', 'tkp', 'pembunuhan_brigadir', 'pembunuhan', 'ferdy_sambo', 'kuhp', 'hendra', 'cctv', 'sambo', 'pasal', 'perintah', 'yosua_hutabarat']</t>
+          <t>['pembunuhan', 'hendra', 'pembunuhan_brigadir', 'cctv', 'polri', 'yosua_hutabarat', 'sambo', 'ferdy_sambo', 'pasal', 'kuhp', 'tkp', 'terdakwa', 'agus']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rumah', 'warga', 'pemerkosaan', 'polres', 'polisi', 'korban', 'pelaku', 'ditangkap', 'langsung', 'tersangka', 'berinisial', 'keluarga', 'laporan']</t>
+          <t>['berinisial', 'pemerkosaan', 'mobil', 'polisi', 'tersangka', 'keluarga', 'korban', 'warga', 'rumah', 'ditangkap', 'langsung', 'pelaku']</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['menyebut', 'olah_tkp', 'perampokan', 'uang', 'diduga', 'pelaku', 'langsung', 'milik', 'aksi', 'tim']</t>
+          <t>['santoso', 'diduga', 'wali_blitar', 'perampok', 'wali', 'perampokan', 'blitar', 'milik', 'langsung', 'olah_tkp', 'pelaku', 'tim']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['menyebut', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'sidang', 'saudara', 'membunuh', 'keterangan', 'bharada_richard', 'korban', 'pembunuhan', 'terkait', 'jaksel', 'kali', 'eliezer', 'yosua', 'richard', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'yosua_hutabarat', 'bharada']</t>
+          <t>['pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'persidangan', 'jaksa', 'saksi', 'korban', 'saudara', 'pembunuhan', 'ricky', 'yosua', 'eliezer', 'lpsk', 'richard', 'hakim', 'terkait', 'sidang', 'membunuh', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['informasi', 'pemerkosaan', 'kali', 'polisi', 'korban', 'diduga', 'berinisial', 'aksi', 'laporan']</t>
+          <t>['berinisial', 'pemerkosaan', 'polisi', 'diduga', 'korban', 'perempuan']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['menyebut', 'duren', 'terdakwa', 'brigadir_yosua', 'saksi', 'jaksa', 'sidang', 'langsung', 'bharada_richard', 'pembunuhan', 'cctv', 'masuk', 'jaksel', 'rumah', 'eliezer', 'kondisi', 'yosua', 'laporan', 'mengaku', 'chuck', 'ferdy_sambo', 'sambo', 'tewas', 'arif']</t>
+          <t>['masuk', 'mengaku', 'jaksa', 'pembunuhan', 'cctv', 'yosua', 'eliezer', 'sambo', 'ferdy_sambo', 'tewas', 'rumah', 'langsung', 'chuck', 'terdakwa', 'arif']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['menyebut', 'membunuh', 'polri', 'warga', 'korban', 'pembunuhan', 'pelaku', 'kuat', 'kejadian', 'aksi', 'tewas']</t>
+          <t>['kuat', 'pembunuhan', 'polri', 'membunuh', 'kejadian', 'korban', 'tewas', 'tni', 'warga']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['menyebut', 'duren', 'terdakwa', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'diduga', 'sidang', 'kuat_ruf', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'pembunuhan', 'terkait', 'jakarta', 'tim', 'putri', 'kejadian', 'kondisi', 'keluarga', 'yosua', 'hakim', 'ferdy_sambo', 'kuat', 'istri', 'magelang']</t>
+          <t>['pembunuhan_brigadir', 'diduga', 'dugaan', 'ferdy_sambo', 'putri_candrawathi', 'kekerasan_seksual', 'richard_eliezer', 'terdakwa', 'kuat', 'jaksa', 'saksi', 'kejadian', 'perkara', 'tim', 'saudara', 'hukum', 'pembunuhan', 'magelang', 'putri', 'kuat_ruf', 'keluarga', 'yosua', 'hakim', 'ricky_rizal', 'terkait', 'sidang']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['informasi', 'pemerkosaan', 'polres', 'kepala', 'polisi', 'korban', 'pelaku', 'pria', 'ditangkap', 'langsung', 'istri', 'pasal', 'berinisial', 'laporan', 'tim']</t>
+          <t>['berinisial', 'pemerkosaan', 'polisi', 'pria', 'korban', 'pasal', 'ditangkap', 'langsung', 'pelaku', 'tim']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'keterangan', 'bharada_richard', 'pembunuhan', 'kuhp', 'jaksel', 'rumah', 'pembunuhan_berencana', 'kali', 'eliezer', 'putri', 'mengaku', 'mulia', 'hakim', 'ferdy_sambo', 'sambo', 'yosua_hutabarat', 'bharada']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'terdakwa', 'saksi', 'pasal_kuhp', 'perkara', 'saudara', 'pembunuhan', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'hakim', 'ricky_rizal', 'sidang', 'yosua_hutabarat', 'rumah', 'bharada']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['menyebut', 'ricky_rizal', 'richard_eliezer', 'jaksel', 'pasal_kuhp', 'pembunuhan_berencana', 'bharada_richard', 'yosua_hutabarat', 'brigadir_yosua', 'jaksa', 'pembunuhan_brigadir', 'pembunuhan', 'sambo', 'kuhp', 'kuat_ruf', 'ferdy_sambo', 'putri_candrawathi', 'kondisi']</t>
+          <t>['pembunuhan', 'pembunuhan_brigadir', 'ricky_rizal', 'pasal_kuhp', 'kuat_ruf', 'yosua_hutabarat', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'perkara', 'kuhp', 'persidangan']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['mengaku', 'pemerkosaan', 'kali', 'korban', 'wanita', 'pelaku', 'diduga', 'pasal', 'tersangka', 'keluarga']</t>
+          <t>['pidana', 'mengaku', 'pemerkosaan', 'diduga', 'tersangka', 'korban', 'pasal', 'andika', 'tni', 'pelaku', 'hukum']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['mengaku', 'informasi', 'anaknya', 'rumah', 'keluarganya', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'mencari', 'berinisial', 'kondisi']</t>
+          <t>['berinisial', 'pembunuhan', 'mengaku', 'polisi', 'korban', 'rumah', 'pelaku']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['duren', 'pasal_kuhp', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'kuhp', 'cctv', 'terkait', 'jaksel', 'rumah', 'kali', 'polri', 'eliezer', 'putri', 'kejadian', 'yosua', 'mengaku', 'mulia', 'hakim', 'ferdy_sambo', 'sambo', 'kuat', 'magelang', 'yosua_hutabarat']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'kuat', 'polri', 'pasal_kuhp', 'kejadian', 'perkara', 'kuhp', 'saudara', 'pembunuhan', 'magelang', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'hakim', 'ricky_rizal', 'terkait', 'yosua_hutabarat', 'rumah']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['luka', 'menyebut', 'pencurian', 'polisi', 'korban', 'diduga', 'putri', 'langsung', 'hilang', 'berinisial', 'masuk', 'pencuri']</t>
+          <t>['berinisial', 'polisi', 'diduga', 'putri', 'dugaan', 'luka', 'korban', 'solo', 'langsung', 'pencurian', 'masuk']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['tersangka', 'hakim', 'terdakwa', 'anaknya', 'pemerkosaan', 'korban', 'pelaku', 'sidang', 'langsung', 'pria', 'terkait', 'berinisial', 'ketiga', 'keluarga']</t>
+          <t>['berinisial', 'pemerkosaan', 'terkait', 'sidang', 'tersangka', 'keluarga', 'pria', 'korban', 'perkara', 'hakim', 'ketiga', 'langsung', 'pelaku', 'terdakwa']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['menyebut', 'perampokan', 'kepala', 'jenazah', 'diduga', 'pelaku', 'langsung', 'membunuh', 'olah_tkp', 'anaknya', 'korban', 'motor', 'pembunuhan', 'masuk', 'informasi', 'rumah', 'kali', 'motif', 'hilang', 'tersangka', 'kondisi', 'kejadian', 'berinisial', 'warga', 'polres', 'polisi', 'ditangkap', 'kuat', 'aksi', 'tewas', 'polsek']</t>
+          <t>['polisi', 'diduga', 'dugaan', 'tewas', 'jenazah', 'olah_tkp', 'pelaku', 'berinisial', 'kuat', 'saksi', 'kejadian', 'perampokan', 'korban', 'motor', 'polsek', 'masuk', 'pembunuhan', 'langsung', 'tersangka', 'membunuh', 'warga', 'rumah', 'motif', 'ditangkap']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['perampokan', 'kepala', 'diduga', 'pelaku', 'langsung', 'milik', 'rumah_dinas', 'jalan', 'olah_tkp', 'ditemukan', 'tkp', 'cctv', 'juta', 'masuk', 'tim', 'luka', 'uang', 'istrinya', 'hilang', 'kejadian', 'kondisi', 'mengaku', 'polres', 'polisi', 'istri']</t>
+          <t>['mengaku', 'polisi', 'diduga', 'cctv', 'luka', 'milik', 'olah_tkp', 'tkp', 'pelaku', 'mobil', 'wali_blitar', 'kejadian', 'perampokan', 'blitar', 'tim', 'rumah_dinas', 'masuk', 'santoso', 'perampok', 'langsung', 'ditemukan', 'wali', 'jalan']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['terdakwa', 'brigadir_yosua', 'saksi', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'pembunuhan', 'masuk', 'jaksel', 'rumah', 'eliezer', 'putri', 'keluarga', 'yosua', 'richard', 'mengaku', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'istri', 'magelang', 'bharada']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard_eliezer', 'mobil', 'saudara', 'masuk', 'pembunuhan', 'magelang', 'ricky', 'putri', 'keluarga', 'eliezer', 'kuat_ruf', 'yosua', 'richard', 'hakim', 'ricky_rizal', 'rumah']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['perampokan', 'saksi', 'pelaku', 'langsung', 'milik', 'jalan', 'ditemukan', 'tkp', 'korban', 'cctv', 'juta', 'ketiga', 'masuk', 'luka', 'rumah', 'kali', 'uang', 'istrinya', 'mengaku', 'istri', 'aksi']</t>
+          <t>['santoso', 'mengaku', 'ditemukan', 'cctv', 'wali_blitar', 'perampok', 'wali', 'luka', 'perampokan', 'korban', 'blitar', 'juta', 'rumah', 'milik', 'ketiga', 'langsung', 'pelaku', 'masuk']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['membunuh', 'warga', 'kepala', 'korban', 'pembunuhan', 'tewas']</t>
+          <t>['korban', 'pembunuhan', 'membunuh', 'tewas']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'brigadir_yosua', 'jenazah', 'kuat_ruf', 'putri_candrawathi', 'saudara', 'olah_tkp', 'ricky_rizal', 'keterangan', 'ditemukan', 'bharada_richard', 'autopsi', 'terkait', 'luka', 'jaksel', 'informasi', 'polri', 'eliezer', 'yosua', 'laporan', 'mulia', 'hakim', 'ferdy_sambo']</t>
+          <t>['autopsi', 'ricky_rizal', 'ditemukan', 'terkait', 'polri', 'kuat_ruf', 'yosua', 'eliezer', 'luka', 'ferdy_sambo', 'putri_candrawathi', 'jenazah', 'hakim', 'olah_tkp', 'saudara', 'terdakwa']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['pelaku', 'pria', 'langsung', 'keterangan', 'anaknya', 'korban', 'motor', 'luka', 'rumah', 'istrinya', 'berinisial', 'kejadian', 'warga', 'keluarganya', 'polres', 'polisi', 'istri', 'tewas', 'polsek']</t>
+          <t>['berinisial', 'langsung', 'polisi', 'luka', 'kejadian', 'pria', 'korban', 'tewas', 'warga', 'rumah', 'motor', 'pelaku', 'polsek']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['mengaku', 'anaknya', 'warga', 'aksi', 'rumah', 'kali', 'uang', 'polisi', 'korban', 'pelaku', 'pria', 'ditangkap', 'berinisial', 'kondisi', 'polsek', 'masuk']</t>
+          <t>['berinisial', 'mengaku', 'polisi', 'pria', 'korban', 'warga', 'rumah', 'ditangkap', 'pelaku', 'polsek', 'masuk']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['menyebut', 'informasi', 'rumah', 'pencurian', 'motif', 'kepala', 'jaksa', 'pelaku', 'sidang', 'ditangkap', 'milik', 'istri', 'berinisial', 'jakarta', 'pencuri']</t>
+          <t>['persidangan', 'jaksa', 'sidang', 'perkara', 'rumah', 'milik', 'ditangkap', 'motif', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['membunuh', 'keterangan', 'pembunuhan_berencana', 'tkp', 'uang', 'jenazah', 'korban', 'pembunuhan', 'polisi', 'pelaku', 'milik', 'istri', 'pasal', 'juta', 'berinisial', 'aksi']</t>
+          <t>['berinisial', 'pidana', 'polisi', 'pembunuhan', 'tkp', 'membunuh', 'juta', 'korban', 'pasal', 'jenazah', 'milik', 'pelaku']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['pelaku', 'pria', 'milik', 'jalan', 'korban', 'perintah', 'jakarta', 'masuk', 'rumah', 'berinisial', 'kondisi', 'kejadian', 'laporan', 'mengaku', 'mencuri', 'pencurian', 'warga', 'polisi', 'polsek']</t>
+          <t>['berinisial', 'mengaku', 'polisi', 'hukum', 'kejadian', 'pria', 'korban', 'mencuri', 'warga', 'rumah', 'jalan', 'pelaku', 'pencurian', 'masuk']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['olah_tkp', 'perampokan', 'rumah', 'tkp', 'polisi', 'rumah_dinas', 'jalan', 'kejadian', 'aksi', 'masuk']</t>
+          <t>['santoso', 'mobil', 'polisi', 'wali', 'kejadian', 'perampokan', 'blitar', 'rumah', 'olah_tkp', 'tkp', 'rumah_dinas', 'masuk']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['duren', 'menyebut', 'terdakwa', 'pemerkosaan', 'pembunuhan_brigadir', 'kuat_ruf', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'pembunuhan', 'jaksel', 'kali', 'polri', 'putri', 'yosua', 'mengaku', 'mulia', 'hakim', 'polisi', 'ferdy_sambo', 'istri', 'yosua_hutabarat', 'bharada']</t>
+          <t>['santoso', 'pembunuhan', 'mengaku', 'pemerkosaan', 'polisi', 'pembunuhan_brigadir', 'ricky_rizal', 'polri', 'putri', 'kuat_ruf', 'yosua_hutabarat', 'yosua', 'ferdy_sambo', 'putri_candrawathi', 'hakim', 'kekerasan_seksual', 'saudara']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['membunuh', 'ditemukan', 'warga', 'kali', 'polres', 'motif', 'polisi', 'korban', 'motor', 'pembunuhan', 'pelaku', 'milik', 'mencari', 'jalan', 'juta', 'kejadian', 'kondisi', 'tewas']</t>
+          <t>['pembunuhan', 'polisi', 'ditemukan', 'membunuh', 'kejadian', 'juta', 'korban', 'jalan', 'tewas', 'warga', 'motif', 'motor', 'pelaku']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['menyebut', 'duren', 'terdakwa', 'pasal_kuhp', 'saksi', 'kepala', 'jaksa', 'kuat_ruf', 'sidang', 'rumah_dinas', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'pembunuhan', 'kuhp', 'perintah', 'jakarta', 'pembunuhan_berencana', 'irfan', 'yosua', 'mengaku', 'ferdy_sambo', 'sambo', 'istri', 'magelang', 'tewas']</t>
+          <t>['mengaku', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'tewas', 'richard_eliezer', 'terdakwa', 'jaksa', 'polri', 'pasal_kuhp', 'irfan', 'kuhp', 'rumah_dinas', 'pembunuhan', 'magelang', 'kuat_ruf', 'yosua', 'pidana', 'ricky_rizal', 'sidang', 'yosua_hutabarat', 'persidangan']</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['menyebut', 'olah_tkp', 'tersangka', 'ditemukan', 'polisi', 'korban', 'pembunuhan', 'magelang', 'terkait', 'aksi', 'tewas']</t>
+          <t>['pembunuhan', 'magelang', 'ditemukan', 'terkait', 'tersangka', 'korban', 'tewas', 'olah_tkp']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['saksi', 'jenazah', 'jaksa', 'pembunuhan_brigadir', 'rumah_dinas', 'agus', 'ditemukan', 'hendra_kurniawan', 'tkp', 'pembunuhan', 'cctv', 'perintah', 'terkait', 'ketiga', 'tim', 'jaksel', 'rumah', 'polri', 'hilang', 'kejadian', 'keluarga', 'yosua', 'laporan', 'ferdy_sambo', 'yosua_hutabarat']</t>
+          <t>['pembunuhan_brigadir', 'cctv', 'ferdy_sambo', 'jenazah', 'tkp', 'jaksa', 'saksi', 'polri', 'kejadian', 'ketiga', 'tim', 'rumah_dinas', 'pembunuhan', 'yosua', 'keluarga', 'agus', 'ditemukan', 'terkait', 'yosua_hutabarat', 'rumah']</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['luka', 'perampokan', 'pencurian', 'korban', 'motor', 'wanita', 'pelaku', 'pria', 'milik', 'pasal', 'jalan', 'tim']</t>
+          <t>['pencurian', 'luka', 'pria', 'perampokan', 'korban', 'motor', 'pelaku', 'tim']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['mengaku', 'tersangka', 'mencuri', 'informasi', 'kali', 'warga', 'pencurian', 'polres', 'motif', 'polisi', 'korban', 'motor', 'pelaku', 'ditangkap', 'terkait', 'aksi', 'polsek', 'laporan']</t>
+          <t>['pencurian', 'mengaku', 'polisi', 'terkait', 'tersangka', 'dugaan', 'korban', 'mencuri', 'warga', 'motif', 'ditangkap', 'motor', 'pelaku', 'polsek']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['menyebut', 'keterangan', 'informasi', 'pencurian', 'saksi', 'uang', 'polisi', 'diduga', 'pelaku', 'pria', 'cctv', 'mencari', 'terkait', 'kejadian', 'masuk', 'laporan']</t>
+          <t>['polisi', 'saksi', 'diduga', 'cctv', 'terkait', 'dugaan', 'kejadian', 'pria', 'pelaku', 'pencurian', 'masuk']</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['diduga', 'pelaku', 'jalan', 'membunuh', 'agus', 'ditemukan', 'korban', 'pembunuhan', 'kuhp', 'pasal', 'rumah', 'pembunuhan_berencana', 'kali', 'istrinya', 'tersangka', 'mengaku', 'warga', 'polres', 'istri', 'tewas']</t>
+          <t>['pembunuhan', 'mengaku', 'diduga', 'ditemukan', 'pasal_kuhp', 'tersangka', 'membunuh', 'korban', 'pasal', 'tewas', 'warga', 'rumah', 'jalan', 'pelaku', 'agus']</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['olah_tkp', 'mengaku', 'kondisi', 'pencurian', 'polisi', 'korban', 'milik', 'terkait', 'kejadian', 'aksi', 'polsek', 'laporan']</t>
+          <t>['pencurian', 'mobil', 'mengaku', 'polisi', 'terkait', 'kejadian', 'korban', 'milik', 'olah_tkp', 'polsek']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['menyebut', 'tersangka', 'pencurian', 'aksi', 'ditemukan', 'kali', 'polri', 'tangerang', 'korban', 'pelaku', 'cctv', 'langsung', 'hilang', 'kejadian', 'jakarta', 'berinisial']</t>
+          <t>['berinisial', 'cctv', 'ditemukan', 'polri', 'tersangka', 'kejadian', 'korban', 'langsung', 'pelaku', 'pencurian', 'hukum']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['pemerkosaan', 'rumah', 'warga', 'korban', 'pelaku', 'ditangkap', 'langsung', 'jalan']</t>
+          <t>['pemerkosaan', 'korban', 'jalan', 'warga', 'rumah', 'ditangkap', 'langsung', 'pelaku']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['mencuri', 'pencurian', 'anaknya', 'korban', 'pelaku', 'tindak_pidana', 'jakarta', 'jaya']</t>
+          <t>['pidana', 'tindak_pidana', 'korban', 'mencuri', 'perkara', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['kepala', 'diduga', 'pelaku', 'pria', 'jalan', 'tkp', 'kuhp', 'juta', 'ketiga', 'masuk', 'tersangka', 'hilang', 'mengaku', 'mencuri', 'pencurian', 'warga', 'polisi', 'ditangkap', 'aksi']</t>
+          <t>['mengaku', 'polisi', 'tkp', 'diduga', 'ditangkap', 'tersangka', 'pria', 'juta', 'mencuri', 'jalan', 'warga', 'ketiga', 'kuhp', 'pelaku', 'pencurian', 'masuk']</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['terdakwa', 'saksi', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'langsung', 'putri_candrawathi', 'keterangan', 'anaknya', 'bharada_richard', 'tkp', 'pembunuhan', 'wanita', 'mencari', 'jakarta', 'jaksel', 'rumah', 'kali', 'eliezer', 'kejadian', 'kondisi', 'yosua', 'richard', 'mengaku', 'ferdy_sambo', 'sambo', 'bharada']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'perempuan', 'putri_candrawathi', 'tkp', 'terdakwa', 'persidangan', 'mobil', 'saksi', 'kejadian', 'perkara', 'pembunuhan', 'kuat_ruf', 'yosua', 'eliezer', 'lpsk', 'richard', 'langsung', 'rumah', 'bharada']</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'brigadir_yosua', 'kuat_ruf', 'langsung', 'milik', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'perintah', 'jakarta', 'masuk', 'jaksel', 'rumah', 'pembunuhan_berencana', 'eliezer', 'putri', 'istrinya', 'yosua', 'mengaku', 'mulia', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'magelang']</t>
+          <t>['mengaku', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'milik', 'terdakwa', 'kuat', 'mobil', 'masuk', 'pembunuhan', 'magelang', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'langsung', 'ricky_rizal', 'sidang', 'rumah']</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'brigadir_yosua', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'kuhp', 'jakarta', 'masuk', 'jaksel', 'rumah', 'pembunuhan_berencana', 'eliezer', 'putri', 'istrinya', 'kejadian', 'kondisi', 'yosua', 'mengaku', 'mulia', 'hakim', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'magelang', 'yosua_hutabarat']</t>
+          <t>['mengaku', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'kuat', 'pasal_kuhp', 'kejadian', 'masuk', 'pembunuhan', 'magelang', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'hakim', 'ricky_rizal', 'sidang', 'yosua_hutabarat', 'rumah']</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['terdakwa', 'brigadir_yosua', 'saksi', 'jaksa', 'sidang', 'saudara', 'agus', 'pembunuhan', 'kuhp', 'cctv', 'perintah', 'pasal', 'jaksel', 'polri', 'yosua', 'mengaku', 'mulia', 'hakim', 'chuck', 'ferdy_sambo', 'sambo', 'hendra', 'yosua_hutabarat']</t>
+          <t>['pembunuhan', 'mengaku', 'hendra', 'pembunuhan_brigadir', 'cctv', 'polri', 'sidang', 'yosua_hutabarat', 'yosua', 'sambo', 'ferdy_sambo', 'pasal', 'hakim', 'kuhp', 'chuck', 'saudara', 'terdakwa', 'hukum']</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['pemerkosaan', 'jenazah', 'pelaku', 'pria', 'langsung', 'ditemukan', 'korban', 'motor', 'luka', 'tindak_pidana', 'tersangka', 'kondisi', 'warga', 'polres', 'polisi', 'ditangkap', 'aksi', 'tewas', 'polsek']</t>
+          <t>['pemerkosaan', 'polisi', 'ditemukan', 'tindak_pidana', 'tersangka', 'luka', 'pria', 'motor', 'korban', 'tewas', 'warga', 'jenazah', 'kekerasan_seksual', 'ditangkap', 'langsung', 'pelaku', 'polsek']</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['keterangan', 'perampokan', 'polisi', 'pelaku', 'cctv', 'rumah_dinas', 'jalan', 'terkait', 'kejadian', 'masuk']</t>
+          <t>['mobil', 'polisi', 'cctv', 'terkait', 'perampok', 'kejadian', 'perampokan', 'blitar', 'pelaku', 'rumah_dinas', 'masuk']</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['saksi', 'jaksa', 'pelaku', 'tkp', 'korban', 'cctv', 'terkait', 'jakarta', 'masuk', 'pencuri', 'rumah', 'kali', 'motif', 'tersangka', 'kejadian', 'berinisial', 'pencurian', 'keluarganya', 'polisi', 'ditangkap']</t>
+          <t>['polisi', 'saksi', 'jaksa', 'tkp', 'cctv', 'terkait', 'tersangka', 'wali', 'kejadian', 'korban', 'rumah', 'motif', 'ditangkap', 'pelaku', 'pencurian', 'masuk']</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['membunuh', 'mengaku', 'informasi', 'uang', 'polisi', 'korban', 'jalan', 'tersangka', 'jakarta', 'rekonstruksi']</t>
+          <t>['mengaku', 'polisi', 'tersangka', 'membunuh', 'korban', 'rekonstruksi', 'jalan']</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['mencuri', 'informasi', 'rumah', 'warga', 'tkp', 'saksi', 'tim', 'pelaku', 'ditangkap', 'langsung', 'milik', 'mencari', 'jalan', 'tersangka', 'berinisial', 'keluarga', 'jaya', 'pencuri']</t>
+          <t>['berinisial', 'saksi', 'tkp', 'tersangka', 'keluarga', 'mencuri', 'jalan', 'warga', 'milik', 'rumah', 'ditangkap', 'langsung', 'pelaku', 'tim']</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['luka', 'informasi', 'ditemukan', 'warga', 'polres', 'saksi', 'polisi', 'korban', 'diduga', 'langsung', 'jalan', 'kejadian', 'tewas', 'polsek', 'laporan']</t>
+          <t>['polisi', 'saksi', 'diduga', 'ditemukan', 'luka', 'kejadian', 'korban', 'jalan', 'tewas', 'warga', 'langsung', 'polsek']</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['menyebut', 'duren', 'terdakwa', 'pasal_kuhp', 'saksi', 'kepala', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'langsung', 'rumah_dinas', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'pembunuhan', 'kuhp', 'cctv', 'perintah', 'pasal', 'terkait', 'jakarta', 'masuk', 'rumah', 'pembunuhan_berencana', 'kali', 'polri', 'uang', 'eliezer', 'istrinya', 'hilang', 'yosua', 'richard', 'mengaku', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'magelang', 'tewas']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'pasal', 'tewas', 'richard_eliezer', 'terdakwa', 'kuat', 'jaksa', 'saksi', 'pasal_kuhp', 'rumah_dinas', 'saudara', 'santoso', 'masuk', 'pembunuhan', 'magelang', 'ricky', 'kuat_ruf', 'yosua', 'eliezer', 'richard', 'hakim', 'langsung', 'pidana', 'ricky_rizal', 'terkait', 'sidang', 'rumah', 'persidangan']</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['menyebut', 'tersangka', 'rumah', 'pembunuhan_berencana', 'motif', 'polisi', 'korban', 'jaksa', 'pembunuhan', 'pelaku', 'istri', 'magelang', 'terkait', 'tewas']</t>
+          <t>['pembunuhan', 'jaksa', 'polisi', 'magelang', 'terkait', 'tersangka', 'korban', 'tewas', 'rumah', 'motif', 'pelaku']</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['terdakwa', 'saksi', 'jenazah', 'jaksa', 'sidang', 'agus', 'pembunuhan', 'autopsi', 'jakarta', 'masuk', 'tim', 'jaksel', 'polri', 'yosua', 'mengaku', 'mulia', 'hakim', 'polres', 'yosua_hutabarat', 'arif']</t>
+          <t>['masuk', 'mengaku', 'autopsi', 'jaksa', 'saksi', 'pembunuhan', 'polri', 'yosua_hutabarat', 'yosua', 'arif', 'hakim', 'tim', 'terdakwa', 'agus']</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['kali', 'ditemukan', 'polisi', 'korban', 'langsung', 'jaya', 'jakarta', 'keluarga', 'tim']</t>
+          <t>['polisi', 'ditemukan', 'keluarga', 'korban', 'langsung', 'tim']</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'saksi', 'kepala', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'pasal', 'terkait', 'jakarta', 'jaksel', 'eliezer', 'putri', 'mengaku', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'magelang', 'yosua_hutabarat']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'dugaan', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'pasal', 'richard_eliezer', 'kuat', 'saksi', 'perkara', 'saudara', 'pembunuhan', 'magelang', 'putri', 'hakim', 'terkait', 'sidang', 'yosua_hutabarat', 'persidangan']</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['duren', 'brigadir_yosua', 'saksi', 'jaksa', 'sidang', 'milik', 'rumah_dinas', 'jalan', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'keterangan', 'bharada_richard', 'cctv', 'terkait', 'jakarta', 'masuk', 'jaksel', 'rumah', 'kali', 'polri', 'eliezer', 'yosua', 'mengaku', 'ricky', 'hakim', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'magelang', 'yosua_hutabarat']</t>
+          <t>['mengaku', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'milik', 'kuat', 'mobil', 'jaksa', 'saksi', 'polri', 'rumah_dinas', 'saudara', 'masuk', 'magelang', 'ricky', 'yosua', 'eliezer', 'hakim', 'ricky_rizal', 'terkait', 'sidang', 'yosua_hutabarat', 'rumah', 'jalan']</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['ditemukan', 'kepala', 'jenazah', 'korban', 'pembunuhan', 'polisi', 'autopsi', 'jalan', 'hilang', 'tewas', 'keluarga']</t>
+          <t>['pembunuhan', 'polisi', 'autopsi', 'ditemukan', 'keluarga', 'korban', 'tewas', 'jenazah', 'jalan']</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['pencurian', 'aksi', 'saksi', 'uang', 'pelaku', 'milik', 'juta', 'hilang', 'kejadian', 'kondisi', 'polsek', 'masuk']</t>
+          <t>['pencurian', 'mobil', 'kejadian', 'juta', 'milik', 'pelaku', 'polsek', 'masuk']</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['mengaku', 'rumah', 'warga', 'polisi', 'pelaku', 'pria', 'ditangkap', 'langsung', 'berinisial', 'aksi', 'polsek', 'laporan']</t>
+          <t>['berinisial', 'mengaku', 'polisi', 'pria', 'warga', 'rumah', 'langsung', 'pelaku', 'polsek']</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['saksi', 'jenazah', 'diduga', 'pelaku', 'pria', 'milik', 'ditemukan', 'korban', 'pembunuhan', 'wanita', 'luka', 'rumah', 'kali', 'motif', 'hilang', 'kejadian', 'berinisial', 'warga', 'polisi', 'tewas']</t>
+          <t>['berinisial', 'pembunuhan', 'polisi', 'saksi', 'diduga', 'ditemukan', 'dugaan', 'luka', 'kejadian', 'pria', 'korban', 'tewas', 'warga', 'jenazah', 'rumah', 'motif', 'pelaku']</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['membunuh', 'olah_tkp', 'anaknya', 'rumah', 'polres', 'kepala', 'polisi', 'korban', 'diduga', 'pelaku', 'pria', 'langsung', 'kejadian', 'kondisi', 'keluarga']</t>
+          <t>['polisi', 'diduga', 'membunuh', 'keluarga', 'kejadian', 'pria', 'korban', 'rumah', 'langsung', 'olah_tkp', 'pelaku']</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['putri_candrawathi', 'ricky_rizal', 'jaksel', 'hakim', 'informasi', 'kali', 'bharada_richard', 'terdakwa', 'saksi', 'keterangan', 'pembunuhan_brigadir', 'pembunuhan', 'kuat_ruf', 'ferdy_sambo', 'kuat', 'terkait', 'saudara', 'yosua']</t>
+          <t>['kuat', 'saksi', 'pembunuhan', 'ricky_rizal', 'terkait', 'kuat_ruf', 'terdakwa', 'ferdy_sambo', 'putri_candrawathi', 'hakim', 'persidangan', 'saudara']</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -5778,7 +5778,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['membunuh', 'rumah', 'warga', 'kepala', 'polisi', 'korban', 'pelaku', 'pria', 'langsung', 'kuat', 'tersangka', 'kejadian', 'tewas', 'laporan']</t>
+          <t>['kuat', 'polisi', 'tersangka', 'membunuh', 'kejadian', 'pria', 'korban', 'perkara', 'tewas', 'warga', 'rumah', 'langsung', 'pelaku']</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['menyebut', 'keterangan', 'rumah', 'warga', 'pemerkosaan', 'polres', 'kepala', 'keluarga', 'korban', 'polisi', 'diduga', 'pelaku', 'pria', 'berinisial', 'kejadian', 'kondisi', 'polsek', 'tim']</t>
+          <t>['berinisial', 'pemerkosaan', 'polisi', 'diduga', 'polsek', 'keluarga', 'kejadian', 'pria', 'korban', 'perempuan', 'warga', 'rumah', 'pelaku', 'tim']</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['ricky_rizal', 'richard_eliezer', 'hakim', 'mengaku', 'rumah', 'pembunuhan_berencana', 'brigadir_yosua', 'jaksel', 'terdakwa', 'saksi', 'pembunuhan', 'kuat_ruf', 'eliezer', 'putri', 'ferdy_sambo', 'putri_candrawathi', 'saudara', 'laporan']</t>
+          <t>['pembunuhan', 'mengaku', 'saksi', 'putri', 'yosua', 'terdakwa', 'sambo', 'putri_candrawathi', 'lpsk', 'hakim', 'rumah', 'richard_eliezer', 'saudara']</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['menyebut', 'duren', 'terdakwa', 'brigadir_yosua', 'saksi', 'kepala', 'jaksa', 'pembunuhan_brigadir', 'sidang', 'rumah_dinas', 'saudara', 'agus', 'hendra_kurniawan', 'pembunuhan', 'kuhp', 'cctv', 'pasal', 'terkait', 'jaksel', 'polri', 'irfan', 'yosua', 'mengaku', 'ferdy_sambo', 'hendra', 'sambo', 'yosua_hutabarat']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'pasal', 'terdakwa', 'jaksa', 'saksi', 'polri', 'perkara', 'irfan', 'kuhp', 'rumah_dinas', 'saudara', 'hukum', 'pembunuhan', 'yosua', 'hendra', 'terkait', 'sidang', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['menyebut', 'duren', 'terdakwa', 'brigadir_yosua', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'rumah_dinas', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'ditemukan', 'bharada_richard', 'pembunuhan', 'jakarta', 'masuk', 'kali', 'polri', 'eliezer', 'keluarga', 'yosua', 'richard', 'ricky', 'ferdy_sambo', 'sambo', 'tewas']</t>
+          <t>['pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'tewas', 'richard_eliezer', 'terdakwa', 'jaksa', 'polri', 'rumah_dinas', 'masuk', 'pembunuhan', 'ricky', 'kuat_ruf', 'keluarga', 'eliezer', 'yosua', 'richard', 'ricky_rizal', 'ditemukan', 'sidang', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['terdakwa', 'brigadir_yosua', 'saksi', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'pembunuhan', 'masuk', 'jaksel', 'putri', 'yosua', 'mengaku', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'istri', 'bharada']</t>
+          <t>['pembunuhan', 'mengaku', 'ricky_rizal', 'ricky', 'putri', 'kuat_ruf', 'yosua', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'hakim', 'saudara', 'masuk']</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['menyebut', 'duren', 'terdakwa', 'brigadir_yosua', 'saksi', 'jenazah', 'rumah_dinas', 'saudara', 'keterangan', 'agus', 'hendra_kurniawan', 'motor', 'pembunuhan', 'cctv', 'perintah', 'terkait', 'jaksel', 'rumah', 'polri', 'irfan', 'kejadian', 'yosua', 'mengaku', 'mulia', 'hakim', 'ferdy_sambo', 'hendra', 'sambo']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'cctv', 'sambo', 'ferdy_sambo', 'jenazah', 'terdakwa', 'mobil', 'polri', 'kejadian', 'perkara', 'irfan', 'motor', 'rumah_dinas', 'saudara', 'pembunuhan', 'yosua', 'hakim', 'agus', 'hendra', 'terkait', 'yosua_hutabarat', 'rumah', 'persidangan']</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['mengaku', 'mencuri', 'terdakwa', 'agus', 'ditemukan', 'rumah', 'pencurian', 'uang', 'milik', 'juta']</t>
+          <t>['mengaku', 'mobil', 'ditemukan', 'juta', 'mencuri', 'rumah', 'milik', 'pencurian', 'terdakwa', 'agus']</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['terdakwa', 'brigadir_yosua', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'keterangan', 'pembunuhan', 'terkait', 'jaksel', 'putri', 'yosua', 'mengaku', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'istri', 'bharada']</t>
+          <t>['pembunuhan', 'mengaku', 'terkait', 'ricky', 'putri', 'kuat_ruf', 'yosua', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'hakim', 'saudara']</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['mengaku', 'keterangan', 'perampokan', 'rumah', 'tkp', 'uang', 'polisi', 'pelaku', 'istrinya', 'langsung', 'pria', 'rumah_dinas', 'istri', 'jalan', 'juta', 'terkait', 'aksi']</t>
+          <t>['santoso', 'mengaku', 'mobil', 'polisi', 'tkp', 'terkait', 'wali_blitar', 'perampok', 'wali', 'pria', 'perampokan', 'blitar', 'rumah', 'langsung', 'pelaku', 'rumah_dinas']</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['diduga', 'langsung', 'saudara', 'membunuh', 'keterangan', 'anaknya', 'ditemukan', 'korban', 'pembunuhan', 'terkait', 'ketiga', 'rumah', 'kali', 'istrinya', 'kejadian', 'kondisi', 'keluarga', 'mengaku', 'polres', 'polisi', 'ditangkap', 'magelang', 'tewas']</t>
+          <t>['pembunuhan', 'mengaku', 'polisi', 'diduga', 'ditemukan', 'magelang', 'terkait', 'membunuh', 'keluarga', 'kejadian', 'korban', 'perempuan', 'tewas', 'rumah', 'ketiga', 'langsung', 'ditangkap', 'saudara']</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['saksi', 'diduga', 'pelaku', 'pria', 'jalan', 'keterangan', 'tkp', 'korban', 'cctv', 'terkait', 'informasi', 'rumah', 'kejadian', 'keluarga', 'laporan', 'mencuri', 'pencurian', 'warga', 'polisi', 'ditangkap', 'aksi', 'polsek']</t>
+          <t>['polisi', 'diduga', 'cctv', 'terkait', 'keluarga', 'kejadian', 'pria', 'korban', 'mencuri', 'perkara', 'warga', 'rumah', 'ditangkap', 'jalan', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['tersangka', 'hakim', 'terdakwa', 'rumah', 'pemerkosaan', 'polres', 'korban', 'pelaku', 'sidang', 'ditangkap', 'langsung', 'pasal', 'tindak_pidana', 'terkait', 'kejadian', 'ketiga', 'keluarga', 'masuk']</t>
+          <t>['pasal', 'kekerasan_seksual', 'pelaku', 'terdakwa', 'pemerkosaan', 'tindak_pidana', 'kejadian', 'korban', 'perkara', 'ketiga', 'masuk', 'keluarga', 'hakim', 'langsung', 'terkait', 'sidang', 'tersangka', 'rumah', 'ditangkap']</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['jaksel', 'pencurian', 'tkp', 'kepala', 'uang', 'korban', 'polisi', 'diduga', 'pelaku', 'juta', 'polsek', 'masuk', 'jaya']</t>
+          <t>['pencurian', 'tkp', 'diduga', 'perampok', 'juta', 'korban', 'perkara', 'pelaku', 'polsek', 'masuk']</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['mengaku', 'mencuri', 'jaksel', 'pencurian', 'kali', 'polisi', 'korban', 'motor', 'pelaku', 'ditangkap', 'mencari', 'jakarta']</t>
+          <t>['mengaku', 'polisi', 'korban', 'mencuri', 'ditangkap', 'motor', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['warga', 'keluarganya', 'uang', 'korban', 'pelaku', 'pria', 'langsung', 'milik', 'juta', 'kejadian', 'kondisi']</t>
+          <t>['kejadian', 'pria', 'korban', 'juta', 'warga', 'langsung', 'pelaku']</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['mengaku', 'mencuri', 'informasi', 'rumah', 'warga', 'kali', 'polres', 'pencurian', 'polisi', 'motor', 'pelaku', 'pria', 'ditangkap', 'langsung', 'aksi', 'laporan']</t>
+          <t>['mengaku', 'polisi', 'pria', 'motor', 'mencuri', 'warga', 'rumah', 'ditangkap', 'langsung', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'pemerkosaan', 'kali', 'wanita', 'pelaku', 'istrinya', 'ditangkap', 'diduga', 'istri', 'kuhp', 'pasal', 'kejadian']</t>
+          <t>['pidana', 'pemerkosaan', 'diduga', 'pasal_kuhp', 'kejadian', 'solo', 'andika', 'pasal', 'ditangkap', 'kuhp', 'pelaku', 'hukum']</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['menyebut', 'saksi', 'polisi', 'diduga', 'berinisial']</t>
+          <t>['berinisial', 'polisi', 'saksi', 'wali', 'hukum']</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'langsung', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'keterangan', 'bharada_richard', 'pembunuhan', 'cctv', 'perintah', 'terkait', 'jaksel', 'kali', 'polri', 'eliezer', 'mulia', 'hakim', 'ferdy_sambo', 'sambo', 'yosua_hutabarat']</t>
+          <t>['pembunuhan_brigadir', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'terdakwa', 'jaksa', 'polri', 'saudara', 'pembunuhan', 'kuat_ruf', 'eliezer', 'hakim', 'langsung', 'pidana', 'ricky_rizal', 'terkait', 'sidang', 'yosua_hutabarat', 'persidangan']</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'saksi', 'pelaku', 'milik', 'keterangan', 'tkp', 'korban', 'wanita', 'kuhp', 'cctv', 'tangerang', 'ketiga', 'pencuri', 'tim', 'uang', 'berinisial', 'kejadian', 'laporan', 'pencurian', 'polisi', 'ditangkap', 'polsek']</t>
+          <t>['berinisial', 'pencurian', 'mobil', 'polisi', 'saksi', 'tkp', 'cctv', 'polsek', 'ditangkap', 'pasal_kuhp', 'kejadian', 'korban', 'ketiga', 'kuhp', 'pelaku', 'tim']</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'kuhp', 'cctv', 'perintah', 'rumah', 'pembunuhan_berencana', 'eliezer', 'putri', 'kejadian', 'kondisi', 'yosua', 'mengaku', 'ferdy_sambo', 'sambo', 'magelang', 'yosua_hutabarat', 'tewas', 'bharada']</t>
+          <t>['mengaku', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'tewas', 'terdakwa', 'saksi', 'pasal_kuhp', 'kejadian', 'perkara', 'pembunuhan', 'magelang', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'ricky_rizal', 'sidang', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'kuat_ruf', 'putri_candrawathi', 'bharada_richard', 'pembunuhan', 'kuhp', 'mencari', 'rumah', 'pembunuhan_berencana', 'eliezer', 'putri', 'kondisi', 'yosua', 'mengaku', 'ricky', 'mulia', 'ferdy_sambo', 'kuat', 'istri', 'magelang']</t>
+          <t>['kuat', 'mengaku', 'pembunuhan', 'magelang', 'ricky', 'pasal_kuhp', 'putri', 'eliezer', 'kuat_ruf', 'yosua_hutabarat', 'ferdy_sambo', 'yosua', 'putri_candrawathi', 'rumah', 'richard_eliezer']</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['agus', 'perampokan', 'anaknya', 'warga', 'uang', 'korban', 'pelaku', 'kuhp', 'langsung', 'jalan', 'juta', 'kejadian', 'aksi', 'polsek', 'masuk']</t>
+          <t>['masuk', 'mobil', 'pasal_kuhp', 'perampok', 'kejadian', 'perampokan', 'korban', 'jalan', 'warga', 'langsung', 'pelaku', 'polsek', 'agus']</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['menyebut', 'duren', 'terdakwa', 'pasal_kuhp', 'kepala', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'rumah_dinas', 'putri_candrawathi', 'membunuh', 'ricky_rizal', 'richard_eliezer', 'pembunuhan', 'kuhp', 'perintah', 'terkait', 'jakarta', 'luka', 'rumah', 'pembunuhan_berencana', 'polri', 'motif', 'tersangka', 'yosua', 'mengaku', 'hakim', 'polisi', 'ferdy_sambo', 'sambo', 'kuat', 'magelang', 'yosua_hutabarat', 'tewas']</t>
+          <t>['polisi', 'pembunuhan_brigadir', 'sambo', 'luka', 'ferdy_sambo', 'putri_candrawathi', 'tewas', 'richard_eliezer', 'kuat', 'polri', 'pasal_kuhp', 'kuhp', 'rumah_dinas', 'hukum', 'pembunuhan', 'magelang', 'kuat_ruf', 'yosua', 'pidana', 'ricky_rizal', 'terkait', 'tersangka', 'membunuh', 'yosua_hutabarat', 'rumah', 'motif', 'persidangan']</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['menyebut', 'pasal_kuhp', 'pemerkosaan', 'kali', 'motif', 'korban', 'wanita', 'pelaku', 'diduga', 'pasal', 'tindak_pidana', 'tersangka', 'laporan']</t>
+          <t>['pemerkosaan', 'diduga', 'tindak_pidana', 'pasal_kuhp', 'dugaan', 'tersangka', 'korban', 'pasal', 'andika', 'motif', 'pelaku', 'hukum']</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['menyebut', 'pasal_kuhp', 'brigadir_yosua', 'kuat_ruf', 'diduga', 'putri_candrawathi', 'bharada_richard', 'pembunuhan', 'kuhp', 'pasal', 'terkait', 'pembunuhan_berencana', 'eliezer', 'yosua', 'laporan', 'hakim', 'ferdy_sambo', 'kuat', 'yosua_hutabarat']</t>
+          <t>['kuat', 'pembunuhan', 'diduga', 'terkait', 'pasal_kuhp', 'kuat_ruf', 'eliezer', 'yosua_hutabarat', 'yosua', 'pasal', 'perkara', 'hakim']</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['luka', 'mengaku', 'ditemukan', 'warga', 'polres', 'motif', 'jenazah', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'istrinya', 'jalan', 'berinisial', 'kejadian', 'tewas']</t>
+          <t>['berinisial', 'pembunuhan', 'mengaku', 'polisi', 'ditemukan', 'luka', 'kejadian', 'korban', 'perempuan', 'tewas', 'warga', 'jenazah', 'motif', 'jalan', 'pelaku']</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['informasi', 'polri', 'pencurian', 'kepala', 'pelaku', 'tindak_pidana', 'terkait', 'jakarta', 'masuk']</t>
+          <t>['pidana', 'polri', 'terkait', 'tindak_pidana', 'hukum', 'pelaku', 'pencurian', 'masuk']</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>['menyebut', 'mengaku', 'jaksel', 'keterangan', 'informasi', 'rumah', 'kali', 'polres', 'polisi', 'korban', 'pria', 'istri', 'jalan', 'kejadian', 'tewas', 'keluarga']</t>
+          <t>['mengaku', 'polisi', 'keluarga', 'kejadian', 'pria', 'korban', 'tewas', 'rumah', 'jalan']</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['luka', 'menyebut', 'keterangan', 'ditemukan', 'warga', 'kali', 'saksi', 'kepala', 'jenazah', 'korban', 'pembunuhan', 'diduga', 'pria', 'langsung', 'jalan', 'tewas', 'keluarga', 'tim']</t>
+          <t>['pembunuhan', 'saksi', 'diduga', 'ditemukan', 'keluarga', 'luka', 'pria', 'korban', 'jalan', 'tewas', 'warga', 'jenazah', 'langsung', 'tim']</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'saksi', 'pembunuhan_brigadir', 'pelaku', 'sidang', 'putri_candrawathi', 'saudara', 'korban', 'pembunuhan', 'pasal', 'terkait', 'masuk', 'jaksel', 'pembunuhan_berencana', 'uang', 'putri', 'tindak_pidana', 'tersangka', 'keluarganya', 'ferdy_sambo', 'sambo', 'yosua_hutabarat']</t>
+          <t>['pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'pasal', 'kekerasan_seksual', 'pelaku', 'terdakwa', 'saksi', 'tindak_pidana', 'pasal_kuhp', 'korban', 'saudara', 'masuk', 'pembunuhan', 'putri', 'lpsk', 'pidana', 'terkait', 'sidang', 'tersangka', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -8146,7 +8146,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['olah_tkp', 'keterangan', 'informasi', 'rumah', 'perampokan', 'polisi', 'pelaku', 'istrinya', 'rumah_dinas', 'istri', 'jalan', 'kejadian']</t>
+          <t>['santoso', 'polisi', 'wali_blitar', 'perampok', 'wali', 'kejadian', 'perampokan', 'blitar', 'rumah', 'olah_tkp', 'pelaku', 'rumah_dinas']</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['membunuh', 'warga', 'kepala', 'pembunuhan', 'jalan', 'kondisi', 'masuk']</t>
+          <t>['pembunuhan', 'membunuh', 'perempuan', 'warga', 'jalan', 'masuk']</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'pembunuhan', 'tim', 'polri', 'pembunuhan_berencana', 'eliezer', 'keluarga', 'richard', 'mengaku', 'keluarganya', 'ferdy_sambo', 'yosua_hutabarat', 'bharada']</t>
+          <t>['pembunuhan', 'mengaku', 'bharada', 'ricky_rizal', 'pembunuhan_brigadir', 'sidang', 'pasal_kuhp', 'keluarga', 'yosua_hutabarat', 'eliezer', 'ferdy_sambo', 'putri_candrawathi', 'richard', 'kuhp', 'richard_eliezer', 'tim', 'terdakwa']</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>['keterangan', 'rumah', 'pemerkosaan', 'polres', 'korban', 'diduga', 'pelaku', 'wanita', 'ditangkap', 'laporan', 'tim']</t>
+          <t>['pemerkosaan', 'mobil', 'diduga', 'korban', 'perempuan', 'rumah', 'ditangkap', 'pelaku', 'tim']</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['menyebut', 'mengaku', 'informasi', 'pemerkosaan', 'polri', 'polisi', 'korban', 'diduga', 'pelaku', 'kuhp', 'langsung', 'pasal', 'tindak_pidana', 'tersangka', 'jakarta', 'keluarga']</t>
+          <t>['langsung', 'mengaku', 'pemerkosaan', 'polisi', 'saksi', 'diduga', 'polri', 'tindak_pidana', 'tersangka', 'korban', 'perempuan', 'pasal', 'andika', 'tni', 'kuhp', 'pelaku', 'hukum']</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['informasi', 'pemerkosaan', 'warga', 'polres', 'korban', 'wanita', 'pelaku', 'diduga', 'jalan', 'terkait', 'kejadian', 'aksi', 'berinisial']</t>
+          <t>['berinisial', 'pemerkosaan', 'diduga', 'terkait', 'dugaan', 'kejadian', 'korban', 'perempuan', 'warga', 'pelaku']</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>['diduga', 'pelaku', 'milik', 'saudara', 'membunuh', 'keterangan', 'tkp', 'korban', 'pembunuhan', 'mencari', 'masuk', 'tim', 'luka', 'rumah', 'kali', 'motif', 'kejadian', 'kondisi', 'keluarga', 'laporan', 'mengaku', 'warga', 'polres', 'polisi', 'kuat', 'istri', 'aksi']</t>
+          <t>['mengaku', 'polisi', 'diduga', 'dugaan', 'luka', 'tkp', 'pelaku', 'kuat', 'kejadian', 'korban', 'tim', 'saudara', 'masuk', 'pembunuhan', 'keluarga', 'membunuh', 'warga', 'rumah', 'motif']</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -8677,7 +8677,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>['luka', 'rumah', 'polres', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'milik', 'ditangkap']</t>
+          <t>['pembunuhan', 'polisi', 'luka', 'korban', 'perempuan', 'rumah', 'milik', 'ditangkap', 'pelaku']</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['menyebut', 'keterangan', 'pencurian', 'tkp', 'polisi', 'hilang', 'diduga', 'putri', 'langsung', 'milik', 'tindak_pidana', 'juta', 'terkait', 'kejadian', 'masuk', 'laporan', 'tim']</t>
+          <t>['pencurian', 'polisi', 'diduga', 'terkait', 'putri', 'tindak_pidana', 'dugaan', 'kejadian', 'solo', 'milik', 'langsung', 'tkp', 'tim', 'masuk']</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>['saksi', 'jenazah', 'pelaku', 'keterangan', 'ditemukan', 'korban', 'pembunuhan', 'wanita', 'mencari', 'autopsi', 'tangerang', 'tim', 'luka', 'motif', 'hilang', 'kondisi', 'keluarga', 'warga', 'keluarganya', 'polres', 'polisi', 'tewas']</t>
+          <t>['pembunuhan', 'mobil', 'autopsi', 'polisi', 'saksi', 'ditemukan', 'keluarga', 'dugaan', 'luka', 'korban', 'tewas', 'warga', 'jenazah', 'motif', 'pelaku', 'tim']</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['mengaku', 'tangerang', 'saksi', 'korban', 'motor', 'pelaku', 'langsung', 'milik', 'hilang', 'kejadian', 'kondisi', 'polsek', 'masuk']</t>
+          <t>['mengaku', 'saksi', 'kejadian', 'motor', 'korban', 'milik', 'langsung', 'pelaku', 'polsek', 'masuk']</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['menyebut', 'perampokan', 'saksi', 'pelaku', 'milik', 'rumah_dinas', 'jalan', 'keterangan', 'cctv', 'juta', 'tim', 'rumah', 'uang', 'istrinya', 'kejadian', 'kondisi', 'mengaku', 'polisi', 'istri']</t>
+          <t>['santoso', 'mengaku', 'mobil', 'polisi', 'saksi', 'wali_blitar', 'perampok', 'wali', 'kejadian', 'perampokan', 'juta', 'blitar', 'rumah', 'milik', 'jalan', 'pelaku', 'tim', 'rumah_dinas']</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['mengaku', 'mencuri', 'kondisi', 'rumah', 'warga', 'keluarganya', 'polisi', 'motor', 'pelaku', 'cctv', 'ketiga', 'jalan', 'hilang', 'kejadian', 'aksi', 'polsek', 'laporan', 'pencuri']</t>
+          <t>['mengaku', 'polisi', 'cctv', 'kejadian', 'mencuri', 'jalan', 'perempuan', 'warga', 'rumah', 'ketiga', 'motor', 'pelaku']</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['membunuh', 'mengaku', 'rumah', 'ditemukan', 'polisi', 'korban', 'pembunuhan', 'wanita', 'pelaku', 'kuhp', 'ditangkap', 'milik', 'berinisial']</t>
+          <t>['berinisial', 'pembunuhan', 'mengaku', 'polisi', 'ditemukan', 'pasal_kuhp', 'membunuh', 'korban', 'rumah', 'ditangkap', 'pelaku']</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>['terdakwa', 'pemerkosaan', 'brigadir_yosua', 'saksi', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'bharada_richard', 'korban', 'pembunuhan', 'masuk', 'jaksel', 'kali', 'polri', 'putri', 'yosua', 'laporan', 'mengaku', 'mulia', 'hakim', 'polres', 'polisi', 'ferdy_sambo', 'kuat', 'istri', 'magelang']</t>
+          <t>['pembunuhan', 'mengaku', 'pemerkosaan', 'polisi', 'magelang', 'polri', 'putri', 'sidang', 'yosua', 'ferdy_sambo', 'korban', 'putri_candrawathi', 'hakim', 'kekerasan_seksual', 'richard_eliezer', 'saudara']</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>['tersangka', 'aksi', 'pembunuhan_berencana', 'polri', 'pembunuhan', 'pelaku', 'pasal', 'jalan', 'terkait', 'jakarta', 'rekonstruksi']</t>
+          <t>['pembunuhan', 'polri', 'terkait', 'tersangka', 'pasal', 'rekonstruksi', 'jalan', 'pelaku']</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>['pencurian', 'pemerkosaan', 'ditemukan', 'tkp', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'kuhp', 'milik', 'jalan', 'pasal', 'tersangka', 'kejadian']</t>
+          <t>['pembunuhan', 'pemerkosaan', 'tkp', 'ditemukan', 'tersangka', 'kejadian', 'korban', 'jalan', 'perempuan', 'pasal', 'kekerasan_seksual', 'kuhp', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>['luka', 'mengaku', 'ditemukan', 'warga', 'tkp', 'saksi', 'polisi', 'korban', 'pembunuhan', 'pria', 'cctv', 'jakarta']</t>
+          <t>['pembunuhan', 'mengaku', 'polisi', 'saksi', 'cctv', 'ditemukan', 'luka', 'pria', 'korban', 'warga', 'tkp']</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>['duren', 'terdakwa', 'brigadir_yosua', 'saksi', 'sidang', 'langsung', 'rumah_dinas', 'saudara', 'pembunuhan', 'cctv', 'perintah', 'terkait', 'jakarta', 'kali', 'kejadian', 'mengaku', 'mulia', 'hakim', 'chuck', 'ferdy_sambo', 'sambo']</t>
+          <t>['pembunuhan', 'mengaku', 'cctv', 'terkait', 'polri', 'rumah_dinas', 'sambo', 'kejadian', 'ferdy_sambo', 'hakim', 'langsung', 'chuck', 'saudara', 'terdakwa']</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>['luka', 'mengaku', 'jaksel', 'keterangan', 'pasal_kuhp', 'anaknya', 'pencurian', 'polisi', 'korban', 'pelaku', 'pasal', 'kejadian', 'jakarta', 'laporan', 'jaya']</t>
+          <t>['mengaku', 'polisi', 'luka', 'kejadian', 'korban', 'pasal', 'kuhp', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>['informasi', 'perampokan', 'kali', 'rumah', 'saksi', 'polisi', 'korban', 'diduga', 'pelaku', 'istrinya', 'rumah_dinas', 'istri', 'jalan', 'terkait', 'kejadian']</t>
+          <t>['polisi', 'saksi', 'diduga', 'terkait', 'wali_blitar', 'dugaan', 'wali', 'kejadian', 'perampokan', 'korban', 'blitar', 'rumah', 'pelaku', 'rumah_dinas']</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -9650,7 +9650,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>['luka', 'menyebut', 'mengaku', 'keterangan', 'pencurian', 'saksi', 'polisi', 'korban', 'kondisi', 'masuk', 'laporan']</t>
+          <t>['mengaku', 'polisi', 'saksi', 'dugaan', 'luka', 'korban', 'solo', 'pencurian', 'masuk']</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -9727,7 +9727,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'saksi', 'diduga', 'milik', 'jalan', 'ditemukan', 'tkp', 'korban', 'pembunuhan', 'wanita', 'kuhp', 'tangerang', 'rumah', 'pembunuhan_berencana', 'motif', 'tersangka', 'kejadian', 'kondisi', 'keluarga', 'mengaku', 'pencurian', 'warga', 'polres', 'polisi', 'tewas']</t>
+          <t>['mengaku', 'polisi', 'diduga', 'tewas', 'milik', 'tkp', 'mobil', 'pasal_kuhp', 'korban', 'solo', 'kuhp', 'pembunuhan', 'keluarga', 'ditemukan', 'tersangka', 'warga', 'rumah', 'motif', 'jalan', 'pencurian']</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>['pelaku', 'keluarga', 'korban', 'pembunuhan']</t>
+          <t>['korban', 'pembunuhan', 'keluarga', 'pelaku']</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>['luka', 'olah_tkp', 'informasi', 'perampokan', 'polri', 'pencurian', 'rumah', 'kepala', 'polisi', 'diduga', 'pelaku', 'istrinya', 'langsung', 'cctv', 'rumah_dinas', 'istri', 'kondisi', 'masuk']</t>
+          <t>['polisi', 'diduga', 'polri', 'cctv', 'wali_blitar', 'perampok', 'wali', 'luka', 'perampokan', 'blitar', 'rumah', 'langsung', 'olah_tkp', 'pelaku', 'pencurian', 'rumah_dinas', 'masuk']</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>['mengaku', 'mencuri', 'pencurian', 'rumah', 'ditemukan', 'wanita', 'pelaku', 'pria', 'milik', 'cctv', 'hilang', 'aksi']</t>
+          <t>['mengaku', 'cctv', 'ditemukan', 'pria', 'mencuri', 'perempuan', 'rumah', 'milik', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>['terdakwa', 'pasal_kuhp', 'saksi', 'jenazah', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'olah_tkp', 'ricky_rizal', 'richard_eliezer', 'tkp', 'pembunuhan', 'kuhp', 'cctv', 'autopsi', 'perintah', 'terkait', 'jaksel', 'polri', 'pembunuhan_berencana', 'eliezer', 'yosua', 'mengaku', 'mulia', 'hakim', 'polres', 'polisi', 'ferdy_sambo', 'sambo', 'hendra', 'yosua_hutabarat']</t>
+          <t>['mengaku', 'polisi', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'olah_tkp', 'richard_eliezer', 'tkp', 'terdakwa', 'saksi', 'autopsi', 'pasal_kuhp', 'kuhp', 'saudara', 'pembunuhan', 'kuat_ruf', 'hakim', 'ricky_rizal', 'terkait', 'sidang', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'anaknya', 'warga', 'rumah', 'polres', 'perampokan', 'kepala', 'kali', 'korban', 'uang', 'saksi', 'pelaku', 'istrinya', 'ditangkap', 'juta', 'berinisial', 'masuk']</t>
+          <t>['berinisial', 'saksi', 'pasal_kuhp', 'perampok', 'perampokan', 'korban', 'warga', 'rumah', 'ditangkap', 'pelaku', 'masuk']</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>['richard', 'ricky_rizal', 'ricky', 'terdakwa', 'kali', 'bharada_richard', 'pembunuhan_berencana', 'polri', 'pembunuhan', 'kuat_ruf', 'eliezer', 'sambo', 'putri', 'kuat', 'ferdy_sambo', 'putri_candrawathi']</t>
+          <t>['kuat', 'pembunuhan', 'ricky_rizal', 'polri', 'putri', 'kuat_ruf', 'yosua_hutabarat', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard', 'persidangan', 'terdakwa']</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>['luka', 'mengaku', 'rumah', 'ditemukan', 'polisi', 'korban', 'pembunuhan', 'putri', 'pelaku', 'istrinya', 'langsung', 'pria', 'istri', 'jalan', 'tersangka', 'kejadian', 'tewas', 'keluarga']</t>
+          <t>['pembunuhan', 'mengaku', 'autopsi', 'polisi', 'ditemukan', 'putri', 'tersangka', 'keluarga', 'luka', 'kejadian', 'pria', 'korban', 'jalan', 'tewas', 'langsung', 'pelaku']</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -10290,7 +10290,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>['luka', 'kali', 'polri', 'uang', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'ditangkap', 'langsung', 'jalan', 'tersangka', 'berinisial', 'tewas']</t>
+          <t>['berinisial', 'pembunuhan', 'polisi', 'tersangka', 'luka', 'korban', 'jalan', 'tewas', 'ditangkap', 'langsung', 'pelaku']</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -10362,7 +10362,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>['menyebut', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'jaksa', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'kuhp', 'jaksel', 'pembunuhan_berencana', 'eliezer', 'yosua', 'richard', 'ferdy_sambo', 'kuat', 'yosua_hutabarat', 'bharada']</t>
+          <t>['kuat', 'saksi', 'pembunuhan', 'persidangan', 'ricky_rizal', 'sidang', 'pasal_kuhp', 'kuat_ruf', 'eliezer', 'yosua_hutabarat', 'yosua', 'ferdy_sambo', 'putri_candrawathi', 'richard', 'bharada']</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -10422,7 +10422,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>['menyebut', 'mengaku', 'rumah', 'pemerkosaan', 'uang', 'polisi', 'pelaku', 'ditangkap', 'jalan', 'aksi', 'polsek']</t>
+          <t>['mengaku', 'pemerkosaan', 'polisi', 'rumah', 'ditangkap', 'jalan', 'pelaku', 'polsek']</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>['mengaku', 'informasi', 'kali', 'polres', 'polisi', 'korban', 'pelaku', 'kondisi', 'tewas']</t>
+          <t>['mengaku', 'polisi', 'korban', 'tewas', 'pelaku']</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'kepala', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'richard_eliezer', 'pembunuhan', 'kuhp', 'terkait', 'jaksel', 'polri', 'pembunuhan_berencana', 'tersangka', 'yosua', 'mengaku', 'mulia', 'hakim', 'polisi', 'ferdy_sambo', 'sambo']</t>
+          <t>['mengaku', 'polisi', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'terdakwa', 'polri', 'pasal_kuhp', 'perkara', 'kuhp', 'saudara', 'santoso', 'pembunuhan', 'yosua', 'hakim', 'ricky_rizal', 'terkait', 'sidang', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>['mengaku', 'jaksel', 'hakim', 'terdakwa', 'jaksa', 'wanita', 'ferdy_sambo', 'sidang', 'sambo', 'langsung', 'kejadian', 'jakarta', 'masuk', 'tim']</t>
+          <t>['mengaku', 'jaksa', 'sidang', 'sambo', 'kejadian', 'ferdy_sambo', 'hakim', 'langsung', 'tim', 'terdakwa', 'masuk']</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>['mulia', 'hakim', 'terdakwa', 'pencurian', 'uang', 'polisi', 'motor', 'pelaku', 'kuhp', 'langsung', 'milik', 'pria', 'jalan', 'juta', 'kondisi']</t>
+          <t>['polisi', 'pria', 'motor', 'juta', 'jalan', 'perkara', 'hakim', 'langsung', 'pelaku', 'pencurian', 'terdakwa', 'kuhp']</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>['brigadir_yosua', 'saksi', 'diduga', 'putri_candrawathi', 'richard_eliezer', 'keterangan', 'pembunuhan', 'wanita', 'terkait', 'ketiga', 'polri', 'motif', 'eliezer', 'putri', 'istrinya', 'keluarga', 'yosua', 'hakim', 'ferdy_sambo', 'sambo', 'istri']</t>
+          <t>['diduga', 'dugaan', 'sambo', 'ferdy_sambo', 'perempuan', 'putri_candrawathi', 'richard_eliezer', 'saksi', 'ketiga', 'pembunuhan', 'putri', 'yosua', 'keluarga', 'eliezer', 'hakim', 'pidana', 'terkait', 'motif', 'persidangan']</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>['menyebut', 'duren', 'terdakwa', 'kepala', 'jenazah', 'pembunuhan_brigadir', 'sidang', 'putri_candrawathi', 'saudara', 'agus', 'pembunuhan', 'perintah', 'terkait', 'jaksel', 'rumah', 'polri', 'istrinya', 'tersangka', 'yosua', 'mengaku', 'mulia', 'hakim', 'polisi', 'ferdy_sambo', 'sambo', 'yosua_hutabarat']</t>
+          <t>['mengaku', 'polisi', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'jenazah', 'terdakwa', 'polri', 'perkara', 'saudara', 'pembunuhan', 'yosua', 'hakim', 'agus', 'terkait', 'sidang', 'yosua_hutabarat', 'rumah', 'persidangan']</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'brigadir_yosua', 'saksi', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'pembunuhan', 'masuk', 'jaksel', 'rumah', 'kali', 'eliezer', 'putri', 'yosua', 'richard', 'mengaku', 'hakim', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'magelang', 'bharada']</t>
+          <t>['kuat', 'mengaku', 'pembunuhan', 'magelang', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard', 'hakim', 'rumah', 'bharada', 'terdakwa', 'masuk']</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>['duren', 'terdakwa', 'pasal_kuhp', 'saksi', 'kepala', 'jaksa', 'kuat_ruf', 'sidang', 'langsung', 'rumah_dinas', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'korban', 'pembunuhan', 'kuhp', 'perintah', 'terkait', 'jakarta', 'kali', 'pembunuhan_berencana', 'yosua', 'richard', 'mengaku', 'ricky', 'ferdy_sambo', 'sambo', 'kuat', 'magelang', 'yosua_hutabarat', 'tewas']</t>
+          <t>['sambo', 'ferdy_sambo', 'putri_candrawathi', 'tewas', 'richard_eliezer', 'terdakwa', 'jaksa', 'saksi', 'pasal_kuhp', 'korban', 'kuhp', 'rumah_dinas', 'pembunuhan', 'magelang', 'ricky', 'kuat_ruf', 'yosua', 'lpsk', 'richard', 'langsung', 'pidana', 'ricky_rizal', 'terkait', 'sidang', 'yosua_hutabarat', 'persidangan']</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -11094,7 +11094,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>['menyebut', 'saksi', 'kepala', 'pelaku', 'milik', 'korban', 'pembunuhan', 'mencari', 'autopsi', 'terkait', 'informasi', 'polri', 'kejadian', 'keluarga', 'mengaku', 'warga', 'polres', 'polisi', 'tewas']</t>
+          <t>['pembunuhan', 'mengaku', 'autopsi', 'saksi', 'polisi', 'polri', 'terkait', 'keluarga', 'dugaan', 'kejadian', 'korban', 'tewas', 'warga', 'milik', 'pelaku']</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>['luka', 'olah_tkp', 'keterangan', 'ditemukan', 'warga', 'saksi', 'polisi', 'korban', 'pembunuhan', 'wanita', 'diduga', 'pria', 'milik', 'hilang', 'kondisi', 'tewas']</t>
+          <t>['pembunuhan', 'polisi', 'saksi', 'diduga', 'ditemukan', 'luka', 'pria', 'korban', 'tewas', 'warga', 'olah_tkp']</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -11238,7 +11238,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>['menyebut', 'saksi', 'pembunuhan_brigadir', 'jalan', 'putri_candrawathi', 'saudara', 'keterangan', 'bharada_richard', 'pembunuhan', 'wanita', 'jaksel', 'rumah', 'eliezer', 'putri', 'mengaku', 'mulia', 'hakim', 'ferdy_sambo', 'sambo', 'yosua_hutabarat', 'bharada']</t>
+          <t>['pembunuhan', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'putri', 'yosua_hutabarat', 'eliezer', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'hakim', 'rumah', 'jalan', 'bharada', 'saudara']</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -11310,7 +11310,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>['polri', 'kepala', 'pembunuhan_brigadir', 'pembunuhan', 'ferdy_sambo', 'sidang', 'sambo', 'tindak_pidana', 'terkait', 'jakarta']</t>
+          <t>['pembunuhan', 'pembunuhan_brigadir', 'polri', 'terkait', 'sidang', 'tindak_pidana', 'sambo', 'ferdy_sambo', 'persidangan']</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -11362,7 +11362,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>['duren', 'menyebut', 'terdakwa', 'brigadir_yosua', 'saksi', 'pembunuhan_brigadir', 'kuat_ruf', 'putri_candrawathi', 'saudara', 'bharada_richard', 'pembunuhan', 'ketiga', 'masuk', 'jaksel', 'rumah', 'eliezer', 'putri', 'kejadian', 'kondisi', 'yosua', 'mengaku', 'mulia', 'hakim', 'ferdy_sambo', 'kuat', 'magelang', 'yosua_hutabarat', 'bharada']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'ferdy_sambo', 'putri_candrawathi', 'terdakwa', 'kuat', 'mobil', 'saksi', 'kejadian', 'ketiga', 'saudara', 'masuk', 'pembunuhan', 'magelang', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'hakim', 'yosua_hutabarat', 'rumah']</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -11442,7 +11442,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>['terdakwa', 'brigadir_yosua', 'jenazah', 'pembunuhan_brigadir', 'kuat_ruf', 'rumah_dinas', 'keterangan', 'bharada_richard', 'pembunuhan', 'cctv', 'autopsi', 'terkait', 'jakarta', 'masuk', 'luka', 'jaksel', 'rumah', 'polri', 'eliezer', 'kondisi', 'yosua', 'mengaku', 'hakim', 'chuck', 'ferdy_sambo', 'tewas', 'arif']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'cctv', 'luka', 'ferdy_sambo', 'tewas', 'richard_eliezer', 'autopsi', 'polri', 'rumah_dinas', 'masuk', 'arif', 'pembunuhan', 'kuat_ruf', 'yosua', 'hakim', 'chuck', 'terkait', 'rumah']</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -11522,7 +11522,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>['mengaku', 'pasal_kuhp', 'kali', 'pencurian', 'polisi', 'motor', 'diduga', 'pelaku', 'ditangkap', 'milik', 'ketiga', 'masuk']</t>
+          <t>['masuk', 'mengaku', 'polisi', 'diduga', 'ditangkap', 'milik', 'ketiga', 'motor', 'pelaku', 'pencurian', 'kuhp']</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -11590,7 +11590,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>['rumah', 'warga', 'pemerkosaan', 'saksi', 'tkp', 'kepala', 'polisi', 'korban', 'wanita', 'pelaku', 'diduga', 'pria', 'berinisial', 'laporan']</t>
+          <t>['berinisial', 'pemerkosaan', 'polisi', 'saksi', 'tkp', 'diduga', 'pria', 'korban', 'warga', 'rumah', 'pelaku']</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -11643,7 +11643,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>['keterangan', 'perampokan', 'aksi', 'uang', 'korban', 'pelaku', 'langsung', 'milik', 'mencari', 'jalan', 'juta', 'terkait', 'kejadian', 'jakarta', 'laporan', 'jaya']</t>
+          <t>['terkait', 'perampok', 'kejadian', 'perampokan', 'korban', 'jalan', 'langsung', 'pelaku']</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>['menyebut', 'pemerkosaan', 'kali', 'wanita', 'diduga', 'terkait', 'ketiga', 'laporan']</t>
+          <t>['pemerkosaan', 'diduga', 'terkait', 'dugaan', 'ketiga']</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>['mengaku', 'pemerkosaan', 'ketiga', 'tersangka', 'kejadian', 'jakarta', 'laporan']</t>
+          <t>['mengaku', 'pemerkosaan', 'tersangka', 'kejadian', 'ketiga']</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -11852,7 +11852,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>['mengaku', 'hakim', 'kali', 'pembunuhan_brigadir', 'pembunuhan', 'putri', 'putri_candrawathi', 'yosua']</t>
+          <t>['pembunuhan', 'mengaku', 'pembunuhan_brigadir', 'putri', 'yosua', 'putri_candrawathi', 'hakim']</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -11890,7 +11890,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'jaksa', 'pembunuhan_brigadir', 'diduga', 'kuat_ruf', 'milik', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'kuhp', 'mencari', 'perintah', 'jakarta', 'pembunuhan_berencana', 'eliezer', 'tindak_pidana', 'kejadian', 'kondisi', 'yosua', 'mengaku', 'ricky', 'hakim', 'ferdy_sambo', 'sambo', 'kuat', 'magelang', 'bharada']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'diduga', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'milik', 'kuat', 'tindak_pidana', 'pasal_kuhp', 'kejadian', 'kuhp', 'pembunuhan', 'magelang', 'ricky', 'kuat_ruf', 'yosua', 'eliezer', 'hakim', 'ricky_rizal']</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -11959,7 +11959,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>['saksi', 'jenazah', 'diduga', 'pelaku', 'langsung', 'milik', 'olah_tkp', 'ditemukan', 'tkp', 'korban', 'pembunuhan', 'wanita', 'autopsi', 'terkait', 'masuk', 'tim', 'jaya', 'informasi', 'rumah', 'kali', 'hilang', 'tersangka', 'kondisi', 'kejadian', 'berinisial', 'laporan', 'warga', 'polisi', 'ditangkap', 'aksi', 'polsek']</t>
+          <t>['polisi', 'diduga', 'perempuan', 'jenazah', 'milik', 'olah_tkp', 'tkp', 'pelaku', 'berinisial', 'mobil', 'autopsi', 'saksi', 'kejadian', 'korban', 'polsek', 'tim', 'masuk', 'pembunuhan', 'langsung', 'ditemukan', 'terkait', 'tersangka', 'warga', 'ditangkap']</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -12130,7 +12130,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>['membunuh', 'hakim', 'terdakwa', 'ditemukan', 'warga', 'polres', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'sidang', 'milik', 'kejadian', 'aksi', 'tewas']</t>
+          <t>['pembunuhan', 'polisi', 'ditemukan', 'sidang', 'membunuh', 'kejadian', 'korban', 'tewas', 'warga', 'hakim', 'pelaku', 'terdakwa']</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -12202,7 +12202,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>['pencurian', 'rumah', 'warga', 'polres', 'polisi', 'pelaku', 'ditangkap', 'mencari', 'pasal', 'tersangka', 'ketiga', 'pencuri']</t>
+          <t>['pidana', 'polisi', 'ditangkap', 'tersangka', 'pasal', 'warga', 'rumah', 'ketiga', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'ditemukan', 'bharada_richard', 'pembunuhan', 'kuhp', 'jakarta', 'pembunuhan_berencana', 'eliezer', 'yosua', 'ferdy_sambo', 'sambo']</t>
+          <t>['pembunuhan', 'saksi', 'pembunuhan_brigadir', 'ditemukan', 'sidang', 'pasal_kuhp', 'kuat_ruf', 'eliezer', 'yosua_hutabarat', 'sambo', 'ferdy_sambo', 'yosua', 'putri_candrawathi', 'perkara', 'lpsk', 'kuhp', 'persidangan', 'terdakwa']</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'saksi', 'kepala', 'diduga', 'pelaku', 'pria', 'membunuh', 'agus', 'ditemukan', 'tkp', 'korban', 'pembunuhan', 'terkait', 'ketiga', 'informasi', 'pembunuhan_berencana', 'motif', 'berinisial', 'keluarga', 'warga', 'polisi', 'ditangkap', 'tewas']</t>
+          <t>['polisi', 'diduga', 'tewas', 'tkp', 'pelaku', 'berinisial', 'saksi', 'pasal_kuhp', 'korban', 'ketiga', 'kuhp', 'pembunuhan', 'keluarga', 'pria', 'agus', 'ditemukan', 'terkait', 'membunuh', 'warga', 'motif', 'ditangkap']</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>['membunuh', 'keterangan', 'uang', 'korban', 'pelaku', 'istrinya', 'milik', 'istri', 'juta', 'tersangka', 'berinisial', 'tewas']</t>
+          <t>['berinisial', 'tersangka', 'membunuh', 'juta', 'korban', 'tewas', 'milik', 'pelaku']</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'bharada_richard', 'korban', 'pembunuhan', 'kuhp', 'jakarta', 'masuk', 'pembunuhan_berencana', 'eliezer', 'putri', 'yosua', 'mulia', 'hakim', 'ferdy_sambo', 'sambo', 'istri', 'yosua_hutabarat', 'bharada']</t>
+          <t>['pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'terdakwa', 'saksi', 'pasal_kuhp', 'korban', 'perkara', 'saudara', 'masuk', 'pembunuhan', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'hakim', 'ricky_rizal', 'sidang', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'pelaku', 'langsung', 'milik', 'jalan', 'membunuh', 'ditemukan', 'korban', 'motor', 'pembunuhan', 'ketiga', 'luka', 'rumah', 'uang', 'tersangka', 'hilang', 'kejadian', 'kondisi', 'pencurian', 'polres', 'aksi', 'tewas']</t>
+          <t>['langsung', 'pembunuhan', 'ditemukan', 'pasal_kuhp', 'tersangka', 'membunuh', 'luka', 'kejadian', 'korban', 'jalan', 'tewas', 'rumah', 'ketiga', 'motor', 'pelaku', 'pencurian', 'kuhp']</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>['luka', 'menyebut', 'perampokan', 'pencurian', 'rumah', 'kepala', 'uang', 'pelaku', 'langsung', 'milik', 'rumah_dinas', 'istri', 'juta', 'kondisi', 'tim']</t>
+          <t>['santoso', 'pencurian', 'wali_blitar', 'perampok', 'wali', 'luka', 'perampokan', 'juta', 'blitar', 'milik', 'rumah', 'langsung', 'pelaku', 'tim', 'rumah_dinas']</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>['brigadir_yosua', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'terkait', 'jaksel', 'putri', 'keluarga', 'yosua', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'yosua_hutabarat']</t>
+          <t>['kuat', 'jaksa', 'pembunuhan', 'pembunuhan_brigadir', 'ricky_rizal', 'terkait', 'putri', 'kuat_ruf', 'keluarga', 'yosua_hutabarat', 'sambo', 'yosua', 'ferdy_sambo', 'putri_candrawathi', 'persidangan', 'saudara']</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -12754,7 +12754,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>['mengaku', 'mencuri', 'pencurian', 'keluarganya', 'tkp', 'uang', 'keluarga', 'korban', 'motor', 'polisi', 'pelaku', 'ditangkap', 'berinisial', 'jakarta', 'polsek']</t>
+          <t>['berinisial', 'mengaku', 'polisi', 'tkp', 'keluarga', 'korban', 'mencuri', 'motor', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -12817,7 +12817,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>['terdakwa', 'brigadir_yosua', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'agus', 'bharada_richard', 'hendra_kurniawan', 'pembunuhan', 'kuhp', 'terkait', 'jakarta', 'informasi', 'pembunuhan_berencana', 'putri', 'tersangka', 'richard', 'ricky', 'ferdy_sambo', 'kuat']</t>
+          <t>['pembunuhan', 'kuat', 'pembunuhan_brigadir', 'ricky_rizal', 'terkait', 'sidang', 'tersangka', 'kuat_ruf', 'dugaan', 'ricky', 'putri', 'ferdy_sambo', 'putri_candrawathi', 'perkara', 'richard', 'kuhp', 'richard_eliezer', 'terdakwa']</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -12872,7 +12872,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>['keterangan', 'pasal_kuhp', 'rumah', 'warga', 'pencurian', 'polres', 'korban', 'pelaku', 'pria', 'ditangkap', 'milik', 'mencari', 'terkait', 'keluarga']</t>
+          <t>['terkait', 'pasal_kuhp', 'keluarga', 'pria', 'korban', 'warga', 'rumah', 'milik', 'ditangkap', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -12930,7 +12930,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>['terkait', 'menyebut', 'pemerkosaan', 'wanita']</t>
+          <t>['terkait', 'pemerkosaan', 'andika', 'tni']</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -12969,7 +12969,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>['luka', 'terdakwa', 'informasi', 'rumah', 'warga', 'pembunuhan_berencana', 'polres', 'kepala', 'polisi', 'korban', 'pembunuhan', 'hendra', 'tindak_pidana', 'jalan', 'tewas', 'keluarga', 'masuk', 'tim']</t>
+          <t>['pembunuhan', 'polisi', 'hendra', 'tindak_pidana', 'keluarga', 'luka', 'korban', 'tewas', 'warga', 'rumah', 'jalan', 'tim', 'terdakwa', 'masuk']</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -13109,7 +13109,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'pemerkosaan', 'polri', 'kepala', 'polisi', 'pelaku', 'istrinya', 'langsung', 'kuhp', 'pasal', 'tindak_pidana', 'terkait', 'jakarta', 'keluarga']</t>
+          <t>['pidana', 'pemerkosaan', 'polisi', 'polri', 'terkait', 'tindak_pidana', 'pasal_kuhp', 'perempuan', 'pasal', 'andika', 'tni', 'langsung', 'pelaku', 'kuhp']</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -13171,7 +13171,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'brigadir_yosua', 'sidang', 'langsung', 'jalan', 'putri_candrawathi', 'anaknya', 'bharada_richard', 'pembunuhan', 'wanita', 'mencari', 'jakarta', 'rumah', 'pembunuhan_berencana', 'eliezer', 'putri', 'kondisi', 'keluarga', 'yosua', 'mengaku', 'ferdy_sambo', 'sambo']</t>
+          <t>['pembunuhan', 'mengaku', 'mobil', 'putri', 'sidang', 'keluarga', 'eliezer', 'sambo', 'yosua', 'ferdy_sambo', 'jalan', 'putri_candrawathi', 'perempuan', 'rumah', 'langsung', 'persidangan', 'terdakwa']</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -13247,7 +13247,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>['tersangka', 'keterangan', 'rumah', 'warga', 'pembunuhan_berencana', 'rekonstruksi', 'korban', 'jaksa', 'pembunuhan', 'pelaku', 'mencari', 'magelang', 'jalan', 'terkait', 'kejadian', 'aksi', 'saudara', 'keluarga']</t>
+          <t>['pembunuhan', 'jaksa', 'magelang', 'terkait', 'tersangka', 'keluarga', 'kejadian', 'korban', 'warga', 'rekonstruksi', 'rumah', 'jalan', 'pelaku', 'saudara']</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -13326,7 +13326,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>['menyebut', 'pencurian', 'polisi', 'pelaku', 'cctv', 'jalan', 'terkait', 'aksi', 'jaya']</t>
+          <t>['mobil', 'polisi', 'cctv', 'terkait', 'jalan', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>['informasi', 'pencurian', 'warga', 'pelaku', 'hendra', 'pasal', 'jalan', 'terkait', 'laporan', 'pencuri']</t>
+          <t>['hendra', 'terkait', 'wali', 'warga', 'jalan', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>['saksi', 'pelaku', 'pria', 'langsung', 'milik', 'jalan', 'korban', 'motor', 'wanita', 'mencari', 'masuk', 'informasi', 'kejadian', 'mengaku', 'hakim', 'pencurian', 'warga', 'polisi', 'polsek']</t>
+          <t>['pencurian', 'mengaku', 'polisi', 'saksi', 'kejadian', 'motor', 'korban', 'jalan', 'pria', 'warga', 'hakim', 'milik', 'langsung', 'pelaku', 'polsek', 'masuk']</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -13514,7 +13514,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>['keterangan', 'pencurian', 'tim', 'korban', 'pelaku', 'pria', 'milik', 'cctv', 'aksi', 'polsek', 'laporan', 'pencuri']</t>
+          <t>['polsek', 'cctv', 'pria', 'korban', 'tim', 'milik', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -13588,7 +13588,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>['terdakwa', 'sidang', 'putri_candrawathi', 'membunuh', 'richard_eliezer', 'keterangan', 'hendra_kurniawan', 'cctv', 'jakarta', 'tim', 'kali', 'polri', 'putri', 'keluarga', 'mulia', 'ferdy_sambo', 'hendra', 'sambo', 'yosua_hutabarat', 'arif', 'bharada']</t>
+          <t>['pidana', 'hendra', 'bharada', 'cctv', 'polri', 'putri', 'sidang', 'keluarga', 'membunuh', 'yosua_hutabarat', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'perkara', 'richard_eliezer', 'tim', 'terdakwa', 'arif']</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -13674,7 +13674,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>['duren', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'kepala', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'langsung', 'jalan', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'tkp', 'pembunuhan', 'kuhp', 'masuk', 'jaksel', 'rumah', 'pembunuhan_berencana', 'eliezer', 'istrinya', 'yosua', 'richard', 'mengaku', 'hakim', 'ferdy_sambo', 'sambo', 'istri', 'yosua_hutabarat']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard_eliezer', 'tkp', 'pasal_kuhp', 'masuk', 'pembunuhan', 'kuat_ruf', 'yosua', 'eliezer', 'richard', 'hakim', 'langsung', 'sidang', 'yosua_hutabarat', 'rumah', 'jalan']</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -13747,7 +13747,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>['polres', 'aksi', 'masuk', 'jalan']</t>
+          <t>['jalan', 'masuk']</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -13810,7 +13810,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>['keterangan', 'informasi', 'pencurian', 'motif', 'uang', 'polisi', 'korban', 'jaksa', 'pelaku', 'tersangka', 'berinisial', 'jakarta', 'pencuri']</t>
+          <t>['berinisial', 'polisi', 'jaksa', 'tersangka', 'wali', 'korban', 'motif', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>['mengaku', 'mencuri', 'pencurian', 'rumah', 'warga', 'kali', 'polisi', 'korban', 'wanita', 'pelaku', 'istrinya', 'pria', 'istri', 'berinisial']</t>
+          <t>['berinisial', 'mengaku', 'polisi', 'pria', 'korban', 'mencuri', 'warga', 'rumah', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -13920,7 +13920,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>['membunuh', 'pembunuhan', 'langsung', 'terkait', 'saudara', 'keluarga']</t>
+          <t>['pembunuhan', 'terkait', 'membunuh', 'keluarga', 'langsung', 'saudara', 'hukum']</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'brigadir_yosua', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'kuhp', 'jakarta', 'masuk', 'jaksel', 'rumah', 'pembunuhan_berencana', 'eliezer', 'putri', 'istrinya', 'kejadian', 'kondisi', 'yosua', 'mengaku', 'mulia', 'hakim', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'magelang', 'yosua_hutabarat']</t>
+          <t>['mengaku', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'kuat', 'pasal_kuhp', 'kejadian', 'masuk', 'pembunuhan', 'magelang', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'hakim', 'ricky_rizal', 'sidang', 'yosua_hutabarat', 'rumah']</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -14082,7 +14082,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>['menyebut', 'pasal_kuhp', 'brigadir_yosua', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'pembunuhan', 'kuhp', 'terkait', 'tim', 'jaksel', 'polri', 'pembunuhan_berencana', 'tersangka', 'yosua', 'mengaku', 'ricky', 'ferdy_sambo', 'sambo', 'kuat', 'istri', 'yosua_hutabarat']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard_eliezer', 'kuat', 'polri', 'pasal_kuhp', 'kuhp', 'tim', 'pembunuhan', 'ricky', 'kuat_ruf', 'yosua', 'ricky_rizal', 'terkait', 'yosua_hutabarat', 'persidangan']</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -14153,7 +14153,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>['mengaku', 'pemerkosaan', 'warga', 'kali', 'uang', 'korban', 'pelaku', 'istrinya', 'pria', 'istri', 'tersangka', 'aksi']</t>
+          <t>['mengaku', 'pemerkosaan', 'tersangka', 'pria', 'korban', 'warga', 'pelaku']</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -14208,7 +14208,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>['jenazah', 'diduga', 'pelaku', 'ditemukan', 'korban', 'pembunuhan', 'autopsi', 'terkait', 'masuk', 'luka', 'rumah', 'kali', 'hilang', 'kejadian', 'warga', 'polres', 'polisi', 'kuat', 'tewas']</t>
+          <t>['kuat', 'polisi', 'autopsi', 'pembunuhan', 'diduga', 'ditemukan', 'terkait', 'dugaan', 'luka', 'kejadian', 'korban', 'perempuan', 'tewas', 'warga', 'jenazah', 'rumah', 'pelaku', 'masuk']</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -14278,7 +14278,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>['olah_tkp', 'pencurian', 'anaknya', 'pelaku', 'cctv', 'hilang', 'kejadian', 'aksi']</t>
+          <t>['cctv', 'kejadian', 'olah_tkp', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -14337,7 +14337,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>['informasi', 'ditemukan', 'motif', 'jenazah', 'polisi', 'korban', 'pembunuhan', 'istrinya', 'milik', 'istri', 'terkait', 'jakarta', 'keluarga', 'jaya']</t>
+          <t>['pembunuhan', 'ditemukan', 'terkait', 'keluarga', 'korban', 'jenazah', 'milik', 'motif']</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>['kali', 'pemerkosaan', 'wanita', 'pasal', 'tersangka', 'keluarga']</t>
+          <t>['pidana', 'pemerkosaan', 'tersangka', 'pasal', 'andika', 'tni']</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -14494,7 +14494,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'brigadir_yosua', 'sidang', 'langsung', 'jalan', 'putri_candrawathi', 'richard_eliezer', 'keterangan', 'anaknya', 'bharada_richard', 'pembunuhan', 'wanita', 'mencari', 'jakarta', 'masuk', 'jaksel', 'rumah', 'pembunuhan_berencana', 'motif', 'eliezer', 'putri', 'istrinya', 'kondisi', 'yosua', 'richard', 'mengaku', 'hakim', 'ferdy_sambo', 'sambo', 'istri', 'bharada']</t>
+          <t>['mengaku', 'sambo', 'ferdy_sambo', 'perempuan', 'putri_candrawathi', 'richard_eliezer', 'terdakwa', 'persidangan', 'mobil', 'masuk', 'pembunuhan', 'putri', 'yosua', 'eliezer', 'richard', 'langsung', 'sidang', 'yosua_hutabarat', 'rumah', 'motif', 'jalan', 'bharada']</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>['informasi', 'rumah', 'warga', 'kali', 'polres', 'korban', 'motor', 'wanita', 'pelaku', 'langsung', 'milik', 'mencari', 'tersangka', 'kejadian', 'masuk', 'laporan', 'tim']</t>
+          <t>['tersangka', 'kejadian', 'motor', 'korban', 'warga', 'rumah', 'langsung', 'pelaku', 'tim', 'masuk']</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>['menyebut', 'mengaku', 'rumah', 'warga', 'kali', 'polisi', 'korban', 'diduga', 'pelaku', 'ditangkap', 'terkait', 'kondisi', 'laporan', 'tim']</t>
+          <t>['mengaku', 'polisi', 'diduga', 'terkait', 'dugaan', 'korban', 'perempuan', 'pasal', 'warga', 'rumah', 'pelaku', 'tim']</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -14725,7 +14725,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>['menyebut', 'anaknya', 'kali', 'polres', 'polisi', 'korban', 'pembunuhan', 'istrinya', 'pria', 'istri', 'tersangka', 'berinisial', 'kondisi', 'tewas']</t>
+          <t>['berinisial', 'pembunuhan', 'polisi', 'tersangka', 'pria', 'korban', 'tewas']</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -14782,7 +14782,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>['pelaku', 'langsung', 'olah_tkp', 'korban', 'pembunuhan', 'autopsi', 'terkait', 'jakarta', 'jaksel', 'informasi', 'tindak_pidana', 'tersangka', 'kejadian', 'berinisial', 'keluarga', 'polres', 'polisi', 'tewas', 'polsek']</t>
+          <t>['berinisial', 'pembunuhan', 'polisi', 'autopsi', 'terkait', 'tindak_pidana', 'keluarga', 'tersangka', 'kejadian', 'korban', 'tewas', 'langsung', 'olah_tkp', 'pelaku', 'polsek', 'hukum']</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -14847,7 +14847,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>['olah_tkp', 'pencurian', 'tkp', 'saksi', 'polisi', 'korban', 'putri', 'juta', 'hilang', 'pencuri']</t>
+          <t>['polisi', 'saksi', 'putri', 'dugaan', 'juta', 'korban', 'solo', 'olah_tkp', 'tkp', 'pencurian']</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>['duren', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'pelaku', 'sidang', 'kuat_ruf', 'rumah_dinas', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'tkp', 'korban', 'pembunuhan', 'kuhp', 'pasal', 'perintah', 'terkait', 'jakarta', 'masuk', 'tim', 'kali', 'pembunuhan_berencana', 'motif', 'eliezer', 'tindak_pidana', 'tersangka', 'laporan', 'ricky', 'ferdy_sambo', 'sambo', 'kuat', 'arif', 'bharada']</t>
+          <t>['pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'pasal', 'tkp', 'pelaku', 'terdakwa', 'kuat', 'jaksa', 'saksi', 'tindak_pidana', 'pasal_kuhp', 'korban', 'perkara', 'kuhp', 'tim', 'rumah_dinas', 'masuk', 'arif', 'pembunuhan', 'ricky', 'kuat_ruf', 'yosua', 'eliezer', 'pidana', 'ricky_rizal', 'terkait', 'sidang', 'tersangka', 'motif', 'persidangan']</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>['menyebut', 'polri', 'polisi', 'diduga', 'terkait', 'jakarta']</t>
+          <t>['polisi', 'diduga', 'polri', 'terkait', 'hukum']</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -15091,7 +15091,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>['mengaku', 'ricky', 'hakim', 'terdakwa', 'rumah', 'pembunuhan_brigadir', 'pembunuhan', 'putri', 'sambo', 'ferdy_sambo', 'istri', 'magelang', 'putri_candrawathi', 'yosua_hutabarat', 'saudara', 'keluarga', 'yosua', 'masuk']</t>
+          <t>['pembunuhan', 'mengaku', 'magelang', 'polri', 'ricky', 'putri', 'keluarga', 'yosua', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'hakim', 'rumah', 'persidangan', 'saudara', 'masuk']</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>['olah_tkp', 'pencurian', 'tkp', 'polres', 'kepala', 'uang', 'polisi', 'pelaku', 'kuhp', 'ditangkap', 'jalan', 'juta', 'terkait', 'kejadian', 'polsek', 'masuk', 'laporan']</t>
+          <t>['pencurian', 'polisi', 'terkait', 'kejadian', 'jalan', 'perempuan', 'ditangkap', 'kuhp', 'olah_tkp', 'pelaku', 'polsek', 'masuk']</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>['luka', 'menyebut', 'pencurian', 'polisi', 'korban', 'diduga', 'putri', 'langsung', 'hilang', 'berinisial', 'masuk', 'laporan', 'pencuri']</t>
+          <t>['berinisial', 'polisi', 'diduga', 'putri', 'dugaan', 'luka', 'korban', 'solo', 'langsung', 'pencurian', 'masuk']</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -15301,7 +15301,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>['membunuh', 'hakim', 'terdakwa', 'anaknya', 'pembunuhan_berencana', 'warga', 'ditemukan', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'sidang', 'ditangkap', 'jalan', 'kondisi', 'tewas', 'keluarga']</t>
+          <t>['pembunuhan', 'mobil', 'polisi', 'ditemukan', 'sidang', 'membunuh', 'keluarga', 'korban', 'perempuan', 'tewas', 'warga', 'hakim', 'ditangkap', 'jalan', 'pelaku', 'terdakwa']</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -15374,7 +15374,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>['pemerkosaan', 'polres', 'kepala', 'polisi', 'korban', 'wanita', 'diduga', 'istrinya', 'ditangkap', 'istri', 'tindak_pidana', 'ketiga', 'laporan']</t>
+          <t>['pemerkosaan', 'polisi', 'diduga', 'tindak_pidana', 'dugaan', 'korban', 'perempuan', 'perkara', 'kekerasan_seksual', 'ketiga', 'ditangkap']</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -15440,7 +15440,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'kepala', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'richard_eliezer', 'pembunuhan', 'kuhp', 'terkait', 'jakarta', 'jaksel', 'polri', 'pembunuhan_berencana', 'tersangka', 'yosua', 'mengaku', 'mulia', 'hakim', 'polisi', 'ferdy_sambo', 'sambo']</t>
+          <t>['pembunuhan', 'mengaku', 'polisi', 'ricky_rizal', 'polri', 'terkait', 'sidang', 'pasal_kuhp', 'yosua_hutabarat', 'yosua', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'perkara', 'hakim', 'kuhp', 'saudara', 'terdakwa']</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>['menyebut', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'saudara', 'membunuh', 'ricky_rizal', 'keterangan', 'bharada_richard', 'pembunuhan', 'kuhp', 'terkait', 'jaksel', 'pembunuhan_berencana', 'eliezer', 'yosua', 'richard', 'mengaku', 'ricky', 'ferdy_sambo', 'sambo', 'kuat', 'yosua_hutabarat', 'bharada']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'kuat', 'saksi', 'bharada', 'pasal_kuhp', 'saudara', 'pembunuhan', 'ricky', 'kuat_ruf', 'yosua', 'eliezer', 'richard', 'ricky_rizal', 'terkait', 'sidang', 'membunuh', 'yosua_hutabarat', 'persidangan']</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -15585,7 +15585,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>['mengaku', 'mencuri', 'keterangan', 'pencurian', 'warga', 'tkp', 'polres', 'motif', 'polisi', 'korban', 'wanita', 'pelaku', 'cctv', 'putri', 'ketiga']</t>
+          <t>['mengaku', 'polisi', 'tkp', 'cctv', 'putri', 'korban', 'mencuri', 'warga', 'motif', 'ketiga', 'pelaku', 'pencurian']</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -15652,7 +15652,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>['rumah', 'warga', 'ditemukan', 'korban', 'pembunuhan', 'wanita', 'pelaku', 'kuhp', 'ditangkap', 'langsung', 'milik', 'berinisial']</t>
+          <t>['berinisial', 'pembunuhan', 'ditemukan', 'pasal_kuhp', 'korban', 'warga', 'rumah', 'langsung', 'pelaku']</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -15709,7 +15709,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>['mengaku', 'keterangan', 'perampokan', 'warga', 'polres', 'uang', 'polisi', 'korban', 'pelaku', 'pria', 'milik', 'jalan', 'juta', 'masuk']</t>
+          <t>['masuk', 'mengaku', 'polisi', 'perampok', 'pria', 'perampokan', 'korban', 'juta', 'warga', 'milik', 'jalan', 'pelaku', 'hukum']</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -15774,7 +15774,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>['luka', 'informasi', 'rumah', 'warga', 'polres', 'saksi', 'jenazah', 'polisi', 'korban', 'pembunuhan', 'tersangka', 'berinisial', 'keluarga']</t>
+          <t>['berinisial', 'pembunuhan', 'polisi', 'saksi', 'tersangka', 'keluarga', 'luka', 'korban', 'perempuan', 'warga', 'jenazah', 'rumah']</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>['luka', 'pemerkosaan', 'polisi', 'korban', 'pelaku', 'istrinya', 'pria', 'istri', 'jalan', 'terkait', 'aksi', 'masuk']</t>
+          <t>['pemerkosaan', 'polisi', 'terkait', 'luka', 'pria', 'korban', 'pelaku', 'polsek', 'masuk']</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -15902,7 +15902,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>['aksi', 'rumah', 'kali', 'polres', 'korban', 'pelaku', 'langsung', 'pasal', 'jalan', 'tersangka', 'kejadian', 'kondisi']</t>
+          <t>['tersangka', 'kejadian', 'korban', 'jalan', 'pasal', 'rumah', 'langsung', 'pelaku']</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>['perampokan', 'saksi', 'diduga', 'pelaku', 'langsung', 'milik', 'ditemukan', 'korban', 'pembunuhan', 'mencari', 'tim', 'rumah', 'berinisial', 'kondisi', 'pencurian', 'polres', 'polisi', 'tewas', 'polsek']</t>
+          <t>['berinisial', 'pencurian', 'polisi', 'saksi', 'pembunuhan', 'diduga', 'ditemukan', 'polsek', 'perampokan', 'korban', 'tewas', 'rumah', 'langsung', 'pelaku', 'tim']</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -16046,7 +16046,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>['saksi', 'pelaku', 'pria', 'langsung', 'milik', 'jalan', 'keterangan', 'agus', 'tkp', 'korban', 'kuhp', 'cctv', 'juta', 'ketiga', 'tim', 'pencuri', 'informasi', 'uang', 'tindak_pidana', 'hilang', 'kejadian', 'laporan', 'mengaku', 'mencuri', 'pencurian', 'ditangkap', 'polsek']</t>
+          <t>['mengaku', 'mencuri', 'perempuan', 'pasal', 'milik', 'tkp', 'pelaku', 'saksi', 'tindak_pidana', 'kejadian', 'korban', 'ketiga', 'kuhp', 'polsek', 'tim', 'pria', 'langsung', 'agus', 'jalan', 'ditangkap', 'pencurian']</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -16137,7 +16137,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'brigadir_yosua', 'saksi', 'jaksa', 'sidang', 'langsung', 'saudara', 'hendra_kurniawan', 'pembunuhan', 'terkait', 'tim', 'jaksel', 'polri', 'irfan', 'laporan', 'mulia', 'hakim', 'hendra']</t>
+          <t>['pembunuhan', 'jaksa', 'saksi', 'persidangan', 'hendra', 'pembunuhan_brigadir', 'polri', 'terkait', 'yosua_hutabarat', 'hakim', 'irfan', 'langsung', 'saudara', 'tim', 'terdakwa', 'hukum']</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>['duren', 'pasal_kuhp', 'kepala', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'rumah_dinas', 'putri_candrawathi', 'ricky_rizal', 'richard_eliezer', 'pembunuhan', 'kuhp', 'perintah', 'pasal', 'terkait', 'jakarta', 'informasi', 'pembunuhan_berencana', 'keluarga', 'mengaku', 'mulia', 'keluarganya', 'polisi', 'ferdy_sambo', 'sambo', 'magelang', 'tewas']</t>
+          <t>['mengaku', 'polisi', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'pasal', 'tewas', 'richard_eliezer', 'jaksa', 'pasal_kuhp', 'rumah_dinas', 'pembunuhan', 'magelang', 'kuat_ruf', 'keluarga', 'eliezer', 'pidana', 'ricky_rizal', 'terkait', 'sidang']</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'putri_candrawathi', 'ricky_rizal', 'bharada_richard', 'pembunuhan', 'jaksel', 'kali', 'eliezer', 'putri', 'istrinya', 'richard', 'ricky', 'ferdy_sambo', 'sambo', 'kuat', 'yosua_hutabarat', 'bharada']</t>
+          <t>['kuat', 'jaksa', 'pembunuhan', 'pembunuhan_brigadir', 'ricky_rizal', 'putri', 'kuat_ruf', 'sidang', 'eliezer', 'yosua_hutabarat', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard', 'bharada', 'terdakwa']</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -16372,7 +16372,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>['agus', 'perampokan', 'pencurian', 'warga', 'polres', 'polisi', 'pelaku', 'kuhp', 'ditangkap', 'milik', 'pasal', 'jalan', 'tersangka', 'tim']</t>
+          <t>['pencurian', 'polisi', 'tersangka', 'perampokan', 'jalan', 'pasal', 'warga', 'milik', 'ditangkap', 'kuhp', 'pelaku', 'tim', 'agus']</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -16427,7 +16427,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>['luka', 'kondisi', 'ditemukan', 'warga', 'kali', 'polri', 'tkp', 'kepala', 'polisi', 'korban', 'pembunuhan', 'diduga', 'pria', 'langsung', 'jalan', 'jakarta', 'polsek']</t>
+          <t>['pembunuhan', 'polisi', 'diduga', 'ditemukan', 'polri', 'luka', 'pria', 'korban', 'jalan', 'perkara', 'warga', 'langsung', 'tkp', 'polsek']</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -16490,7 +16490,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>['menyebut', 'pasal_kuhp', 'perampokan', 'kepala', 'pelaku', 'langsung', 'rumah_dinas', 'keterangan', 'korban', 'perintah', 'pasal', 'terkait', 'juta', 'masuk', 'luka', 'rumah', 'kali', 'uang', 'istrinya', 'kejadian', 'mengaku', 'warga', 'polisi', 'istri']</t>
+          <t>['mengaku', 'polisi', 'luka', 'pasal', 'tni', 'pelaku', 'wali_blitar', 'pasal_kuhp', 'kejadian', 'perampokan', 'korban', 'blitar', 'rumah_dinas', 'masuk', 'santoso', 'perampok', 'langsung', 'terkait', 'wali', 'warga', 'rumah']</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>['terdakwa', 'brigadir_yosua', 'saksi', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'langsung', 'saudara', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'agus', 'pembunuhan', 'perintah', 'terkait', 'jakarta', 'ketiga', 'masuk', 'kali', 'yosua', 'richard', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'kuat', 'yosua_hutabarat']</t>
+          <t>['pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'richard_eliezer', 'terdakwa', 'kuat', 'saksi', 'ketiga', 'saudara', 'pembunuhan', 'ricky', 'kuat_ruf', 'yosua', 'richard', 'hakim', 'langsung', 'agus', 'ricky_rizal', 'terkait', 'sidang', 'yosua_hutabarat', 'persidangan']</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>['menyebut', 'agus', 'perampokan', 'polres', 'uang', 'polisi', 'motor', 'pelaku', 'milik', 'jalan', 'juta', 'tersangka']</t>
+          <t>['polisi', 'tersangka', 'perampokan', 'juta', 'jalan', 'milik', 'motor', 'pelaku', 'agus']</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -16764,7 +16764,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>['menyebut', 'tersangka', 'pencurian', 'diduga', 'irfan', 'hilang', 'kejadian', 'terkait']</t>
+          <t>['diduga', 'terkait', 'tersangka', 'kejadian', 'irfan', 'pencurian']</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -16829,7 +16829,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>['mengaku', 'anaknya', 'warga', 'pemerkosaan', 'polres', 'kali', 'polisi', 'pria', 'ditangkap', 'jalan', 'aksi', 'keluarga', 'laporan']</t>
+          <t>['mengaku', 'pemerkosaan', 'polisi', 'keluarga', 'pria', 'warga', 'jalan', 'ditangkap']</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -16902,7 +16902,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>['pencurian', 'tkp', 'polres', 'tim', 'uang', 'polisi', 'motor', 'pelaku', 'ditangkap', 'juta', 'ketiga', 'pencuri']</t>
+          <t>['pencurian', 'polisi', 'tkp', 'juta', 'ketiga', 'motor', 'pelaku', 'tim']</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -16960,7 +16960,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>['menyebut', 'mengaku', 'duren', 'polri', 'brigadir_yosua', 'saksi', 'polisi', 'pembunuhan', 'ferdy_sambo', 'sambo', 'perintah', 'terkait', 'saudara', 'jakarta', 'arif']</t>
+          <t>['pembunuhan', 'mengaku', 'polisi', 'pembunuhan_brigadir', 'terkait', 'yosua_hutabarat', 'sambo', 'ferdy_sambo', 'saudara']</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -17038,7 +17038,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>['terdakwa', 'rumah', 'anaknya', 'pemerkosaan', 'kali', 'uang', 'polisi', 'korban', 'sidang', 'istri', 'tindak_pidana', 'tersangka', 'berinisial']</t>
+          <t>['berinisial', 'pemerkosaan', 'polisi', 'sidang', 'tindak_pidana', 'tersangka', 'korban', 'rumah', 'terdakwa']</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -17106,7 +17106,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>['saksi', 'pelaku', 'membunuh', 'ditemukan', 'korban', 'pembunuhan', 'wanita', 'luka', 'rumah', 'kali', 'motif', 'tersangka', 'kejadian', 'kondisi', 'warga', 'polisi', 'istri', 'aksi', 'tewas']</t>
+          <t>['pembunuhan', 'polisi', 'saksi', 'ditemukan', 'tersangka', 'membunuh', 'dugaan', 'luka', 'kejadian', 'korban', 'perkara', 'tewas', 'warga', 'rumah', 'motif', 'pelaku']</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -17180,7 +17180,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>['menyebut', 'pemerkosaan', 'polri', 'korban', 'diduga', 'pelaku', 'kuhp', 'langsung', 'pasal', 'tindak_pidana', 'terkait', 'jakarta', 'keluarga']</t>
+          <t>['pemerkosaan', 'diduga', 'polri', 'terkait', 'hukum', 'tindak_pidana', 'korban', 'perempuan', 'pasal', 'andika', 'tni', 'langsung', 'pelaku', 'kuhp']</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -17241,7 +17241,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>['menyebut', 'olah_tkp', 'pencurian', 'tkp', 'putri', 'langsung', 'milik', 'tindak_pidana', 'hilang', 'kejadian', 'masuk', 'laporan']</t>
+          <t>['putri', 'tindak_pidana', 'dugaan', 'kejadian', 'solo', 'milik', 'langsung', 'olah_tkp', 'tkp', 'pencurian', 'masuk']</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -17308,7 +17308,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>['pencurian', 'warga', 'polisi', 'korban', 'motor', 'pelaku', 'langsung', 'jalan', 'berinisial']</t>
+          <t>['berinisial', 'langsung', 'pencurian', 'korban', 'warga', 'motor', 'pelaku', 'polsek']</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -17360,7 +17360,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>['mencuri', 'pemerkosaan', 'warga', 'polisi', 'pria', 'langsung', 'milik', 'jalan', 'kejadian', 'aksi']</t>
+          <t>['mobil', 'pemerkosaan', 'polisi', 'kejadian', 'pria', 'mencuri', 'warga', 'milik', 'langsung']</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -17420,7 +17420,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>['olah_tkp', 'ditemukan', 'polri', 'tkp', 'polres', 'polisi', 'pelaku', 'ditangkap', 'rumah_dinas']</t>
+          <t>['polisi', 'saksi', 'tkp', 'ditemukan', 'perampok', 'dugaan', 'wali', 'blitar', 'ditangkap', 'olah_tkp', 'pelaku', 'rumah_dinas']</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>['mengaku', 'rumah', 'korban', 'pelaku', 'pria', 'milik', 'istri', 'kejadian', 'saudara', 'keluarga']</t>
+          <t>['mengaku', 'keluarga', 'kejadian', 'pria', 'korban', 'rumah', 'pelaku', 'saudara']</t>
         </is>
       </c>
       <c r="F236" t="n">
@@ -17538,7 +17538,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>['pemerkosaan', 'korban', 'pelaku', 'tindak_pidana', 'jakarta', 'tim']</t>
+          <t>['pemerkosaan', 'tindak_pidana', 'korban', 'kekerasan_seksual', 'pelaku', 'tim']</t>
         </is>
       </c>
       <c r="F237" t="n">
@@ -17609,7 +17609,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>['membunuh', 'motif', 'saksi', 'polisi', 'korban', 'pembunuhan', 'diduga', 'pelaku', 'magelang', 'terkait', 'berinisial']</t>
+          <t>['berinisial', 'pembunuhan', 'polisi', 'saksi', 'diduga', 'magelang', 'terkait', 'membunuh', 'korban', 'motif', 'pelaku']</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -17665,7 +17665,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>['pasal_kuhp', 'pelaku', 'pria', 'langsung', 'milik', 'jalan', 'korban', 'juta', 'informasi', 'uang', 'tindak_pidana', 'tersangka', 'berinisial', 'laporan', 'pencurian', 'warga', 'polres', 'polisi', 'polsek']</t>
+          <t>['berinisial', 'pencurian', 'mobil', 'polisi', 'tindak_pidana', 'pasal_kuhp', 'dugaan', 'tersangka', 'pria', 'juta', 'korban', 'jalan', 'perkara', 'warga', 'milik', 'langsung', 'pelaku', 'polsek']</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -17735,7 +17735,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>['ricky_rizal', 'richard_eliezer', 'terdakwa', 'pasal_kuhp', 'informasi', 'pembunuhan_berencana', 'brigadir_yosua', 'saksi', 'pembunuhan_brigadir', 'pembunuhan', 'kuat_ruf', 'sidang', 'kuhp', 'kuat', 'ferdy_sambo', 'sambo', 'putri_candrawathi', 'jakarta']</t>
+          <t>['pidana', 'pembunuhan', 'saksi', 'pembunuhan_brigadir', 'ricky_rizal', 'sidang', 'pasal_kuhp', 'yosua', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'kuhp', 'richard_eliezer']</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -17786,7 +17786,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>['luka', 'membunuh', 'keterangan', 'informasi', 'kali', 'motif', 'kepala', 'polisi', 'korban', 'pembunuhan', 'pelaku', 'istrinya', 'ditangkap', 'milik', 'istri', 'pria', 'kondisi']</t>
+          <t>['pembunuhan', 'mobil', 'polisi', 'membunuh', 'luka', 'pria', 'korban', 'milik', 'motif', 'ditangkap', 'pelaku']</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -17847,7 +17847,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>['terdakwa', 'pasal_kuhp', 'brigadir_yosua', 'saksi', 'pembunuhan_brigadir', 'kuat_ruf', 'sidang', 'milik', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'richard_eliezer', 'keterangan', 'pembunuhan', 'kuhp', 'jakarta', 'masuk', 'pembunuhan_berencana', 'eliezer', 'yosua', 'laporan', 'richard', 'ricky', 'hakim', 'mulia', 'ferdy_sambo', 'sambo', 'magelang', 'yosua_hutabarat']</t>
+          <t>['pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'milik', 'richard_eliezer', 'terdakwa', 'mobil', 'saksi', 'pasal_kuhp', 'kuhp', 'saudara', 'pembunuhan', 'magelang', 'ricky', 'kuat_ruf', 'yosua', 'richard', 'hakim', 'ricky_rizal', 'sidang', 'yosua_hutabarat', 'persidangan']</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -17915,7 +17915,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>['terdakwa', 'brigadir_yosua', 'saksi', 'jaksa', 'pembunuhan_brigadir', 'sidang', 'rumah_dinas', 'putri_candrawathi', 'keterangan', 'agus', 'hendra_kurniawan', 'pembunuhan', 'cctv', 'perintah', 'terkait', 'jakarta', 'informasi', 'yosua', 'mengaku', 'chuck', 'ferdy_sambo', 'sambo', 'hendra', 'yosua_hutabarat', 'arif']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'terdakwa', 'jaksa', 'saksi', 'polri', 'rumah_dinas', 'arif', 'pembunuhan', 'yosua', 'chuck', 'hendra', 'terkait', 'sidang', 'yosua_hutabarat']</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -17983,7 +17983,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>['mengaku', 'perampokan', 'pencurian', 'polres', 'korban', 'diduga', 'pelaku', 'pria', 'ditangkap', 'milik', 'juta', 'berinisial', 'aksi', 'saudara', 'polsek', 'laporan']</t>
+          <t>['berinisial', 'pencurian', 'mengaku', 'diduga', 'perampok', 'pria', 'perampokan', 'korban', 'pasal', 'ditangkap', 'pelaku', 'polsek', 'saudara']</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>['membunuh', 'informasi', 'ditemukan', 'kali', 'tkp', 'polisi', 'korban', 'pembunuhan', 'ketiga', 'milik', 'jalan', 'tersangka', 'jakarta', 'rekonstruksi', 'jaya']</t>
+          <t>['pembunuhan', 'mobil', 'polisi', 'ditemukan', 'tersangka', 'membunuh', 'korban', 'perempuan', 'rekonstruksi', 'milik', 'ketiga', 'tkp']</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -18133,7 +18133,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>['menyebut', 'duren', 'terdakwa', 'brigadir_yosua', 'saksi', 'jaksa', 'saudara', 'keterangan', 'agus', 'bharada_richard', 'pembunuhan', 'kuhp', 'cctv', 'pasal', 'jakarta', 'tim', 'kali', 'polri', 'eliezer', 'tersangka', 'yosua', 'richard', 'mengaku', 'chuck', 'ferdy_sambo', 'sambo', 'hendra', 'istri', 'yosua_hutabarat', 'bharada']</t>
+          <t>['mengaku', 'cctv', 'sambo', 'ferdy_sambo', 'pasal', 'terdakwa', 'saksi', 'polri', 'perkara', 'kuhp', 'tim', 'saudara', 'hukum', 'pembunuhan', 'yosua', 'eliezer', 'richard', 'chuck', 'tersangka', 'yosua_hutabarat', 'bharada']</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -18227,7 +18227,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>['menyebut', 'jaksel', 'mulia', 'hakim', 'keterangan', 'bharada_richard', 'saksi', 'eliezer', 'putri', 'ferdy_sambo', 'sambo', 'sidang', 'putri_candrawathi', 'kejadian', 'saudara', 'bharada', 'masuk']</t>
+          <t>['saksi', 'putri', 'sidang', 'eliezer', 'sambo', 'kejadian', 'ferdy_sambo', 'putri_candrawathi', 'hakim', 'bharada', 'saudara', 'masuk']</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -18302,7 +18302,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>['menyebut', 'terdakwa', 'brigadir_yosua', 'pembunuhan_brigadir', 'sidang', 'putri_candrawathi', 'saudara', 'ricky_rizal', 'anaknya', 'pembunuhan', 'masuk', 'jaksel', 'rumah', 'polri', 'putri', 'keluarga', 'mengaku', 'ricky', 'hakim', 'ferdy_sambo', 'sambo', 'istri', 'magelang', 'yosua_hutabarat']</t>
+          <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'terdakwa', 'polri', 'saudara', 'masuk', 'pembunuhan', 'magelang', 'ricky', 'putri', 'keluarga', 'hakim', 'ricky_rizal', 'yosua_hutabarat', 'rumah', 'persidangan']</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -18395,7 +18395,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>['luka', 'mengaku', 'informasi', 'ditemukan', 'polres', 'saksi', 'polisi', 'korban', 'diduga', 'langsung', 'jalan', 'tangerang', 'berinisial', 'tewas', 'masuk']</t>
+          <t>['berinisial', 'mengaku', 'polisi', 'saksi', 'diduga', 'ditemukan', 'dugaan', 'luka', 'korban', 'jalan', 'perempuan', 'tewas', 'langsung', 'masuk']</t>
         </is>
       </c>
       <c r="F249" t="n">
